--- a/Review/3_plots/data/Qualitative_Evaluation_Validation_Steps.xlsx
+++ b/Review/3_plots/data/Qualitative_Evaluation_Validation_Steps.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\birkenls\OneDrive - GESIS – Leibniz-Institut für Sozialwissenschaften e.V\Dokumente\Coding Projekte (Git)\Review_Validity\Review\3_plots\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CE3EBC6-5E3C-4B0C-9412-B81CDB5C2041}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9581E59E-3B4C-4B93-BE5B-F28FDE2CC891}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17790" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="3" r:id="rId1"/>
     <sheet name="Pivot Table" sheetId="7" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="ExternalData_1" localSheetId="0" hidden="1">data!$A$1:$AG$169</definedName>
+    <definedName name="ExternalData_1" localSheetId="0" hidden="1">data!$A$1:$AI$169</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5047" uniqueCount="991">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5377" uniqueCount="1005">
   <si>
     <t>Zeitstempel</t>
   </si>
@@ -4326,6 +4326,48 @@
   </si>
   <si>
     <t>Count of doi</t>
+  </si>
+  <si>
+    <t>Phase</t>
+  </si>
+  <si>
+    <t>Hand-Coding Labels</t>
+  </si>
+  <si>
+    <t>Text-based measures</t>
+  </si>
+  <si>
+    <t>Surrogate Labels</t>
+  </si>
+  <si>
+    <t>Prediction</t>
+  </si>
+  <si>
+    <t>Model Features</t>
+  </si>
+  <si>
+    <t>Exploratory Examinations</t>
+  </si>
+  <si>
+    <t>Model Metrics</t>
+  </si>
+  <si>
+    <t>Measure Inspection</t>
+  </si>
+  <si>
+    <t>Structural</t>
+  </si>
+  <si>
+    <t>External</t>
+  </si>
+  <si>
+    <t>Visual Inspection</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cross Validation in the </t>
+  </si>
+  <si>
+    <t>category_evidence</t>
   </si>
 </sst>
 </file>
@@ -4955,7 +4997,23 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="47">
+  <dxfs count="49">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -5084,6 +5142,15 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -5163,13 +5230,6 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="27" formatCode="dd/mm/yyyy\ hh:mm"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -12132,7 +12192,7 @@
     <dataField name="Count of doi" fld="21" subtotal="count" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="14">
-    <format dxfId="13">
+    <format dxfId="15">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="3">
           <reference field="26" count="1" selected="0">
@@ -12147,7 +12207,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="12">
+    <format dxfId="14">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="3">
           <reference field="26" count="1" selected="0">
@@ -12162,7 +12222,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="11">
+    <format dxfId="13">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="3">
           <reference field="26" count="1" selected="0">
@@ -12177,7 +12237,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="10">
+    <format dxfId="12">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="3">
           <reference field="26" count="1" selected="0">
@@ -12192,7 +12252,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="9">
+    <format dxfId="11">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="3">
           <reference field="26" count="1" selected="0">
@@ -12207,7 +12267,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="8">
+    <format dxfId="10">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="3">
           <reference field="26" count="1" selected="0">
@@ -12222,7 +12282,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="7">
+    <format dxfId="9">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="3">
           <reference field="26" count="1" selected="0">
@@ -12237,7 +12297,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="6">
+    <format dxfId="8">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="3">
           <reference field="26" count="1" selected="0">
@@ -12252,7 +12312,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="5">
+    <format dxfId="7">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="3">
           <reference field="26" count="1" selected="0">
@@ -12268,7 +12328,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="4">
+    <format dxfId="6">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="3">
           <reference field="26" count="1" selected="0">
@@ -12284,7 +12344,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="3">
+    <format dxfId="5">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="3">
           <reference field="26" count="1" selected="0">
@@ -12299,7 +12359,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="2">
+    <format dxfId="4">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="3">
           <reference field="26" count="1" selected="0">
@@ -12314,7 +12374,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1">
+    <format dxfId="3">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="3">
           <reference field="26" count="1" selected="0">
@@ -12332,7 +12392,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="0">
+    <format dxfId="2">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="3">
           <reference field="26" count="1" selected="0">
@@ -12365,8 +12425,8 @@
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="ExternalData_1" connectionId="1" xr16:uid="{00000000-0016-0000-0000-000000000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
-  <queryTableRefresh nextId="38" unboundColumnsRight="1">
-    <queryTableFields count="34">
+  <queryTableRefresh nextId="40" unboundColumnsRight="1">
+    <queryTableFields count="36">
       <queryTableField id="1" name="Zeitstempel" tableColumnId="1"/>
       <queryTableField id="2" name="title" tableColumnId="2"/>
       <queryTableField id="3" name="These are the Authors" tableColumnId="3"/>
@@ -12397,7 +12457,9 @@
       <queryTableField id="27" name="v1" tableColumnId="27"/>
       <queryTableField id="28" name="v2" tableColumnId="28"/>
       <queryTableField id="31" dataBound="0" tableColumnId="31"/>
+      <queryTableField id="38" dataBound="0" tableColumnId="35"/>
       <queryTableField id="29" name="v3" tableColumnId="29"/>
+      <queryTableField id="39" dataBound="0" tableColumnId="36"/>
       <queryTableField id="37" dataBound="0" tableColumnId="33"/>
       <queryTableField id="30" name="v4" tableColumnId="30"/>
       <queryTableField id="33" dataBound="0" tableColumnId="32"/>
@@ -12407,52 +12469,52 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="qualitative_coding_categories" displayName="qualitative_coding_categories" ref="A1:AH169" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:AH169" xr:uid="{00000000-0009-0000-0100-000001000000}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="qualitative_coding_categories" displayName="qualitative_coding_categories" ref="A1:AJ169" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:AJ169" xr:uid="{00000000-0009-0000-0100-000001000000}">
     <filterColumn colId="30">
-      <filters>
-        <filter val="Output Validation: Human Annotated Scores"/>
-      </filters>
+      <filters blank="1"/>
     </filterColumn>
   </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:AH83">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:AJ55">
     <sortCondition ref="AD1:AD169"/>
   </sortState>
-  <tableColumns count="34">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" uniqueName="1" name="Zeitstempel" queryTableFieldId="1" dataDxfId="45"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" uniqueName="2" name="title" queryTableFieldId="2" dataDxfId="44"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" uniqueName="3" name="These are the Authors" queryTableFieldId="3" dataDxfId="43"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" uniqueName="4" name="Please scan the text. _x000d__x000a_Does the study fulfil the eligibility criteria?_x000d__x000a_- Empirical Study_x000d__x000a_- Field of Political Communication_x000d__x000a_- Using Text as Data Method to operationalise a construct of interest _x000d__x000a__x000d__x000a_You may come back to this question if you have starte" queryTableFieldId="4" dataDxfId="42"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" uniqueName="5" name="If no: Why is the study out of scope?" queryTableFieldId="5" dataDxfId="41"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" uniqueName="6" name="source" queryTableFieldId="6" dataDxfId="40"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" uniqueName="7" name="language" queryTableFieldId="7" dataDxfId="39"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" uniqueName="8" name="language_others" queryTableFieldId="8" dataDxfId="38"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" uniqueName="9" name="Please name the target construct as described by the authors)_x000d__x000a_Note: Please use the exact wording of the authors, such as &quot;affective polarization&quot;, &quot;semantic complexity&quot;._x000d__x000a_If there is more than one construct studied, please separate constructs by a comma " queryTableFieldId="9" dataDxfId="37"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" uniqueName="10" name="construct_new" queryTableFieldId="10" dataDxfId="36"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" uniqueName="11" name="method_type" queryTableFieldId="11" dataDxfId="35"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" uniqueName="12" name="method_name" queryTableFieldId="12" dataDxfId="34"/>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" uniqueName="13" name="What is the outcome of the method?" queryTableFieldId="13" dataDxfId="33"/>
-    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" uniqueName="14" name="Do you have any comments on the study design?" queryTableFieldId="14" dataDxfId="32"/>
-    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" uniqueName="15" name="If yes: What are your comments on the study design?" queryTableFieldId="15" dataDxfId="31"/>
-    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" uniqueName="16" name="Are steps of validation reported?" queryTableFieldId="16" dataDxfId="30"/>
-    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" uniqueName="17" name="Is there a link to an Appendix/additional Materials/GitHub repository?" queryTableFieldId="17" dataDxfId="29"/>
-    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" uniqueName="18" name="_x000d__x000a_Is the data for the analysis accessible?" queryTableFieldId="18" dataDxfId="28"/>
-    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0000-000013000000}" uniqueName="19" name="Is the code for the analysis accessible?" queryTableFieldId="19" dataDxfId="27"/>
-    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0000-000014000000}" uniqueName="20" name="E-Mail-Adresse" queryTableFieldId="20" dataDxfId="26"/>
-    <tableColumn id="21" xr3:uid="{00000000-0010-0000-0000-000015000000}" uniqueName="21" name="id" queryTableFieldId="21" dataDxfId="25"/>
-    <tableColumn id="22" xr3:uid="{00000000-0010-0000-0000-000016000000}" uniqueName="22" name="doi" queryTableFieldId="22" dataDxfId="24"/>
-    <tableColumn id="23" xr3:uid="{00000000-0010-0000-0000-000017000000}" uniqueName="23" name="journal" queryTableFieldId="23" dataDxfId="23"/>
+  <tableColumns count="36">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" uniqueName="1" name="Zeitstempel" queryTableFieldId="1" dataDxfId="48"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" uniqueName="2" name="title" queryTableFieldId="2" dataDxfId="47"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" uniqueName="3" name="These are the Authors" queryTableFieldId="3" dataDxfId="46"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" uniqueName="4" name="Please scan the text. _x000d__x000a_Does the study fulfil the eligibility criteria?_x000d__x000a_- Empirical Study_x000d__x000a_- Field of Political Communication_x000d__x000a_- Using Text as Data Method to operationalise a construct of interest _x000d__x000a__x000d__x000a_You may come back to this question if you have starte" queryTableFieldId="4" dataDxfId="45"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" uniqueName="5" name="If no: Why is the study out of scope?" queryTableFieldId="5" dataDxfId="44"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" uniqueName="6" name="source" queryTableFieldId="6" dataDxfId="43"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" uniqueName="7" name="language" queryTableFieldId="7" dataDxfId="42"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" uniqueName="8" name="language_others" queryTableFieldId="8" dataDxfId="41"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" uniqueName="9" name="Please name the target construct as described by the authors)_x000d__x000a_Note: Please use the exact wording of the authors, such as &quot;affective polarization&quot;, &quot;semantic complexity&quot;._x000d__x000a_If there is more than one construct studied, please separate constructs by a comma " queryTableFieldId="9" dataDxfId="40"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" uniqueName="10" name="construct_new" queryTableFieldId="10" dataDxfId="39"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" uniqueName="11" name="method_type" queryTableFieldId="11" dataDxfId="38"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" uniqueName="12" name="method_name" queryTableFieldId="12" dataDxfId="37"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" uniqueName="13" name="What is the outcome of the method?" queryTableFieldId="13" dataDxfId="36"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" uniqueName="14" name="Do you have any comments on the study design?" queryTableFieldId="14" dataDxfId="35"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" uniqueName="15" name="If yes: What are your comments on the study design?" queryTableFieldId="15" dataDxfId="34"/>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" uniqueName="16" name="Are steps of validation reported?" queryTableFieldId="16" dataDxfId="33"/>
+    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" uniqueName="17" name="Is there a link to an Appendix/additional Materials/GitHub repository?" queryTableFieldId="17" dataDxfId="32"/>
+    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" uniqueName="18" name="_x000d__x000a_Is the data for the analysis accessible?" queryTableFieldId="18" dataDxfId="31"/>
+    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0000-000013000000}" uniqueName="19" name="Is the code for the analysis accessible?" queryTableFieldId="19" dataDxfId="30"/>
+    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0000-000014000000}" uniqueName="20" name="E-Mail-Adresse" queryTableFieldId="20" dataDxfId="29"/>
+    <tableColumn id="21" xr3:uid="{00000000-0010-0000-0000-000015000000}" uniqueName="21" name="id" queryTableFieldId="21" dataDxfId="28"/>
+    <tableColumn id="22" xr3:uid="{00000000-0010-0000-0000-000016000000}" uniqueName="22" name="doi" queryTableFieldId="22" dataDxfId="27"/>
+    <tableColumn id="23" xr3:uid="{00000000-0010-0000-0000-000017000000}" uniqueName="23" name="journal" queryTableFieldId="23" dataDxfId="26"/>
     <tableColumn id="24" xr3:uid="{00000000-0010-0000-0000-000018000000}" uniqueName="24" name="year" queryTableFieldId="24"/>
     <tableColumn id="25" xr3:uid="{00000000-0010-0000-0000-000019000000}" uniqueName="25" name="n_validation" queryTableFieldId="25"/>
-    <tableColumn id="26" xr3:uid="{00000000-0010-0000-0000-00001A000000}" uniqueName="26" name="location" queryTableFieldId="26" dataDxfId="22"/>
-    <tableColumn id="34" xr3:uid="{00000000-0010-0000-0000-000022000000}" uniqueName="34" name="method_short" queryTableFieldId="35" dataDxfId="21"/>
-    <tableColumn id="27" xr3:uid="{00000000-0010-0000-0000-00001B000000}" uniqueName="27" name="Text_Long" queryTableFieldId="27" dataDxfId="20"/>
-    <tableColumn id="28" xr3:uid="{00000000-0010-0000-0000-00001C000000}" uniqueName="28" name="Description_informal" queryTableFieldId="28" dataDxfId="19"/>
-    <tableColumn id="31" xr3:uid="{00000000-0010-0000-0000-00001F000000}" uniqueName="31" name="category_specific" queryTableFieldId="31" dataDxfId="18"/>
-    <tableColumn id="29" xr3:uid="{00000000-0010-0000-0000-00001D000000}" uniqueName="29" name="category_general" queryTableFieldId="29" dataDxfId="17"/>
-    <tableColumn id="33" xr3:uid="{CCB0E87B-5950-4F12-9998-B689DB3AA8A0}" uniqueName="33" name="validity_type_paper" queryTableFieldId="37" dataDxfId="16"/>
-    <tableColumn id="30" xr3:uid="{00000000-0010-0000-0000-00001E000000}" uniqueName="30" name="v4" queryTableFieldId="30" dataDxfId="15"/>
-    <tableColumn id="32" xr3:uid="{00000000-0010-0000-0000-000020000000}" uniqueName="32" name="v5" queryTableFieldId="33" dataDxfId="14"/>
+    <tableColumn id="26" xr3:uid="{00000000-0010-0000-0000-00001A000000}" uniqueName="26" name="location" queryTableFieldId="26" dataDxfId="25"/>
+    <tableColumn id="34" xr3:uid="{00000000-0010-0000-0000-000022000000}" uniqueName="34" name="method_short" queryTableFieldId="35" dataDxfId="24"/>
+    <tableColumn id="27" xr3:uid="{00000000-0010-0000-0000-00001B000000}" uniqueName="27" name="Text_Long" queryTableFieldId="27" dataDxfId="23"/>
+    <tableColumn id="28" xr3:uid="{00000000-0010-0000-0000-00001C000000}" uniqueName="28" name="Description_informal" queryTableFieldId="28" dataDxfId="22"/>
+    <tableColumn id="31" xr3:uid="{00000000-0010-0000-0000-00001F000000}" uniqueName="31" name="category_specific" queryTableFieldId="31" dataDxfId="21"/>
+    <tableColumn id="35" xr3:uid="{699DA15B-3FF8-4D69-B8F6-F2BFA63920BA}" uniqueName="35" name="category_evidence" queryTableFieldId="38" dataDxfId="20"/>
+    <tableColumn id="29" xr3:uid="{00000000-0010-0000-0000-00001D000000}" uniqueName="29" name="category_general" queryTableFieldId="29" dataDxfId="19"/>
+    <tableColumn id="36" xr3:uid="{7BF342A4-6DBB-422B-95C9-387B389149ED}" uniqueName="36" name="Phase" queryTableFieldId="39" dataDxfId="1"/>
+    <tableColumn id="33" xr3:uid="{CCB0E87B-5950-4F12-9998-B689DB3AA8A0}" uniqueName="33" name="validity_type_paper" queryTableFieldId="37" dataDxfId="18"/>
+    <tableColumn id="30" xr3:uid="{00000000-0010-0000-0000-00001E000000}" uniqueName="30" name="v4" queryTableFieldId="30" dataDxfId="17"/>
+    <tableColumn id="32" xr3:uid="{00000000-0010-0000-0000-000020000000}" uniqueName="32" name="v5" queryTableFieldId="33" dataDxfId="16"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -12755,51 +12817,51 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AH170"/>
+  <dimension ref="A1:AJ170"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A138" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="V1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="AA1" sqref="AA1"/>
-      <selection pane="bottomLeft" activeCell="AE84" sqref="AE84:AE139"/>
+      <selection pane="bottomLeft" activeCell="AE1" sqref="AE1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10" customWidth="1"/>
-    <col min="3" max="3" width="81.1796875" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="24.54296875" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="57.26953125" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="81.1796875" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="11.26953125" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="30.54296875" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="81.1796875" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="18.81640625" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="31.26953125" customWidth="1"/>
-    <col min="12" max="12" width="81.1796875" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="36.7265625" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="47.26953125" hidden="1" customWidth="1"/>
-    <col min="15" max="15" width="81.1796875" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="33.1796875" hidden="1" customWidth="1"/>
-    <col min="17" max="17" width="67.26953125" hidden="1" customWidth="1"/>
-    <col min="18" max="18" width="38.7265625" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="81.140625" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="24.5703125" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="57.28515625" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="81.140625" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="11.28515625" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="30.5703125" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="81.140625" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="18.85546875" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="31.28515625" customWidth="1"/>
+    <col min="12" max="12" width="81.140625" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="36.7109375" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="47.28515625" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="81.140625" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="33.140625" hidden="1" customWidth="1"/>
+    <col min="17" max="17" width="67.28515625" hidden="1" customWidth="1"/>
+    <col min="18" max="18" width="38.7109375" hidden="1" customWidth="1"/>
     <col min="19" max="19" width="38" hidden="1" customWidth="1"/>
-    <col min="20" max="20" width="29.1796875" hidden="1" customWidth="1"/>
-    <col min="21" max="21" width="30.26953125" hidden="1" customWidth="1"/>
-    <col min="22" max="22" width="29.26953125" customWidth="1"/>
+    <col min="20" max="20" width="29.140625" hidden="1" customWidth="1"/>
+    <col min="21" max="21" width="30.28515625" hidden="1" customWidth="1"/>
+    <col min="22" max="22" width="29.28515625" customWidth="1"/>
     <col min="23" max="23" width="41" hidden="1" customWidth="1"/>
-    <col min="24" max="24" width="7.1796875" hidden="1" customWidth="1"/>
-    <col min="25" max="25" width="14.26953125" hidden="1" customWidth="1"/>
-    <col min="26" max="26" width="10.453125" hidden="1" customWidth="1"/>
-    <col min="27" max="27" width="10.453125" customWidth="1"/>
-    <col min="28" max="28" width="35.1796875" style="21" hidden="1" customWidth="1"/>
-    <col min="29" max="29" width="36" style="1" hidden="1" customWidth="1"/>
-    <col min="30" max="30" width="52.26953125" style="17" customWidth="1"/>
-    <col min="31" max="31" width="21.54296875" customWidth="1"/>
-    <col min="32" max="32" width="32.26953125" style="21" customWidth="1"/>
+    <col min="24" max="24" width="7.140625" hidden="1" customWidth="1"/>
+    <col min="25" max="25" width="14.28515625" hidden="1" customWidth="1"/>
+    <col min="26" max="26" width="10.42578125" hidden="1" customWidth="1"/>
+    <col min="27" max="27" width="10.42578125" customWidth="1"/>
+    <col min="28" max="28" width="35.140625" style="21" customWidth="1"/>
+    <col min="29" max="29" width="36" style="1" customWidth="1"/>
+    <col min="30" max="31" width="52.28515625" style="17" customWidth="1"/>
+    <col min="32" max="33" width="21.5703125" customWidth="1"/>
+    <col min="34" max="34" width="32.28515625" style="21" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:36" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -12891,19 +12953,25 @@
         <v>952</v>
       </c>
       <c r="AE1" s="10" t="s">
+        <v>1004</v>
+      </c>
+      <c r="AF1" s="10" t="s">
         <v>953</v>
       </c>
-      <c r="AF1" s="19" t="s">
+      <c r="AG1" s="10" t="s">
+        <v>991</v>
+      </c>
+      <c r="AH1" s="19" t="s">
         <v>954</v>
       </c>
-      <c r="AG1" s="9" t="s">
+      <c r="AI1" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AJ1" t="s">
         <v>887</v>
       </c>
     </row>
-    <row r="2" spans="1:34" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:36" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>44809.726388888892</v>
       </c>
@@ -12994,16 +13062,22 @@
       <c r="AD2" s="16" t="s">
         <v>919</v>
       </c>
-      <c r="AE2" s="4" t="s">
+      <c r="AE2" s="16" t="s">
+        <v>996</v>
+      </c>
+      <c r="AF2" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="AF2" s="20"/>
-      <c r="AG2" s="3" t="s">
+      <c r="AG2" s="4" t="s">
+        <v>1000</v>
+      </c>
+      <c r="AH2" s="20"/>
+      <c r="AI2" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="AH2" s="3"/>
+      <c r="AJ2" s="3"/>
     </row>
-    <row r="3" spans="1:34" ht="38.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:36" ht="38.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>44875.956701388888</v>
       </c>
@@ -13094,24 +13168,30 @@
       <c r="AD3" s="16" t="s">
         <v>979</v>
       </c>
-      <c r="AE3" s="5" t="s">
+      <c r="AE3" s="17" t="s">
+        <v>994</v>
+      </c>
+      <c r="AF3" s="5" t="s">
         <v>963</v>
       </c>
-      <c r="AF3" s="22"/>
-      <c r="AG3" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="AH3" s="3"/>
+      <c r="AG3" s="5" t="s">
+        <v>1001</v>
+      </c>
+      <c r="AH3" s="22"/>
+      <c r="AI3" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="AJ3" s="3"/>
     </row>
-    <row r="4" spans="1:34" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
-        <v>44875.956701388888</v>
+        <v>44883.608020833337</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>213</v>
+        <v>298</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>775</v>
+        <v>299</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>27</v>
@@ -13120,25 +13200,25 @@
         <v>28</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>146</v>
+        <v>300</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>28</v>
+        <v>301</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>214</v>
+        <v>302</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>215</v>
+        <v>279</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>216</v>
+        <v>280</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>217</v>
+        <v>303</v>
       </c>
       <c r="M4" s="3" t="s">
         <v>28</v>
@@ -13153,59 +13233,65 @@
         <v>36</v>
       </c>
       <c r="Q4" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="R4" s="3" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="S4" s="3" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="T4" s="3" t="s">
         <v>37</v>
       </c>
       <c r="U4" s="3" t="s">
-        <v>218</v>
+        <v>304</v>
       </c>
       <c r="V4" s="3" t="s">
-        <v>219</v>
+        <v>305</v>
       </c>
       <c r="W4" s="3" t="s">
-        <v>88</v>
+        <v>58</v>
       </c>
       <c r="X4">
         <v>2020</v>
       </c>
       <c r="Y4">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Z4" s="3" t="s">
-        <v>85</v>
+        <v>41</v>
       </c>
       <c r="AA4" s="3" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
       <c r="AB4" s="18" t="s">
-        <v>223</v>
+        <v>306</v>
       </c>
       <c r="AC4" s="11" t="s">
-        <v>886</v>
+        <v>307</v>
       </c>
       <c r="AD4" s="16" t="s">
-        <v>971</v>
-      </c>
-      <c r="AE4" s="4" t="s">
+        <v>966</v>
+      </c>
+      <c r="AE4" s="16" t="s">
+        <v>997</v>
+      </c>
+      <c r="AF4" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="AF4" s="20"/>
-      <c r="AG4" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="AH4" s="3" t="s">
-        <v>906</v>
+      <c r="AG4" s="4" t="s">
+        <v>1000</v>
+      </c>
+      <c r="AH4" s="20"/>
+      <c r="AI4" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="AJ4" s="3" t="s">
+        <v>891</v>
       </c>
     </row>
-    <row r="5" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>44879.638194444444</v>
       </c>
@@ -13297,23 +13383,29 @@
         <v>964</v>
       </c>
       <c r="AE5" s="4" t="s">
+        <v>999</v>
+      </c>
+      <c r="AF5" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="AF5" s="20"/>
-      <c r="AG5" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="AH5" s="3"/>
+      <c r="AG5" s="4" t="s">
+        <v>1000</v>
+      </c>
+      <c r="AH5" s="20"/>
+      <c r="AI5" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="AJ5" s="3"/>
     </row>
-    <row r="6" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
-        <v>44883.529039351852</v>
+        <v>44894.483946759261</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>347</v>
+        <v>309</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>794</v>
+        <v>310</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>27</v>
@@ -13322,25 +13414,25 @@
         <v>28</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>348</v>
+        <v>300</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>28</v>
+        <v>311</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>349</v>
+        <v>312</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>350</v>
+        <v>279</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>201</v>
+        <v>280</v>
       </c>
       <c r="L6" s="3" t="s">
-        <v>351</v>
+        <v>313</v>
       </c>
       <c r="M6" s="3" t="s">
         <v>28</v>
@@ -13352,68 +13444,76 @@
         <v>28</v>
       </c>
       <c r="P6" s="3" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="Q6" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="R6" s="3" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="S6" s="3" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="T6" s="3" t="s">
         <v>37</v>
       </c>
       <c r="U6" s="3" t="s">
-        <v>795</v>
+        <v>314</v>
       </c>
       <c r="V6" s="3" t="s">
-        <v>352</v>
+        <v>315</v>
       </c>
       <c r="W6" s="3" t="s">
         <v>70</v>
       </c>
       <c r="X6">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="Y6">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Z6" s="3" t="s">
-        <v>85</v>
+        <v>41</v>
       </c>
       <c r="AA6" s="3" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
       <c r="AB6" s="18" t="s">
-        <v>914</v>
+        <v>788</v>
       </c>
       <c r="AC6" s="11" t="s">
-        <v>356</v>
+        <v>316</v>
       </c>
       <c r="AD6" s="16" t="s">
-        <v>970</v>
-      </c>
-      <c r="AE6" s="4" t="s">
+        <v>966</v>
+      </c>
+      <c r="AE6" s="16" t="s">
+        <v>997</v>
+      </c>
+      <c r="AF6" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="AF6" s="20"/>
-      <c r="AG6" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="AH6" s="3"/>
+      <c r="AG6" s="4" t="s">
+        <v>1000</v>
+      </c>
+      <c r="AH6" s="20"/>
+      <c r="AI6" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="AJ6" s="3" t="s">
+        <v>906</v>
+      </c>
     </row>
-    <row r="7" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:36" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
-        <v>44895.742106481484</v>
+        <v>44811.569085648145</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>518</v>
+        <v>89</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>519</v>
+        <v>90</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>27</v>
@@ -13422,7 +13522,7 @@
         <v>28</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>520</v>
+        <v>63</v>
       </c>
       <c r="G7" s="3" t="s">
         <v>30</v>
@@ -13431,89 +13531,97 @@
         <v>28</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>521</v>
+        <v>91</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>419</v>
+        <v>87</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>447</v>
+        <v>92</v>
       </c>
       <c r="L7" s="3" t="s">
-        <v>497</v>
+        <v>93</v>
       </c>
       <c r="M7" s="3" t="s">
         <v>28</v>
       </c>
       <c r="N7" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="O7" s="3" t="s">
-        <v>28</v>
+        <v>94</v>
       </c>
       <c r="P7" s="3" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="Q7" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="R7" s="3" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="S7" s="3" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="T7" s="3" t="s">
         <v>37</v>
       </c>
       <c r="U7" s="3" t="s">
-        <v>522</v>
+        <v>95</v>
       </c>
       <c r="V7" s="3" t="s">
-        <v>28</v>
+        <v>96</v>
       </c>
       <c r="W7" s="3" t="s">
-        <v>500</v>
+        <v>70</v>
       </c>
       <c r="X7">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="Y7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Z7" s="3" t="s">
-        <v>41</v>
+        <v>85</v>
       </c>
       <c r="AA7" s="3" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="AB7" s="18" t="s">
-        <v>907</v>
+        <v>745</v>
       </c>
       <c r="AC7" s="11" t="s">
-        <v>523</v>
+        <v>100</v>
       </c>
       <c r="AD7" s="16" t="s">
-        <v>967</v>
-      </c>
-      <c r="AE7" s="4" t="s">
+        <v>966</v>
+      </c>
+      <c r="AE7" s="16" t="s">
+        <v>997</v>
+      </c>
+      <c r="AF7" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="AF7" s="20"/>
-      <c r="AG7" s="3" t="s">
+      <c r="AG7" s="4" t="s">
+        <v>1000</v>
+      </c>
+      <c r="AH7" s="20"/>
+      <c r="AI7" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="AH7" s="3"/>
+      <c r="AJ7" s="3" t="s">
+        <v>906</v>
+      </c>
     </row>
-    <row r="8" spans="1:34" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:36" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
-        <v>44875.927789351852</v>
+        <v>44810.531539351854</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>536</v>
+        <v>604</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>835</v>
+        <v>849</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>27</v>
@@ -13528,19 +13636,19 @@
         <v>50</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>537</v>
+        <v>247</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>538</v>
+        <v>605</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>539</v>
+        <v>606</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>447</v>
+        <v>77</v>
       </c>
       <c r="L8" s="3" t="s">
-        <v>540</v>
+        <v>78</v>
       </c>
       <c r="M8" s="3" t="s">
         <v>28</v>
@@ -13567,45 +13675,51 @@
         <v>37</v>
       </c>
       <c r="U8" s="3" t="s">
-        <v>541</v>
+        <v>850</v>
       </c>
       <c r="V8" s="3" t="s">
-        <v>542</v>
+        <v>607</v>
       </c>
       <c r="W8" s="3" t="s">
         <v>114</v>
       </c>
       <c r="X8">
-        <v>2019</v>
+        <v>2022</v>
       </c>
       <c r="Y8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Z8" s="3" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="AA8" s="3" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="AB8" s="18" t="s">
-        <v>836</v>
+        <v>851</v>
       </c>
       <c r="AC8" s="11" t="s">
-        <v>543</v>
+        <v>608</v>
       </c>
       <c r="AD8" s="16" t="s">
-        <v>967</v>
-      </c>
-      <c r="AE8" s="4" t="s">
+        <v>966</v>
+      </c>
+      <c r="AE8" s="16" t="s">
+        <v>997</v>
+      </c>
+      <c r="AF8" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="AF8" s="20"/>
-      <c r="AG8" s="3" t="s">
+      <c r="AG8" s="4" t="s">
+        <v>1000</v>
+      </c>
+      <c r="AH8" s="20"/>
+      <c r="AI8" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="AH8" s="3"/>
+      <c r="AJ8" s="3"/>
     </row>
-    <row r="9" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>44809.726388888892</v>
       </c>
@@ -13696,16 +13810,22 @@
       <c r="AD9" s="16" t="s">
         <v>979</v>
       </c>
-      <c r="AE9" s="5" t="s">
+      <c r="AE9" s="17" t="s">
+        <v>994</v>
+      </c>
+      <c r="AF9" s="5" t="s">
         <v>963</v>
       </c>
-      <c r="AF9" s="22"/>
-      <c r="AG9" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="AH9" s="3"/>
+      <c r="AG9" s="5" t="s">
+        <v>1001</v>
+      </c>
+      <c r="AH9" s="22"/>
+      <c r="AI9" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="AJ9" s="3"/>
     </row>
-    <row r="10" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>44873.525972222225</v>
       </c>
@@ -13797,15 +13917,21 @@
         <v>964</v>
       </c>
       <c r="AE10" s="4" t="s">
+        <v>999</v>
+      </c>
+      <c r="AF10" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="AF10" s="20"/>
-      <c r="AG10" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="AH10" s="3"/>
+      <c r="AG10" s="4" t="s">
+        <v>1000</v>
+      </c>
+      <c r="AH10" s="20"/>
+      <c r="AI10" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="AJ10" s="3"/>
     </row>
-    <row r="11" spans="1:34" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:36" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>44876.495821759258</v>
       </c>
@@ -13896,16 +14022,22 @@
       <c r="AD11" s="16" t="s">
         <v>965</v>
       </c>
-      <c r="AE11" s="4" t="s">
+      <c r="AE11" s="16" t="s">
+        <v>996</v>
+      </c>
+      <c r="AF11" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="AF11" s="20"/>
-      <c r="AG11" s="3" t="s">
+      <c r="AG11" s="4" t="s">
+        <v>1000</v>
+      </c>
+      <c r="AH11" s="20"/>
+      <c r="AI11" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="AH11" s="3"/>
+      <c r="AJ11" s="3"/>
     </row>
-    <row r="12" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>44895.738333333335</v>
       </c>
@@ -13996,22 +14128,24 @@
       <c r="AD12" s="16" t="s">
         <v>922</v>
       </c>
-      <c r="AE12" s="4" t="s">
+      <c r="AE12" s="16"/>
+      <c r="AF12" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="AF12" s="20"/>
-      <c r="AG12" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="AH12" s="3" t="s">
+      <c r="AG12" s="4"/>
+      <c r="AH12" s="20"/>
+      <c r="AI12" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="AJ12" s="3" t="s">
         <v>906</v>
       </c>
     </row>
-    <row r="13" spans="1:34" ht="409.5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="2">
+    <row r="13" spans="1:36" s="21" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="28">
         <v>44895.738333333335</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="18" t="s">
         <v>320</v>
       </c>
       <c r="C13" s="3" t="s">
@@ -14038,7 +14172,7 @@
       <c r="J13" s="3" t="s">
         <v>279</v>
       </c>
-      <c r="K13" s="3" t="s">
+      <c r="K13" s="18" t="s">
         <v>33</v>
       </c>
       <c r="L13" s="3" t="s">
@@ -14071,7 +14205,7 @@
       <c r="U13" s="3" t="s">
         <v>324</v>
       </c>
-      <c r="V13" s="3" t="s">
+      <c r="V13" s="18" t="s">
         <v>28</v>
       </c>
       <c r="W13" s="3" t="s">
@@ -14086,36 +14220,42 @@
       <c r="Z13" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="AA13" s="3" t="s">
+      <c r="AA13" s="18" t="s">
         <v>895</v>
       </c>
-      <c r="AB13" s="11" t="s">
+      <c r="AB13" s="18" t="s">
         <v>951</v>
       </c>
-      <c r="AC13" s="11" t="s">
+      <c r="AC13" s="18" t="s">
         <v>326</v>
       </c>
-      <c r="AD13" s="16" t="s">
+      <c r="AD13" s="29" t="s">
         <v>964</v>
       </c>
       <c r="AE13" s="4" t="s">
+        <v>999</v>
+      </c>
+      <c r="AF13" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="AF13" s="20"/>
-      <c r="AG13" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="AH13" s="3"/>
+      <c r="AG13" s="4" t="s">
+        <v>1000</v>
+      </c>
+      <c r="AH13" s="20"/>
+      <c r="AI13" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="AJ13" s="18"/>
     </row>
-    <row r="14" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
-        <v>44879.561863425923</v>
+        <v>44894.509618055556</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>328</v>
+        <v>657</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>329</v>
+        <v>658</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>27</v>
@@ -14124,25 +14264,25 @@
         <v>28</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>330</v>
+        <v>125</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>28</v>
+        <v>618</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>331</v>
+        <v>659</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>332</v>
+        <v>606</v>
       </c>
       <c r="K14" s="3" t="s">
-        <v>33</v>
+        <v>77</v>
       </c>
       <c r="L14" s="3" t="s">
-        <v>333</v>
+        <v>120</v>
       </c>
       <c r="M14" s="3" t="s">
         <v>28</v>
@@ -14154,7 +14294,7 @@
         <v>28</v>
       </c>
       <c r="P14" s="3" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="Q14" s="3" t="s">
         <v>36</v>
@@ -14163,51 +14303,55 @@
         <v>36</v>
       </c>
       <c r="S14" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="T14" s="3" t="s">
         <v>37</v>
       </c>
       <c r="U14" s="3" t="s">
-        <v>334</v>
+        <v>660</v>
       </c>
       <c r="V14" s="3" t="s">
-        <v>335</v>
+        <v>661</v>
       </c>
       <c r="W14" s="3" t="s">
         <v>70</v>
       </c>
       <c r="X14">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="Y14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Z14" s="3" t="s">
-        <v>85</v>
+        <v>41</v>
       </c>
       <c r="AA14" s="3" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="AB14" s="18" t="s">
-        <v>791</v>
-      </c>
-      <c r="AC14" s="11" t="s">
-        <v>337</v>
-      </c>
+        <v>662</v>
+      </c>
+      <c r="AC14" s="27"/>
       <c r="AD14" s="16" t="s">
-        <v>967</v>
-      </c>
-      <c r="AE14" s="4" t="s">
+        <v>966</v>
+      </c>
+      <c r="AE14" s="16" t="s">
+        <v>997</v>
+      </c>
+      <c r="AF14" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="AF14" s="20"/>
-      <c r="AG14" s="3" t="s">
+      <c r="AG14" s="4" t="s">
+        <v>1000</v>
+      </c>
+      <c r="AH14" s="20"/>
+      <c r="AI14" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="AH14" s="3"/>
+      <c r="AJ14" s="3"/>
     </row>
-    <row r="15" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>44895.675173611111</v>
       </c>
@@ -14299,15 +14443,21 @@
         <v>964</v>
       </c>
       <c r="AE15" s="4" t="s">
+        <v>999</v>
+      </c>
+      <c r="AF15" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="AF15" s="20"/>
-      <c r="AG15" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="AH15" s="3"/>
+      <c r="AG15" s="4" t="s">
+        <v>1000</v>
+      </c>
+      <c r="AH15" s="20"/>
+      <c r="AI15" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="AJ15" s="3"/>
     </row>
-    <row r="16" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>44895.629062499997</v>
       </c>
@@ -14398,18 +14548,20 @@
       <c r="AD16" s="16" t="s">
         <v>923</v>
       </c>
-      <c r="AE16" s="4" t="s">
+      <c r="AE16" s="16"/>
+      <c r="AF16" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="AF16" s="20"/>
-      <c r="AG16" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="AH16" s="3" t="s">
+      <c r="AG16" s="4"/>
+      <c r="AH16" s="20"/>
+      <c r="AI16" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="AJ16" s="3" t="s">
         <v>906</v>
       </c>
     </row>
-    <row r="17" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>44895.629062499997</v>
       </c>
@@ -14500,16 +14652,22 @@
       <c r="AD17" s="16" t="s">
         <v>965</v>
       </c>
-      <c r="AE17" s="4" t="s">
+      <c r="AE17" s="16" t="s">
+        <v>996</v>
+      </c>
+      <c r="AF17" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="AF17" s="20"/>
-      <c r="AG17" s="3" t="s">
+      <c r="AG17" s="4" t="s">
+        <v>1000</v>
+      </c>
+      <c r="AH17" s="20"/>
+      <c r="AI17" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="AH17" s="3"/>
+      <c r="AJ17" s="3"/>
     </row>
-    <row r="18" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>44882.689606481479</v>
       </c>
@@ -14600,24 +14758,30 @@
       <c r="AD18" s="16" t="s">
         <v>965</v>
       </c>
-      <c r="AE18" s="4" t="s">
+      <c r="AE18" s="16" t="s">
+        <v>996</v>
+      </c>
+      <c r="AF18" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="AF18" s="20"/>
-      <c r="AG18" s="3" t="s">
+      <c r="AG18" s="4" t="s">
+        <v>1000</v>
+      </c>
+      <c r="AH18" s="20"/>
+      <c r="AI18" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="AH18" s="3"/>
+      <c r="AJ18" s="3"/>
     </row>
-    <row r="19" spans="1:34" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
-        <v>44893.482789351852</v>
+        <v>44895.720497685186</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>650</v>
+        <v>686</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>860</v>
+        <v>687</v>
       </c>
       <c r="D19" s="3" t="s">
         <v>27</v>
@@ -14626,25 +14790,25 @@
         <v>28</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>651</v>
+        <v>461</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>28</v>
+        <v>247</v>
       </c>
       <c r="I19" s="3" t="s">
-        <v>641</v>
+        <v>688</v>
       </c>
       <c r="J19" s="3" t="s">
         <v>606</v>
       </c>
       <c r="K19" s="3" t="s">
-        <v>33</v>
+        <v>77</v>
       </c>
       <c r="L19" s="3" t="s">
-        <v>652</v>
+        <v>78</v>
       </c>
       <c r="M19" s="3" t="s">
         <v>28</v>
@@ -14662,54 +14826,60 @@
         <v>36</v>
       </c>
       <c r="R19" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="S19" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="T19" s="3" t="s">
         <v>37</v>
       </c>
       <c r="U19" s="3" t="s">
-        <v>861</v>
+        <v>689</v>
       </c>
       <c r="V19" s="3" t="s">
-        <v>653</v>
+        <v>690</v>
       </c>
       <c r="W19" s="3" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="X19">
-        <v>2021</v>
+        <v>2017</v>
       </c>
       <c r="Y19">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Z19" s="3" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="AA19" s="3" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="AB19" s="18" t="s">
-        <v>654</v>
+        <v>873</v>
       </c>
       <c r="AC19" s="11" t="s">
-        <v>655</v>
+        <v>691</v>
       </c>
       <c r="AD19" s="16" t="s">
-        <v>967</v>
-      </c>
-      <c r="AE19" s="4" t="s">
+        <v>966</v>
+      </c>
+      <c r="AE19" s="16" t="s">
+        <v>997</v>
+      </c>
+      <c r="AF19" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="AF19" s="20"/>
-      <c r="AG19" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="AH19" s="3"/>
+      <c r="AG19" s="4" t="s">
+        <v>1000</v>
+      </c>
+      <c r="AH19" s="20"/>
+      <c r="AI19" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AJ19" s="3"/>
     </row>
-    <row r="20" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>44893.482789351852</v>
       </c>
@@ -14800,24 +14970,30 @@
       <c r="AD20" s="16" t="s">
         <v>965</v>
       </c>
-      <c r="AE20" s="4" t="s">
+      <c r="AE20" s="16" t="s">
+        <v>996</v>
+      </c>
+      <c r="AF20" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="AF20" s="20"/>
-      <c r="AG20" s="3" t="s">
+      <c r="AG20" s="4" t="s">
+        <v>1000</v>
+      </c>
+      <c r="AH20" s="20"/>
+      <c r="AI20" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="AH20" s="3"/>
+      <c r="AJ20" s="3"/>
     </row>
-    <row r="21" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
-        <v>44894.671030092592</v>
+        <v>44895.621770833335</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>704</v>
+        <v>742</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>705</v>
+        <v>73</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>27</v>
@@ -14826,34 +15002,34 @@
         <v>28</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>706</v>
+        <v>74</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>28</v>
+        <v>75</v>
       </c>
       <c r="I21" s="3" t="s">
-        <v>707</v>
+        <v>76</v>
       </c>
       <c r="J21" s="3" t="s">
-        <v>708</v>
+        <v>65</v>
       </c>
       <c r="K21" s="3" t="s">
-        <v>33</v>
+        <v>77</v>
       </c>
       <c r="L21" s="3" t="s">
-        <v>709</v>
+        <v>78</v>
       </c>
       <c r="M21" s="3" t="s">
         <v>28</v>
       </c>
       <c r="N21" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O21" s="3" t="s">
-        <v>710</v>
+        <v>28</v>
       </c>
       <c r="P21" s="3" t="s">
         <v>28</v>
@@ -14871,16 +15047,16 @@
         <v>37</v>
       </c>
       <c r="U21" s="3" t="s">
-        <v>711</v>
+        <v>79</v>
       </c>
       <c r="V21" s="3" t="s">
-        <v>712</v>
+        <v>80</v>
       </c>
       <c r="W21" s="3" t="s">
-        <v>234</v>
+        <v>70</v>
       </c>
       <c r="X21">
-        <v>2021</v>
+        <v>2018</v>
       </c>
       <c r="Y21">
         <v>3</v>
@@ -14889,27 +15065,33 @@
         <v>41</v>
       </c>
       <c r="AA21" s="3" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="AB21" s="18" t="s">
-        <v>878</v>
+        <v>81</v>
       </c>
       <c r="AC21" s="11" t="s">
-        <v>713</v>
+        <v>82</v>
       </c>
       <c r="AD21" s="16" t="s">
-        <v>967</v>
-      </c>
-      <c r="AE21" s="4" t="s">
+        <v>920</v>
+      </c>
+      <c r="AE21" s="16" t="s">
+        <v>996</v>
+      </c>
+      <c r="AF21" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="AF21" s="20"/>
-      <c r="AG21" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="AH21" s="3"/>
+      <c r="AG21" s="4" t="s">
+        <v>1000</v>
+      </c>
+      <c r="AH21" s="20"/>
+      <c r="AI21" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="AJ21" s="3"/>
     </row>
-    <row r="22" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>44893.493472222224</v>
       </c>
@@ -15000,16 +15182,22 @@
       <c r="AD22" s="16" t="s">
         <v>988</v>
       </c>
-      <c r="AE22" s="4" t="s">
+      <c r="AE22" s="16" t="s">
+        <v>997</v>
+      </c>
+      <c r="AF22" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="AF22" s="20"/>
-      <c r="AG22" s="3" t="s">
+      <c r="AG22" s="4" t="s">
+        <v>1000</v>
+      </c>
+      <c r="AH22" s="20"/>
+      <c r="AI22" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="AH22" s="3"/>
+      <c r="AJ22" s="3"/>
     </row>
-    <row r="23" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>44893.512881944444</v>
       </c>
@@ -15100,16 +15288,22 @@
       <c r="AD23" s="16" t="s">
         <v>988</v>
       </c>
-      <c r="AE23" s="4" t="s">
+      <c r="AE23" s="16" t="s">
+        <v>997</v>
+      </c>
+      <c r="AF23" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="AF23" s="20"/>
-      <c r="AG23" s="3" t="s">
+      <c r="AG23" s="4" t="s">
+        <v>1000</v>
+      </c>
+      <c r="AH23" s="20"/>
+      <c r="AI23" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="AH23" s="3"/>
+      <c r="AJ23" s="3"/>
     </row>
-    <row r="24" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>44889.821689814817</v>
       </c>
@@ -15200,33 +15394,39 @@
       <c r="AD24" s="16" t="s">
         <v>988</v>
       </c>
-      <c r="AE24" s="4" t="s">
+      <c r="AE24" s="16" t="s">
+        <v>997</v>
+      </c>
+      <c r="AF24" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="AF24" s="20"/>
-      <c r="AG24" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="AH24" s="3"/>
+      <c r="AG24" s="4" t="s">
+        <v>1000</v>
+      </c>
+      <c r="AH24" s="20"/>
+      <c r="AI24" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="AJ24" s="3"/>
     </row>
-    <row r="25" spans="1:34" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:36" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
-        <v>44889.821689814817</v>
+        <v>44879.516747685186</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>401</v>
+        <v>108</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>402</v>
+        <v>109</v>
       </c>
       <c r="D25" s="3" t="s">
         <v>27</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>28</v>
+        <v>110</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>403</v>
+        <v>63</v>
       </c>
       <c r="G25" s="3" t="s">
         <v>30</v>
@@ -15235,16 +15435,16 @@
         <v>28</v>
       </c>
       <c r="I25" s="3" t="s">
-        <v>404</v>
+        <v>111</v>
       </c>
       <c r="J25" s="3" t="s">
-        <v>386</v>
+        <v>87</v>
       </c>
       <c r="K25" s="3" t="s">
-        <v>54</v>
+        <v>77</v>
       </c>
       <c r="L25" s="3" t="s">
-        <v>405</v>
+        <v>78</v>
       </c>
       <c r="M25" s="3" t="s">
         <v>28</v>
@@ -15256,13 +15456,13 @@
         <v>28</v>
       </c>
       <c r="P25" s="3" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="Q25" s="3" t="s">
         <v>36</v>
       </c>
       <c r="R25" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="S25" s="3" t="s">
         <v>36</v>
@@ -15271,45 +15471,51 @@
         <v>37</v>
       </c>
       <c r="U25" s="3" t="s">
-        <v>406</v>
+        <v>112</v>
       </c>
       <c r="V25" s="3" t="s">
-        <v>407</v>
+        <v>113</v>
       </c>
       <c r="W25" s="3" t="s">
-        <v>40</v>
+        <v>114</v>
       </c>
       <c r="X25">
-        <v>2022</v>
+        <v>2016</v>
       </c>
       <c r="Y25">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="Z25" s="3" t="s">
-        <v>164</v>
+        <v>41</v>
       </c>
       <c r="AA25" s="3" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="AB25" s="18" t="s">
-        <v>806</v>
+        <v>748</v>
       </c>
       <c r="AC25" s="11" t="s">
-        <v>410</v>
+        <v>115</v>
       </c>
       <c r="AD25" s="16" t="s">
-        <v>967</v>
-      </c>
-      <c r="AE25" s="4" t="s">
+        <v>920</v>
+      </c>
+      <c r="AE25" s="16" t="s">
+        <v>996</v>
+      </c>
+      <c r="AF25" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="AF25" s="20"/>
-      <c r="AG25" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="AH25" s="3"/>
+      <c r="AG25" s="4" t="s">
+        <v>1000</v>
+      </c>
+      <c r="AH25" s="20"/>
+      <c r="AI25" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="AJ25" s="3"/>
     </row>
-    <row r="26" spans="1:34" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:36" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>44889.821689814817</v>
       </c>
@@ -15401,23 +15607,29 @@
         <v>964</v>
       </c>
       <c r="AE26" s="4" t="s">
+        <v>999</v>
+      </c>
+      <c r="AF26" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="AF26" s="20"/>
-      <c r="AG26" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="AH26" s="3"/>
+      <c r="AG26" s="4" t="s">
+        <v>1000</v>
+      </c>
+      <c r="AH26" s="20"/>
+      <c r="AI26" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="AJ26" s="3"/>
     </row>
-    <row r="27" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
-        <v>44811.472337962965</v>
+        <v>44895.66978009259</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>274</v>
+        <v>750</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>275</v>
+        <v>117</v>
       </c>
       <c r="D27" s="3" t="s">
         <v>27</v>
@@ -15426,100 +15638,104 @@
         <v>28</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>276</v>
+        <v>118</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="H27" s="3" t="s">
-        <v>277</v>
+        <v>28</v>
       </c>
       <c r="I27" s="3" t="s">
-        <v>278</v>
+        <v>119</v>
       </c>
       <c r="J27" s="3" t="s">
-        <v>279</v>
+        <v>87</v>
       </c>
       <c r="K27" s="3" t="s">
-        <v>280</v>
+        <v>77</v>
       </c>
       <c r="L27" s="3" t="s">
-        <v>281</v>
+        <v>120</v>
       </c>
       <c r="M27" s="3" t="s">
         <v>28</v>
       </c>
       <c r="N27" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O27" s="3" t="s">
-        <v>282</v>
+        <v>28</v>
       </c>
       <c r="P27" s="3" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="Q27" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="R27" s="3" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="S27" s="3" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="T27" s="3" t="s">
         <v>37</v>
       </c>
       <c r="U27" s="3" t="s">
-        <v>283</v>
+        <v>751</v>
       </c>
       <c r="V27" s="3" t="s">
-        <v>284</v>
+        <v>121</v>
       </c>
       <c r="W27" s="3" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="X27">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="Y27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Z27" s="3" t="s">
         <v>41</v>
       </c>
       <c r="AA27" s="3" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="AB27" s="18" t="s">
-        <v>285</v>
+        <v>752</v>
       </c>
       <c r="AC27" s="11" t="s">
-        <v>286</v>
+        <v>123</v>
       </c>
       <c r="AD27" s="16" t="s">
-        <v>971</v>
-      </c>
-      <c r="AE27" s="4" t="s">
+        <v>920</v>
+      </c>
+      <c r="AE27" s="16" t="s">
+        <v>996</v>
+      </c>
+      <c r="AF27" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="AF27" s="20"/>
-      <c r="AG27" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="AH27" s="3" t="s">
-        <v>906</v>
-      </c>
+      <c r="AG27" s="4" t="s">
+        <v>1000</v>
+      </c>
+      <c r="AH27" s="20"/>
+      <c r="AI27" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AJ27" s="3"/>
     </row>
-    <row r="28" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
-        <v>44883.608020833337</v>
+        <v>44895.617997685185</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>298</v>
+        <v>663</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>299</v>
+        <v>664</v>
       </c>
       <c r="D28" s="3" t="s">
         <v>27</v>
@@ -15528,25 +15744,25 @@
         <v>28</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>300</v>
+        <v>665</v>
       </c>
       <c r="G28" s="3" t="s">
         <v>50</v>
       </c>
       <c r="H28" s="3" t="s">
-        <v>301</v>
+        <v>666</v>
       </c>
       <c r="I28" s="3" t="s">
-        <v>302</v>
+        <v>641</v>
       </c>
       <c r="J28" s="3" t="s">
-        <v>279</v>
+        <v>606</v>
       </c>
       <c r="K28" s="3" t="s">
-        <v>280</v>
+        <v>77</v>
       </c>
       <c r="L28" s="3" t="s">
-        <v>303</v>
+        <v>78</v>
       </c>
       <c r="M28" s="3" t="s">
         <v>28</v>
@@ -15558,7 +15774,7 @@
         <v>28</v>
       </c>
       <c r="P28" s="3" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="Q28" s="3" t="s">
         <v>35</v>
@@ -15573,55 +15789,59 @@
         <v>37</v>
       </c>
       <c r="U28" s="3" t="s">
-        <v>304</v>
+        <v>667</v>
       </c>
       <c r="V28" s="3" t="s">
-        <v>305</v>
+        <v>668</v>
       </c>
       <c r="W28" s="3" t="s">
-        <v>58</v>
+        <v>122</v>
       </c>
       <c r="X28">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="Y28">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Z28" s="3" t="s">
         <v>41</v>
       </c>
       <c r="AA28" s="3" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="AB28" s="18" t="s">
-        <v>306</v>
+        <v>864</v>
       </c>
       <c r="AC28" s="11" t="s">
-        <v>307</v>
+        <v>669</v>
       </c>
       <c r="AD28" s="16" t="s">
-        <v>966</v>
-      </c>
-      <c r="AE28" s="4" t="s">
+        <v>920</v>
+      </c>
+      <c r="AE28" s="16" t="s">
+        <v>996</v>
+      </c>
+      <c r="AF28" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="AF28" s="20"/>
-      <c r="AG28" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="AH28" s="3" t="s">
-        <v>891</v>
-      </c>
+      <c r="AG28" s="4" t="s">
+        <v>1000</v>
+      </c>
+      <c r="AH28" s="20"/>
+      <c r="AI28" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AJ28" s="3"/>
     </row>
-    <row r="29" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
-        <v>44894.483946759261</v>
+        <v>44895.685428240744</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>309</v>
+        <v>679</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>310</v>
+        <v>680</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>27</v>
@@ -15630,25 +15850,25 @@
         <v>28</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>300</v>
+        <v>63</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="H29" s="3" t="s">
-        <v>311</v>
+        <v>28</v>
       </c>
       <c r="I29" s="3" t="s">
-        <v>312</v>
+        <v>641</v>
       </c>
       <c r="J29" s="3" t="s">
-        <v>279</v>
+        <v>606</v>
       </c>
       <c r="K29" s="3" t="s">
-        <v>280</v>
+        <v>77</v>
       </c>
       <c r="L29" s="3" t="s">
-        <v>313</v>
+        <v>120</v>
       </c>
       <c r="M29" s="3" t="s">
         <v>28</v>
@@ -15663,25 +15883,25 @@
         <v>28</v>
       </c>
       <c r="Q29" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="R29" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="R29" s="3" t="s">
-        <v>28</v>
-      </c>
       <c r="S29" s="3" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="T29" s="3" t="s">
         <v>37</v>
       </c>
       <c r="U29" s="3" t="s">
-        <v>314</v>
+        <v>681</v>
       </c>
       <c r="V29" s="3" t="s">
-        <v>315</v>
+        <v>682</v>
       </c>
       <c r="W29" s="3" t="s">
-        <v>70</v>
+        <v>122</v>
       </c>
       <c r="X29">
         <v>2021</v>
@@ -15693,29 +15913,33 @@
         <v>41</v>
       </c>
       <c r="AA29" s="3" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="AB29" s="18" t="s">
-        <v>788</v>
+        <v>870</v>
       </c>
       <c r="AC29" s="11" t="s">
-        <v>316</v>
+        <v>683</v>
       </c>
       <c r="AD29" s="16" t="s">
-        <v>966</v>
-      </c>
-      <c r="AE29" s="4" t="s">
+        <v>920</v>
+      </c>
+      <c r="AE29" s="16" t="s">
+        <v>996</v>
+      </c>
+      <c r="AF29" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="AF29" s="20"/>
-      <c r="AG29" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="AH29" s="3" t="s">
-        <v>906</v>
-      </c>
+      <c r="AG29" s="4" t="s">
+        <v>1000</v>
+      </c>
+      <c r="AH29" s="20"/>
+      <c r="AI29" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="AJ29" s="3"/>
     </row>
-    <row r="30" spans="1:34" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:36" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>44811.569085648145</v>
       </c>
@@ -15809,21 +16033,27 @@
       <c r="AE30" s="4" t="s">
         <v>989</v>
       </c>
-      <c r="AF30" s="20"/>
-      <c r="AG30" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="AH30" s="3"/>
+      <c r="AF30" s="4" t="s">
+        <v>989</v>
+      </c>
+      <c r="AG30" s="4" t="s">
+        <v>989</v>
+      </c>
+      <c r="AH30" s="20"/>
+      <c r="AI30" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="AJ30" s="3"/>
     </row>
-    <row r="31" spans="1:34" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:36" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
-        <v>44811.569085648145</v>
+        <v>44883.484988425924</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>89</v>
+        <v>639</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>90</v>
+        <v>640</v>
       </c>
       <c r="D31" s="3" t="s">
         <v>27</v>
@@ -15832,7 +16062,7 @@
         <v>28</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>63</v>
+        <v>156</v>
       </c>
       <c r="G31" s="3" t="s">
         <v>30</v>
@@ -15841,25 +16071,25 @@
         <v>28</v>
       </c>
       <c r="I31" s="3" t="s">
-        <v>91</v>
+        <v>641</v>
       </c>
       <c r="J31" s="3" t="s">
-        <v>87</v>
+        <v>606</v>
       </c>
       <c r="K31" s="3" t="s">
-        <v>92</v>
+        <v>642</v>
       </c>
       <c r="L31" s="3" t="s">
-        <v>93</v>
+        <v>643</v>
       </c>
       <c r="M31" s="3" t="s">
         <v>28</v>
       </c>
       <c r="N31" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O31" s="3" t="s">
-        <v>94</v>
+        <v>28</v>
       </c>
       <c r="P31" s="3" t="s">
         <v>36</v>
@@ -15877,47 +16107,53 @@
         <v>37</v>
       </c>
       <c r="U31" s="3" t="s">
-        <v>95</v>
+        <v>644</v>
       </c>
       <c r="V31" s="3" t="s">
-        <v>96</v>
+        <v>645</v>
       </c>
       <c r="W31" s="3" t="s">
-        <v>70</v>
+        <v>132</v>
       </c>
       <c r="X31">
-        <v>2021</v>
+        <v>2017</v>
       </c>
       <c r="Y31">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Z31" s="3" t="s">
-        <v>85</v>
+        <v>41</v>
       </c>
       <c r="AA31" s="3" t="s">
         <v>896</v>
       </c>
       <c r="AB31" s="18" t="s">
-        <v>745</v>
+        <v>857</v>
       </c>
       <c r="AC31" s="11" t="s">
-        <v>100</v>
+        <v>646</v>
       </c>
       <c r="AD31" s="16" t="s">
-        <v>966</v>
-      </c>
-      <c r="AE31" s="4" t="s">
+        <v>920</v>
+      </c>
+      <c r="AE31" s="16" t="s">
+        <v>996</v>
+      </c>
+      <c r="AF31" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="AF31" s="20"/>
-      <c r="AG31" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="AH31" s="3" t="s">
-        <v>906</v>
-      </c>
+      <c r="AG31" s="4" t="s">
+        <v>1000</v>
+      </c>
+      <c r="AH31" s="20" t="s">
+        <v>939</v>
+      </c>
+      <c r="AI31" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="AJ31" s="3"/>
     </row>
-    <row r="32" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>44816.720543981479</v>
       </c>
@@ -16009,15 +16245,21 @@
         <v>964</v>
       </c>
       <c r="AE32" s="4" t="s">
+        <v>999</v>
+      </c>
+      <c r="AF32" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="AF32" s="20"/>
-      <c r="AG32" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="AH32" s="3"/>
+      <c r="AG32" s="4" t="s">
+        <v>1000</v>
+      </c>
+      <c r="AH32" s="20"/>
+      <c r="AI32" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="AJ32" s="3"/>
     </row>
-    <row r="33" spans="1:34" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:36" ht="90" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>44816.720543981479</v>
       </c>
@@ -16108,20 +16350,24 @@
       <c r="AD33" s="16" t="s">
         <v>974</v>
       </c>
-      <c r="AE33" s="4" t="s">
+      <c r="AE33" s="16" t="s">
+        <v>992</v>
+      </c>
+      <c r="AF33" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="AF33" s="20" t="s">
+      <c r="AG33" s="4"/>
+      <c r="AH33" s="20" t="s">
         <v>936</v>
       </c>
-      <c r="AG33" s="3" t="s">
+      <c r="AI33" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="AH33" s="3" t="s">
+      <c r="AJ33" s="3" t="s">
         <v>906</v>
       </c>
     </row>
-    <row r="34" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>44816.741273148145</v>
       </c>
@@ -16212,16 +16458,22 @@
       <c r="AD34" s="16" t="s">
         <v>968</v>
       </c>
-      <c r="AE34" s="4" t="s">
+      <c r="AE34" s="16" t="s">
+        <v>997</v>
+      </c>
+      <c r="AF34" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="AF34" s="20"/>
-      <c r="AG34" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="AH34" s="3"/>
+      <c r="AG34" s="4" t="s">
+        <v>1000</v>
+      </c>
+      <c r="AH34" s="20"/>
+      <c r="AI34" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="AJ34" s="3"/>
     </row>
-    <row r="35" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>44816.741273148145</v>
       </c>
@@ -16313,15 +16565,21 @@
         <v>964</v>
       </c>
       <c r="AE35" s="4" t="s">
+        <v>999</v>
+      </c>
+      <c r="AF35" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="AF35" s="20"/>
-      <c r="AG35" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="AH35" s="3"/>
+      <c r="AG35" s="4" t="s">
+        <v>1000</v>
+      </c>
+      <c r="AH35" s="20"/>
+      <c r="AI35" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="AJ35" s="3"/>
     </row>
-    <row r="36" spans="1:34" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:36" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>44816.741273148145</v>
       </c>
@@ -16412,18 +16670,22 @@
       <c r="AD36" s="16" t="s">
         <v>924</v>
       </c>
-      <c r="AE36" s="4" t="s">
+      <c r="AE36" s="16" t="s">
+        <v>989</v>
+      </c>
+      <c r="AF36" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="AF36" s="20"/>
-      <c r="AG36" s="3" t="s">
+      <c r="AG36" s="4"/>
+      <c r="AH36" s="20"/>
+      <c r="AI36" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="AH36" s="3" t="s">
+      <c r="AJ36" s="3" t="s">
         <v>906</v>
       </c>
     </row>
-    <row r="37" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>44819.523553240739</v>
       </c>
@@ -16515,17 +16777,23 @@
         <v>964</v>
       </c>
       <c r="AE37" s="4" t="s">
+        <v>999</v>
+      </c>
+      <c r="AF37" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="AF37" s="20" t="s">
+      <c r="AG37" s="4" t="s">
+        <v>1000</v>
+      </c>
+      <c r="AH37" s="20" t="s">
         <v>938</v>
       </c>
-      <c r="AG37" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="AH37" s="3"/>
+      <c r="AI37" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="AJ37" s="3"/>
     </row>
-    <row r="38" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>44894.472974537035</v>
       </c>
@@ -16616,16 +16884,22 @@
       <c r="AD38" s="16" t="s">
         <v>919</v>
       </c>
-      <c r="AE38" s="4" t="s">
+      <c r="AE38" s="16" t="s">
+        <v>996</v>
+      </c>
+      <c r="AF38" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="AF38" s="20"/>
-      <c r="AG38" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="AH38" s="3"/>
+      <c r="AG38" s="4" t="s">
+        <v>1000</v>
+      </c>
+      <c r="AH38" s="20"/>
+      <c r="AI38" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="AJ38" s="3"/>
     </row>
-    <row r="39" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
         <v>44894.713263888887</v>
       </c>
@@ -16717,15 +16991,21 @@
         <v>964</v>
       </c>
       <c r="AE39" s="4" t="s">
+        <v>999</v>
+      </c>
+      <c r="AF39" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="AF39" s="20"/>
-      <c r="AG39" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="AH39" s="3"/>
+      <c r="AG39" s="4" t="s">
+        <v>1000</v>
+      </c>
+      <c r="AH39" s="20"/>
+      <c r="AI39" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="AJ39" s="3"/>
     </row>
-    <row r="40" spans="1:34" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:36" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
         <v>44894.713263888887</v>
       </c>
@@ -16817,15 +17097,21 @@
         <v>964</v>
       </c>
       <c r="AE40" s="4" t="s">
+        <v>999</v>
+      </c>
+      <c r="AF40" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="AF40" s="20"/>
-      <c r="AG40" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="AH40" s="3"/>
+      <c r="AG40" s="4" t="s">
+        <v>1000</v>
+      </c>
+      <c r="AH40" s="20"/>
+      <c r="AI40" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="AJ40" s="3"/>
     </row>
-    <row r="41" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
         <v>44894.724317129629</v>
       </c>
@@ -16917,23 +17203,29 @@
         <v>964</v>
       </c>
       <c r="AE41" s="4" t="s">
+        <v>999</v>
+      </c>
+      <c r="AF41" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="AF41" s="20"/>
-      <c r="AG41" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="AH41" s="3"/>
+      <c r="AG41" s="4" t="s">
+        <v>1000</v>
+      </c>
+      <c r="AH41" s="20"/>
+      <c r="AI41" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="AJ41" s="3"/>
     </row>
-    <row r="42" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
-        <v>44894.724317129629</v>
+        <v>44895.742106481484</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>180</v>
+        <v>518</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>181</v>
+        <v>519</v>
       </c>
       <c r="D42" s="3" t="s">
         <v>27</v>
@@ -16942,25 +17234,25 @@
         <v>28</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>146</v>
+        <v>520</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="H42" s="3" t="s">
-        <v>182</v>
+        <v>28</v>
       </c>
       <c r="I42" s="3" t="s">
-        <v>148</v>
+        <v>521</v>
       </c>
       <c r="J42" s="3" t="s">
-        <v>128</v>
+        <v>419</v>
       </c>
       <c r="K42" s="3" t="s">
-        <v>129</v>
+        <v>447</v>
       </c>
       <c r="L42" s="3" t="s">
-        <v>183</v>
+        <v>497</v>
       </c>
       <c r="M42" s="3" t="s">
         <v>28</v>
@@ -16975,57 +17267,63 @@
         <v>28</v>
       </c>
       <c r="Q42" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="R42" s="3" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="S42" s="3" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="T42" s="3" t="s">
         <v>37</v>
       </c>
       <c r="U42" s="3" t="s">
-        <v>184</v>
+        <v>522</v>
       </c>
       <c r="V42" s="3" t="s">
-        <v>185</v>
+        <v>28</v>
       </c>
       <c r="W42" s="3" t="s">
-        <v>40</v>
+        <v>500</v>
       </c>
       <c r="X42">
-        <v>2018</v>
+        <v>2020</v>
       </c>
       <c r="Y42">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Z42" s="3" t="s">
-        <v>85</v>
+        <v>41</v>
       </c>
       <c r="AA42" s="3" t="s">
-        <v>896</v>
+        <v>897</v>
       </c>
       <c r="AB42" s="18" t="s">
-        <v>770</v>
+        <v>907</v>
       </c>
       <c r="AC42" s="11" t="s">
-        <v>189</v>
+        <v>523</v>
       </c>
       <c r="AD42" s="16" t="s">
         <v>967</v>
       </c>
-      <c r="AE42" s="4" t="s">
+      <c r="AE42" s="16" t="s">
+        <v>999</v>
+      </c>
+      <c r="AF42" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="AF42" s="20"/>
-      <c r="AG42" s="3" t="s">
+      <c r="AG42" s="4" t="s">
+        <v>1000</v>
+      </c>
+      <c r="AH42" s="20"/>
+      <c r="AI42" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="AH42" s="3"/>
+      <c r="AJ42" s="3"/>
     </row>
-    <row r="43" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
         <v>44895.77511574074</v>
       </c>
@@ -17117,15 +17415,21 @@
         <v>964</v>
       </c>
       <c r="AE43" s="4" t="s">
+        <v>999</v>
+      </c>
+      <c r="AF43" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="AF43" s="20"/>
-      <c r="AG43" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="AH43" s="3"/>
+      <c r="AG43" s="4" t="s">
+        <v>1000</v>
+      </c>
+      <c r="AH43" s="20"/>
+      <c r="AI43" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="AJ43" s="3"/>
     </row>
-    <row r="44" spans="1:34" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:36" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
         <v>44811.650509259256</v>
       </c>
@@ -17217,23 +17521,29 @@
         <v>964</v>
       </c>
       <c r="AE44" s="4" t="s">
+        <v>999</v>
+      </c>
+      <c r="AF44" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="AF44" s="20"/>
-      <c r="AG44" s="3" t="s">
+      <c r="AG44" s="4" t="s">
+        <v>1000</v>
+      </c>
+      <c r="AH44" s="20"/>
+      <c r="AI44" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="AH44" s="3"/>
+      <c r="AJ44" s="3"/>
     </row>
-    <row r="45" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:36" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
-        <v>44895.621770833335</v>
+        <v>44875.927789351852</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>742</v>
+        <v>536</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>73</v>
+        <v>835</v>
       </c>
       <c r="D45" s="3" t="s">
         <v>27</v>
@@ -17242,25 +17552,25 @@
         <v>28</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="G45" s="3" t="s">
         <v>50</v>
       </c>
       <c r="H45" s="3" t="s">
-        <v>75</v>
+        <v>537</v>
       </c>
       <c r="I45" s="3" t="s">
-        <v>76</v>
+        <v>538</v>
       </c>
       <c r="J45" s="3" t="s">
-        <v>65</v>
+        <v>539</v>
       </c>
       <c r="K45" s="3" t="s">
-        <v>77</v>
+        <v>447</v>
       </c>
       <c r="L45" s="3" t="s">
-        <v>78</v>
+        <v>540</v>
       </c>
       <c r="M45" s="3" t="s">
         <v>28</v>
@@ -17272,77 +17582,83 @@
         <v>28</v>
       </c>
       <c r="P45" s="3" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="Q45" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="R45" s="3" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="S45" s="3" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="T45" s="3" t="s">
         <v>37</v>
       </c>
       <c r="U45" s="3" t="s">
-        <v>79</v>
+        <v>541</v>
       </c>
       <c r="V45" s="3" t="s">
-        <v>80</v>
+        <v>542</v>
       </c>
       <c r="W45" s="3" t="s">
-        <v>70</v>
+        <v>114</v>
       </c>
       <c r="X45">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="Y45">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Z45" s="3" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="AA45" s="3" t="s">
-        <v>896</v>
+        <v>897</v>
       </c>
       <c r="AB45" s="18" t="s">
-        <v>81</v>
+        <v>836</v>
       </c>
       <c r="AC45" s="11" t="s">
-        <v>82</v>
+        <v>543</v>
       </c>
       <c r="AD45" s="16" t="s">
-        <v>920</v>
-      </c>
-      <c r="AE45" s="4" t="s">
+        <v>967</v>
+      </c>
+      <c r="AE45" s="16" t="s">
+        <v>999</v>
+      </c>
+      <c r="AF45" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="AF45" s="20"/>
-      <c r="AG45" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="AH45" s="3"/>
+      <c r="AG45" s="4" t="s">
+        <v>1000</v>
+      </c>
+      <c r="AH45" s="20"/>
+      <c r="AI45" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AJ45" s="3"/>
     </row>
-    <row r="46" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:36" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
-        <v>44879.516747685186</v>
+        <v>44879.561863425923</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>108</v>
+        <v>328</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>109</v>
+        <v>329</v>
       </c>
       <c r="D46" s="3" t="s">
         <v>27</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>110</v>
+        <v>28</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>63</v>
+        <v>330</v>
       </c>
       <c r="G46" s="3" t="s">
         <v>30</v>
@@ -17351,16 +17667,16 @@
         <v>28</v>
       </c>
       <c r="I46" s="3" t="s">
-        <v>111</v>
+        <v>331</v>
       </c>
       <c r="J46" s="3" t="s">
-        <v>87</v>
+        <v>332</v>
       </c>
       <c r="K46" s="3" t="s">
-        <v>77</v>
+        <v>33</v>
       </c>
       <c r="L46" s="3" t="s">
-        <v>78</v>
+        <v>333</v>
       </c>
       <c r="M46" s="3" t="s">
         <v>28</v>
@@ -17378,7 +17694,7 @@
         <v>36</v>
       </c>
       <c r="R46" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="S46" s="3" t="s">
         <v>36</v>
@@ -17387,45 +17703,51 @@
         <v>37</v>
       </c>
       <c r="U46" s="3" t="s">
-        <v>112</v>
+        <v>334</v>
       </c>
       <c r="V46" s="3" t="s">
-        <v>113</v>
+        <v>335</v>
       </c>
       <c r="W46" s="3" t="s">
-        <v>114</v>
+        <v>70</v>
       </c>
       <c r="X46">
-        <v>2016</v>
+        <v>2022</v>
       </c>
       <c r="Y46">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Z46" s="3" t="s">
-        <v>41</v>
+        <v>85</v>
       </c>
       <c r="AA46" s="3" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="AB46" s="18" t="s">
-        <v>748</v>
+        <v>791</v>
       </c>
       <c r="AC46" s="11" t="s">
-        <v>115</v>
+        <v>337</v>
       </c>
       <c r="AD46" s="16" t="s">
-        <v>920</v>
-      </c>
-      <c r="AE46" s="4" t="s">
+        <v>967</v>
+      </c>
+      <c r="AE46" s="16" t="s">
+        <v>999</v>
+      </c>
+      <c r="AF46" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="AF46" s="20"/>
-      <c r="AG46" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="AH46" s="3"/>
+      <c r="AG46" s="4" t="s">
+        <v>1000</v>
+      </c>
+      <c r="AH46" s="20"/>
+      <c r="AI46" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AJ46" s="3"/>
     </row>
-    <row r="47" spans="1:34" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:36" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
         <v>44879.516747685186</v>
       </c>
@@ -17519,21 +17841,27 @@
       <c r="AE47" s="4" t="s">
         <v>989</v>
       </c>
-      <c r="AF47" s="20"/>
-      <c r="AG47" s="3" t="s">
+      <c r="AF47" s="4" t="s">
+        <v>989</v>
+      </c>
+      <c r="AG47" s="4" t="s">
+        <v>989</v>
+      </c>
+      <c r="AH47" s="20"/>
+      <c r="AI47" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="AH47" s="3"/>
+      <c r="AJ47" s="3"/>
     </row>
-    <row r="48" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:36" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
-        <v>44895.66978009259</v>
+        <v>44893.482789351852</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>750</v>
+        <v>650</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>117</v>
+        <v>860</v>
       </c>
       <c r="D48" s="3" t="s">
         <v>27</v>
@@ -17542,7 +17870,7 @@
         <v>28</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>118</v>
+        <v>651</v>
       </c>
       <c r="G48" s="3" t="s">
         <v>30</v>
@@ -17551,16 +17879,16 @@
         <v>28</v>
       </c>
       <c r="I48" s="3" t="s">
-        <v>119</v>
+        <v>641</v>
       </c>
       <c r="J48" s="3" t="s">
-        <v>87</v>
+        <v>606</v>
       </c>
       <c r="K48" s="3" t="s">
-        <v>77</v>
+        <v>33</v>
       </c>
       <c r="L48" s="3" t="s">
-        <v>120</v>
+        <v>652</v>
       </c>
       <c r="M48" s="3" t="s">
         <v>28</v>
@@ -17575,65 +17903,71 @@
         <v>28</v>
       </c>
       <c r="Q48" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="R48" s="3" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="S48" s="3" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="T48" s="3" t="s">
         <v>37</v>
       </c>
       <c r="U48" s="3" t="s">
-        <v>751</v>
+        <v>861</v>
       </c>
       <c r="V48" s="3" t="s">
-        <v>121</v>
+        <v>653</v>
       </c>
       <c r="W48" s="3" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="X48">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="Y48">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Z48" s="3" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="AA48" s="3" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="AB48" s="18" t="s">
-        <v>752</v>
+        <v>654</v>
       </c>
       <c r="AC48" s="11" t="s">
-        <v>123</v>
+        <v>655</v>
       </c>
       <c r="AD48" s="16" t="s">
-        <v>920</v>
-      </c>
-      <c r="AE48" s="4" t="s">
+        <v>967</v>
+      </c>
+      <c r="AE48" s="16" t="s">
+        <v>999</v>
+      </c>
+      <c r="AF48" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="AF48" s="20"/>
-      <c r="AG48" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="AH48" s="3"/>
+      <c r="AG48" s="4" t="s">
+        <v>1000</v>
+      </c>
+      <c r="AH48" s="20"/>
+      <c r="AI48" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="AJ48" s="3"/>
     </row>
-    <row r="49" spans="1:34" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
-        <v>44810.531539351854</v>
+        <v>44894.671030092592</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>604</v>
+        <v>704</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>849</v>
+        <v>705</v>
       </c>
       <c r="D49" s="3" t="s">
         <v>27</v>
@@ -17642,98 +17976,104 @@
         <v>28</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>63</v>
+        <v>706</v>
       </c>
       <c r="G49" s="3" t="s">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="H49" s="3" t="s">
-        <v>247</v>
+        <v>28</v>
       </c>
       <c r="I49" s="3" t="s">
-        <v>605</v>
+        <v>707</v>
       </c>
       <c r="J49" s="3" t="s">
-        <v>606</v>
+        <v>708</v>
       </c>
       <c r="K49" s="3" t="s">
-        <v>77</v>
+        <v>33</v>
       </c>
       <c r="L49" s="3" t="s">
-        <v>78</v>
+        <v>709</v>
       </c>
       <c r="M49" s="3" t="s">
         <v>28</v>
       </c>
       <c r="N49" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="O49" s="3" t="s">
-        <v>28</v>
+        <v>710</v>
       </c>
       <c r="P49" s="3" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="Q49" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="R49" s="3" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="S49" s="3" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="T49" s="3" t="s">
         <v>37</v>
       </c>
       <c r="U49" s="3" t="s">
-        <v>850</v>
+        <v>711</v>
       </c>
       <c r="V49" s="3" t="s">
-        <v>607</v>
+        <v>712</v>
       </c>
       <c r="W49" s="3" t="s">
-        <v>114</v>
+        <v>234</v>
       </c>
       <c r="X49">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="Y49">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Z49" s="3" t="s">
         <v>41</v>
       </c>
       <c r="AA49" s="3" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="AB49" s="18" t="s">
-        <v>851</v>
+        <v>878</v>
       </c>
       <c r="AC49" s="11" t="s">
-        <v>608</v>
+        <v>713</v>
       </c>
       <c r="AD49" s="16" t="s">
-        <v>966</v>
-      </c>
-      <c r="AE49" s="4" t="s">
+        <v>967</v>
+      </c>
+      <c r="AE49" s="16" t="s">
+        <v>999</v>
+      </c>
+      <c r="AF49" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="AF49" s="20"/>
-      <c r="AG49" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="AH49" s="3"/>
+      <c r="AG49" s="4" t="s">
+        <v>1000</v>
+      </c>
+      <c r="AH49" s="20"/>
+      <c r="AI49" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="AJ49" s="3"/>
     </row>
-    <row r="50" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:36" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
-        <v>44894.509618055556</v>
+        <v>44889.821689814817</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>657</v>
+        <v>401</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>658</v>
+        <v>402</v>
       </c>
       <c r="D50" s="3" t="s">
         <v>27</v>
@@ -17742,25 +18082,25 @@
         <v>28</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>125</v>
+        <v>403</v>
       </c>
       <c r="G50" s="3" t="s">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="H50" s="3" t="s">
-        <v>618</v>
+        <v>28</v>
       </c>
       <c r="I50" s="3" t="s">
-        <v>659</v>
+        <v>404</v>
       </c>
       <c r="J50" s="3" t="s">
-        <v>606</v>
+        <v>386</v>
       </c>
       <c r="K50" s="3" t="s">
-        <v>77</v>
+        <v>54</v>
       </c>
       <c r="L50" s="3" t="s">
-        <v>120</v>
+        <v>405</v>
       </c>
       <c r="M50" s="3" t="s">
         <v>28</v>
@@ -17781,57 +18121,65 @@
         <v>36</v>
       </c>
       <c r="S50" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="T50" s="3" t="s">
         <v>37</v>
       </c>
       <c r="U50" s="3" t="s">
-        <v>660</v>
+        <v>406</v>
       </c>
       <c r="V50" s="3" t="s">
-        <v>661</v>
+        <v>407</v>
       </c>
       <c r="W50" s="3" t="s">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="X50">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="Y50">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="Z50" s="3" t="s">
-        <v>41</v>
+        <v>164</v>
       </c>
       <c r="AA50" s="3" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="AB50" s="18" t="s">
-        <v>662</v>
-      </c>
-      <c r="AC50" s="27"/>
+        <v>806</v>
+      </c>
+      <c r="AC50" s="11" t="s">
+        <v>410</v>
+      </c>
       <c r="AD50" s="16" t="s">
-        <v>966</v>
-      </c>
-      <c r="AE50" s="4" t="s">
+        <v>967</v>
+      </c>
+      <c r="AE50" s="16" t="s">
+        <v>999</v>
+      </c>
+      <c r="AF50" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="AF50" s="20"/>
-      <c r="AG50" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="AH50" s="3"/>
+      <c r="AG50" s="4" t="s">
+        <v>1000</v>
+      </c>
+      <c r="AH50" s="20"/>
+      <c r="AI50" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="AJ50" s="3"/>
     </row>
-    <row r="51" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:36" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
-        <v>44895.617997685185</v>
+        <v>44894.724317129629</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>663</v>
+        <v>180</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>664</v>
+        <v>181</v>
       </c>
       <c r="D51" s="3" t="s">
         <v>27</v>
@@ -17840,25 +18188,25 @@
         <v>28</v>
       </c>
       <c r="F51" s="3" t="s">
-        <v>665</v>
+        <v>146</v>
       </c>
       <c r="G51" s="3" t="s">
         <v>50</v>
       </c>
       <c r="H51" s="3" t="s">
-        <v>666</v>
+        <v>182</v>
       </c>
       <c r="I51" s="3" t="s">
-        <v>641</v>
+        <v>148</v>
       </c>
       <c r="J51" s="3" t="s">
-        <v>606</v>
+        <v>128</v>
       </c>
       <c r="K51" s="3" t="s">
-        <v>77</v>
+        <v>129</v>
       </c>
       <c r="L51" s="3" t="s">
-        <v>78</v>
+        <v>183</v>
       </c>
       <c r="M51" s="3" t="s">
         <v>28</v>
@@ -17873,65 +18221,71 @@
         <v>28</v>
       </c>
       <c r="Q51" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="R51" s="3" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="S51" s="3" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="T51" s="3" t="s">
         <v>37</v>
       </c>
       <c r="U51" s="3" t="s">
-        <v>667</v>
+        <v>184</v>
       </c>
       <c r="V51" s="3" t="s">
-        <v>668</v>
+        <v>185</v>
       </c>
       <c r="W51" s="3" t="s">
-        <v>122</v>
+        <v>40</v>
       </c>
       <c r="X51">
-        <v>2021</v>
+        <v>2018</v>
       </c>
       <c r="Y51">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Z51" s="3" t="s">
-        <v>41</v>
+        <v>85</v>
       </c>
       <c r="AA51" s="3" t="s">
         <v>896</v>
       </c>
       <c r="AB51" s="18" t="s">
-        <v>864</v>
+        <v>770</v>
       </c>
       <c r="AC51" s="11" t="s">
-        <v>669</v>
+        <v>189</v>
       </c>
       <c r="AD51" s="16" t="s">
-        <v>920</v>
-      </c>
-      <c r="AE51" s="4" t="s">
+        <v>967</v>
+      </c>
+      <c r="AE51" s="16" t="s">
+        <v>999</v>
+      </c>
+      <c r="AF51" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="AF51" s="20"/>
-      <c r="AG51" s="3" t="s">
+      <c r="AG51" s="4" t="s">
+        <v>1000</v>
+      </c>
+      <c r="AH51" s="20"/>
+      <c r="AI51" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="AH51" s="3"/>
+      <c r="AJ51" s="3"/>
     </row>
-    <row r="52" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:36" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" s="2">
-        <v>44895.685428240744</v>
+        <v>44875.956701388888</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>679</v>
+        <v>213</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>680</v>
+        <v>775</v>
       </c>
       <c r="D52" s="3" t="s">
         <v>27</v>
@@ -17940,7 +18294,7 @@
         <v>28</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>63</v>
+        <v>146</v>
       </c>
       <c r="G52" s="3" t="s">
         <v>30</v>
@@ -17949,16 +18303,16 @@
         <v>28</v>
       </c>
       <c r="I52" s="3" t="s">
-        <v>641</v>
+        <v>214</v>
       </c>
       <c r="J52" s="3" t="s">
-        <v>606</v>
+        <v>215</v>
       </c>
       <c r="K52" s="3" t="s">
-        <v>77</v>
+        <v>216</v>
       </c>
       <c r="L52" s="3" t="s">
-        <v>120</v>
+        <v>217</v>
       </c>
       <c r="M52" s="3" t="s">
         <v>28</v>
@@ -17970,13 +18324,13 @@
         <v>28</v>
       </c>
       <c r="P52" s="3" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="Q52" s="3" t="s">
         <v>36</v>
       </c>
       <c r="R52" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="S52" s="3" t="s">
         <v>36</v>
@@ -17985,45 +18339,53 @@
         <v>37</v>
       </c>
       <c r="U52" s="3" t="s">
-        <v>681</v>
+        <v>218</v>
       </c>
       <c r="V52" s="3" t="s">
-        <v>682</v>
+        <v>219</v>
       </c>
       <c r="W52" s="3" t="s">
-        <v>122</v>
+        <v>88</v>
       </c>
       <c r="X52">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="Y52">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Z52" s="3" t="s">
-        <v>41</v>
+        <v>85</v>
       </c>
       <c r="AA52" s="3" t="s">
-        <v>896</v>
+        <v>897</v>
       </c>
       <c r="AB52" s="18" t="s">
-        <v>870</v>
+        <v>223</v>
       </c>
       <c r="AC52" s="11" t="s">
-        <v>683</v>
+        <v>886</v>
       </c>
       <c r="AD52" s="16" t="s">
-        <v>920</v>
-      </c>
-      <c r="AE52" s="4" t="s">
+        <v>971</v>
+      </c>
+      <c r="AE52" s="16" t="s">
+        <v>997</v>
+      </c>
+      <c r="AF52" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="AF52" s="20"/>
-      <c r="AG52" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="AH52" s="3"/>
+      <c r="AG52" s="4" t="s">
+        <v>1000</v>
+      </c>
+      <c r="AH52" s="20"/>
+      <c r="AI52" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="AJ52" s="3" t="s">
+        <v>906</v>
+      </c>
     </row>
-    <row r="53" spans="1:34" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:36" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" s="2">
         <v>44895.685428240744</v>
       </c>
@@ -18114,24 +18476,30 @@
       <c r="AD53" s="16" t="s">
         <v>969</v>
       </c>
-      <c r="AE53" s="4" t="s">
+      <c r="AE53" s="16" t="s">
+        <v>997</v>
+      </c>
+      <c r="AF53" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="AF53" s="20"/>
-      <c r="AG53" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="AH53" s="3"/>
+      <c r="AG53" s="4" t="s">
+        <v>1000</v>
+      </c>
+      <c r="AH53" s="20"/>
+      <c r="AI53" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="AJ53" s="3"/>
     </row>
-    <row r="54" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" s="2">
-        <v>44895.720497685186</v>
+        <v>44811.472337962965</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>686</v>
+        <v>274</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>687</v>
+        <v>275</v>
       </c>
       <c r="D54" s="3" t="s">
         <v>27</v>
@@ -18140,98 +18508,106 @@
         <v>28</v>
       </c>
       <c r="F54" s="3" t="s">
-        <v>461</v>
+        <v>276</v>
       </c>
       <c r="G54" s="3" t="s">
         <v>50</v>
       </c>
       <c r="H54" s="3" t="s">
-        <v>247</v>
+        <v>277</v>
       </c>
       <c r="I54" s="3" t="s">
-        <v>688</v>
+        <v>278</v>
       </c>
       <c r="J54" s="3" t="s">
-        <v>606</v>
+        <v>279</v>
       </c>
       <c r="K54" s="3" t="s">
-        <v>77</v>
+        <v>280</v>
       </c>
       <c r="L54" s="3" t="s">
-        <v>78</v>
+        <v>281</v>
       </c>
       <c r="M54" s="3" t="s">
         <v>28</v>
       </c>
       <c r="N54" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="O54" s="3" t="s">
-        <v>28</v>
+        <v>282</v>
       </c>
       <c r="P54" s="3" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="Q54" s="3" t="s">
         <v>36</v>
       </c>
       <c r="R54" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="S54" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="T54" s="3" t="s">
         <v>37</v>
       </c>
       <c r="U54" s="3" t="s">
-        <v>689</v>
+        <v>283</v>
       </c>
       <c r="V54" s="3" t="s">
-        <v>690</v>
+        <v>284</v>
       </c>
       <c r="W54" s="3" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="X54">
-        <v>2017</v>
+        <v>2020</v>
       </c>
       <c r="Y54">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z54" s="3" t="s">
         <v>41</v>
       </c>
       <c r="AA54" s="3" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="AB54" s="18" t="s">
-        <v>873</v>
+        <v>285</v>
       </c>
       <c r="AC54" s="11" t="s">
-        <v>691</v>
+        <v>286</v>
       </c>
       <c r="AD54" s="16" t="s">
-        <v>966</v>
-      </c>
-      <c r="AE54" s="4" t="s">
+        <v>971</v>
+      </c>
+      <c r="AE54" s="16" t="s">
+        <v>997</v>
+      </c>
+      <c r="AF54" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="AF54" s="20"/>
-      <c r="AG54" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="AH54" s="3"/>
+      <c r="AG54" s="4" t="s">
+        <v>1000</v>
+      </c>
+      <c r="AH54" s="20"/>
+      <c r="AI54" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="AJ54" s="3" t="s">
+        <v>906</v>
+      </c>
     </row>
-    <row r="55" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
-        <v>44883.484988425924</v>
+        <v>44883.529039351852</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>639</v>
+        <v>347</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>640</v>
+        <v>794</v>
       </c>
       <c r="D55" s="3" t="s">
         <v>27</v>
@@ -18240,7 +18616,7 @@
         <v>28</v>
       </c>
       <c r="F55" s="3" t="s">
-        <v>156</v>
+        <v>348</v>
       </c>
       <c r="G55" s="3" t="s">
         <v>30</v>
@@ -18249,16 +18625,16 @@
         <v>28</v>
       </c>
       <c r="I55" s="3" t="s">
-        <v>641</v>
+        <v>349</v>
       </c>
       <c r="J55" s="3" t="s">
-        <v>606</v>
+        <v>350</v>
       </c>
       <c r="K55" s="3" t="s">
-        <v>642</v>
+        <v>201</v>
       </c>
       <c r="L55" s="3" t="s">
-        <v>643</v>
+        <v>351</v>
       </c>
       <c r="M55" s="3" t="s">
         <v>28</v>
@@ -18285,47 +18661,51 @@
         <v>37</v>
       </c>
       <c r="U55" s="3" t="s">
-        <v>644</v>
+        <v>795</v>
       </c>
       <c r="V55" s="3" t="s">
-        <v>645</v>
+        <v>352</v>
       </c>
       <c r="W55" s="3" t="s">
-        <v>132</v>
+        <v>70</v>
       </c>
       <c r="X55">
-        <v>2017</v>
+        <v>2020</v>
       </c>
       <c r="Y55">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Z55" s="3" t="s">
-        <v>41</v>
+        <v>85</v>
       </c>
       <c r="AA55" s="3" t="s">
-        <v>896</v>
+        <v>897</v>
       </c>
       <c r="AB55" s="18" t="s">
-        <v>857</v>
+        <v>914</v>
       </c>
       <c r="AC55" s="11" t="s">
-        <v>646</v>
+        <v>356</v>
       </c>
       <c r="AD55" s="16" t="s">
-        <v>920</v>
-      </c>
-      <c r="AE55" s="4" t="s">
+        <v>970</v>
+      </c>
+      <c r="AE55" s="16" t="s">
+        <v>1002</v>
+      </c>
+      <c r="AF55" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="AF55" s="20" t="s">
-        <v>939</v>
-      </c>
-      <c r="AG55" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="AH55" s="3"/>
+      <c r="AG55" s="4" t="s">
+        <v>1000</v>
+      </c>
+      <c r="AH55" s="20"/>
+      <c r="AI55" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="AJ55" s="3"/>
     </row>
-    <row r="56" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A56" s="2">
         <v>44883.484988425924</v>
       </c>
@@ -18416,24 +18796,28 @@
       <c r="AD56" s="16" t="s">
         <v>972</v>
       </c>
-      <c r="AE56" s="4" t="s">
+      <c r="AE56" s="16" t="s">
+        <v>998</v>
+      </c>
+      <c r="AF56" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="AF56" s="20" t="s">
+      <c r="AG56" s="4"/>
+      <c r="AH56" s="20" t="s">
         <v>939</v>
       </c>
-      <c r="AG56" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="AH56" s="3" t="s">
+      <c r="AI56" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="AJ56" s="3" t="s">
         <v>906</v>
       </c>
     </row>
-    <row r="57" spans="1:34" ht="409.5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A57" s="2">
+    <row r="57" spans="1:36" s="21" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="28">
         <v>44883.484988425924</v>
       </c>
-      <c r="B57" s="3" t="s">
+      <c r="B57" s="18" t="s">
         <v>639</v>
       </c>
       <c r="C57" s="3" t="s">
@@ -18460,7 +18844,7 @@
       <c r="J57" s="3" t="s">
         <v>606</v>
       </c>
-      <c r="K57" s="3" t="s">
+      <c r="K57" s="18" t="s">
         <v>642</v>
       </c>
       <c r="L57" s="3" t="s">
@@ -18493,7 +18877,7 @@
       <c r="U57" s="3" t="s">
         <v>644</v>
       </c>
-      <c r="V57" s="3" t="s">
+      <c r="V57" s="18" t="s">
         <v>645</v>
       </c>
       <c r="W57" s="3" t="s">
@@ -18508,32 +18892,38 @@
       <c r="Z57" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="AA57" s="3" t="s">
+      <c r="AA57" s="18" t="s">
         <v>896</v>
       </c>
-      <c r="AB57" s="11" t="s">
+      <c r="AB57" s="18" t="s">
         <v>948</v>
       </c>
-      <c r="AC57" s="11" t="s">
+      <c r="AC57" s="18" t="s">
         <v>648</v>
       </c>
-      <c r="AD57" s="16" t="s">
+      <c r="AD57" s="29" t="s">
         <v>926</v>
       </c>
-      <c r="AE57" s="4" t="s">
+      <c r="AE57" s="29" t="s">
+        <v>998</v>
+      </c>
+      <c r="AF57" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="AF57" s="20" t="s">
+      <c r="AG57" s="4" t="s">
+        <v>1000</v>
+      </c>
+      <c r="AH57" s="20" t="s">
         <v>939</v>
       </c>
-      <c r="AG57" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="AH57" s="3" t="s">
+      <c r="AI57" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="AJ57" s="18" t="s">
         <v>906</v>
       </c>
     </row>
-    <row r="58" spans="1:34" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:36" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" s="2">
         <v>44810.795011574075</v>
       </c>
@@ -18624,18 +19014,24 @@
       <c r="AD58" s="16" t="s">
         <v>885</v>
       </c>
-      <c r="AE58" s="4" t="s">
+      <c r="AE58" s="16" t="s">
+        <v>996</v>
+      </c>
+      <c r="AF58" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="AF58" s="20"/>
-      <c r="AG58" s="3" t="s">
+      <c r="AG58" s="4" t="s">
+        <v>1000</v>
+      </c>
+      <c r="AH58" s="20"/>
+      <c r="AI58" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="AH58" s="3" t="s">
+      <c r="AJ58" s="3" t="s">
         <v>906</v>
       </c>
     </row>
-    <row r="59" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" s="2">
         <v>44810.711180555554</v>
       </c>
@@ -18726,16 +19122,22 @@
       <c r="AD59" s="16" t="s">
         <v>969</v>
       </c>
-      <c r="AE59" s="4" t="s">
+      <c r="AE59" s="16" t="s">
+        <v>997</v>
+      </c>
+      <c r="AF59" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="AF59" s="20"/>
-      <c r="AG59" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="AH59" s="3"/>
+      <c r="AG59" s="4" t="s">
+        <v>1000</v>
+      </c>
+      <c r="AH59" s="20"/>
+      <c r="AI59" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="AJ59" s="3"/>
     </row>
-    <row r="60" spans="1:34" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:36" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" s="2">
         <v>44810.711180555554</v>
       </c>
@@ -18827,15 +19229,21 @@
         <v>964</v>
       </c>
       <c r="AE60" s="4" t="s">
+        <v>999</v>
+      </c>
+      <c r="AF60" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="AF60" s="20"/>
-      <c r="AG60" s="3" t="s">
+      <c r="AG60" s="4" t="s">
+        <v>1000</v>
+      </c>
+      <c r="AH60" s="20"/>
+      <c r="AI60" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="AH60" s="3"/>
+      <c r="AJ60" s="3"/>
     </row>
-    <row r="61" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" s="2">
         <v>44875.956701388888</v>
       </c>
@@ -18926,16 +19334,22 @@
       <c r="AD61" s="16" t="s">
         <v>979</v>
       </c>
-      <c r="AE61" s="5" t="s">
+      <c r="AE61" s="17" t="s">
+        <v>994</v>
+      </c>
+      <c r="AF61" s="5" t="s">
         <v>963</v>
       </c>
-      <c r="AF61" s="22"/>
-      <c r="AG61" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="AH61" s="3"/>
+      <c r="AG61" s="5" t="s">
+        <v>1001</v>
+      </c>
+      <c r="AH61" s="22"/>
+      <c r="AI61" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="AJ61" s="3"/>
     </row>
-    <row r="62" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" s="2">
         <v>44895.738333333335</v>
       </c>
@@ -19026,16 +19440,22 @@
       <c r="AD62" s="16" t="s">
         <v>979</v>
       </c>
-      <c r="AE62" s="5" t="s">
+      <c r="AE62" s="17" t="s">
+        <v>994</v>
+      </c>
+      <c r="AF62" s="5" t="s">
         <v>963</v>
       </c>
-      <c r="AF62" s="22"/>
-      <c r="AG62" s="3" t="s">
+      <c r="AG62" s="5" t="s">
+        <v>1001</v>
+      </c>
+      <c r="AH62" s="22"/>
+      <c r="AI62" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="AH62" s="3"/>
+      <c r="AJ62" s="3"/>
     </row>
-    <row r="63" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" s="2">
         <v>44882.663530092592</v>
       </c>
@@ -19126,16 +19546,22 @@
       <c r="AD63" s="16" t="s">
         <v>979</v>
       </c>
-      <c r="AE63" s="5" t="s">
+      <c r="AE63" s="17" t="s">
+        <v>994</v>
+      </c>
+      <c r="AF63" s="5" t="s">
         <v>963</v>
       </c>
-      <c r="AF63" s="22"/>
-      <c r="AG63" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="AH63" s="3"/>
+      <c r="AG63" s="5" t="s">
+        <v>1001</v>
+      </c>
+      <c r="AH63" s="22"/>
+      <c r="AI63" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="AJ63" s="3"/>
     </row>
-    <row r="64" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" s="2">
         <v>44882.689606481479</v>
       </c>
@@ -19226,16 +19652,22 @@
       <c r="AD64" s="16" t="s">
         <v>979</v>
       </c>
-      <c r="AE64" s="5" t="s">
+      <c r="AE64" s="17" t="s">
+        <v>994</v>
+      </c>
+      <c r="AF64" s="5" t="s">
         <v>963</v>
       </c>
-      <c r="AF64" s="22"/>
-      <c r="AG64" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="AH64" s="3"/>
+      <c r="AG64" s="5" t="s">
+        <v>1001</v>
+      </c>
+      <c r="AH64" s="22"/>
+      <c r="AI64" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="AJ64" s="3"/>
     </row>
-    <row r="65" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" s="2">
         <v>44894.466134259259</v>
       </c>
@@ -19326,16 +19758,22 @@
       <c r="AD65" s="16" t="s">
         <v>979</v>
       </c>
-      <c r="AE65" s="5" t="s">
+      <c r="AE65" s="17" t="s">
+        <v>994</v>
+      </c>
+      <c r="AF65" s="5" t="s">
         <v>963</v>
       </c>
-      <c r="AF65" s="22"/>
-      <c r="AG65" s="3" t="s">
+      <c r="AG65" s="5" t="s">
+        <v>1001</v>
+      </c>
+      <c r="AH65" s="22"/>
+      <c r="AI65" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="AH65" s="3"/>
+      <c r="AJ65" s="3"/>
     </row>
-    <row r="66" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" s="2">
         <v>44894.713263888887</v>
       </c>
@@ -19426,16 +19864,22 @@
       <c r="AD66" s="16" t="s">
         <v>979</v>
       </c>
-      <c r="AE66" s="5" t="s">
+      <c r="AE66" s="17" t="s">
+        <v>994</v>
+      </c>
+      <c r="AF66" s="5" t="s">
         <v>963</v>
       </c>
-      <c r="AF66" s="22"/>
-      <c r="AG66" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="AH66" s="3"/>
+      <c r="AG66" s="5" t="s">
+        <v>1001</v>
+      </c>
+      <c r="AH66" s="22"/>
+      <c r="AI66" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="AJ66" s="3"/>
     </row>
-    <row r="67" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" s="2">
         <v>44894.713263888887</v>
       </c>
@@ -19526,16 +19970,22 @@
       <c r="AD67" s="16" t="s">
         <v>979</v>
       </c>
-      <c r="AE67" s="5" t="s">
+      <c r="AE67" s="17" t="s">
+        <v>994</v>
+      </c>
+      <c r="AF67" s="5" t="s">
         <v>963</v>
       </c>
-      <c r="AF67" s="22"/>
-      <c r="AG67" s="3" t="s">
+      <c r="AG67" s="5" t="s">
+        <v>1001</v>
+      </c>
+      <c r="AH67" s="22"/>
+      <c r="AI67" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="AH67" s="3"/>
+      <c r="AJ67" s="3"/>
     </row>
-    <row r="68" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" s="2">
         <v>44895.621770833335</v>
       </c>
@@ -19626,16 +20076,22 @@
       <c r="AD68" s="16" t="s">
         <v>979</v>
       </c>
-      <c r="AE68" s="5" t="s">
+      <c r="AE68" s="17" t="s">
+        <v>994</v>
+      </c>
+      <c r="AF68" s="5" t="s">
         <v>963</v>
       </c>
-      <c r="AF68" s="22"/>
-      <c r="AG68" s="3" t="s">
+      <c r="AG68" s="5" t="s">
+        <v>1001</v>
+      </c>
+      <c r="AH68" s="22"/>
+      <c r="AI68" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="AH68" s="3"/>
+      <c r="AJ68" s="3"/>
     </row>
-    <row r="69" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" s="2">
         <v>44883.484988425924</v>
       </c>
@@ -19726,18 +20182,24 @@
       <c r="AD69" s="16" t="s">
         <v>979</v>
       </c>
-      <c r="AE69" s="5" t="s">
+      <c r="AE69" s="17" t="s">
+        <v>994</v>
+      </c>
+      <c r="AF69" s="5" t="s">
         <v>963</v>
       </c>
-      <c r="AF69" s="22" t="s">
+      <c r="AG69" s="5" t="s">
+        <v>1001</v>
+      </c>
+      <c r="AH69" s="22" t="s">
         <v>950</v>
       </c>
-      <c r="AG69" s="3" t="s">
+      <c r="AI69" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="AH69" s="3"/>
+      <c r="AJ69" s="3"/>
     </row>
-    <row r="70" spans="1:34" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:36" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" s="2">
         <v>44893.474039351851</v>
       </c>
@@ -19828,18 +20290,24 @@
       <c r="AD70" s="16" t="s">
         <v>980</v>
       </c>
-      <c r="AE70" s="5" t="s">
+      <c r="AE70" s="16" t="s">
+        <v>995</v>
+      </c>
+      <c r="AF70" s="5" t="s">
         <v>963</v>
       </c>
-      <c r="AF70" s="21" t="s">
+      <c r="AG70" s="5" t="s">
+        <v>1001</v>
+      </c>
+      <c r="AH70" s="21" t="s">
         <v>935</v>
       </c>
-      <c r="AG70" s="3" t="s">
+      <c r="AI70" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="AH70" s="3"/>
+      <c r="AJ70" s="3"/>
     </row>
-    <row r="71" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" s="2">
         <v>44873.525972222225</v>
       </c>
@@ -19930,16 +20398,22 @@
       <c r="AD71" s="16" t="s">
         <v>980</v>
       </c>
-      <c r="AE71" s="5" t="s">
+      <c r="AE71" s="16" t="s">
+        <v>995</v>
+      </c>
+      <c r="AF71" s="5" t="s">
         <v>963</v>
       </c>
-      <c r="AF71" s="22"/>
-      <c r="AG71" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="AH71" s="3"/>
+      <c r="AG71" s="5" t="s">
+        <v>1001</v>
+      </c>
+      <c r="AH71" s="22"/>
+      <c r="AI71" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="AJ71" s="3"/>
     </row>
-    <row r="72" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" s="2">
         <v>44895.685428240744</v>
       </c>
@@ -20030,16 +20504,22 @@
       <c r="AD72" s="16" t="s">
         <v>980</v>
       </c>
-      <c r="AE72" s="5" t="s">
+      <c r="AE72" s="16" t="s">
+        <v>995</v>
+      </c>
+      <c r="AF72" s="5" t="s">
         <v>963</v>
       </c>
-      <c r="AF72" s="22"/>
-      <c r="AG72" s="3" t="s">
+      <c r="AG72" s="5" t="s">
+        <v>1001</v>
+      </c>
+      <c r="AH72" s="22"/>
+      <c r="AI72" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="AH72" s="3"/>
+      <c r="AJ72" s="3"/>
     </row>
-    <row r="73" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" s="2">
         <v>44895.758217592593</v>
       </c>
@@ -20130,18 +20610,24 @@
       <c r="AD73" s="16" t="s">
         <v>980</v>
       </c>
-      <c r="AE73" s="5" t="s">
+      <c r="AE73" s="16" t="s">
+        <v>995</v>
+      </c>
+      <c r="AF73" s="5" t="s">
         <v>963</v>
       </c>
-      <c r="AF73" s="22" t="s">
+      <c r="AG73" s="5" t="s">
+        <v>1001</v>
+      </c>
+      <c r="AH73" s="22" t="s">
         <v>949</v>
       </c>
-      <c r="AG73" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="AH73" s="3"/>
+      <c r="AI73" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="AJ73" s="3"/>
     </row>
-    <row r="74" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" s="2">
         <v>44816.741273148145</v>
       </c>
@@ -20232,18 +20718,24 @@
       <c r="AD74" s="16" t="s">
         <v>901</v>
       </c>
-      <c r="AE74" s="5" t="s">
+      <c r="AE74" s="16" t="s">
+        <v>995</v>
+      </c>
+      <c r="AF74" s="5" t="s">
         <v>963</v>
       </c>
-      <c r="AF74" s="22" t="s">
+      <c r="AG74" s="5" t="s">
+        <v>1001</v>
+      </c>
+      <c r="AH74" s="22" t="s">
         <v>940</v>
       </c>
-      <c r="AG74" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="AH74" s="3"/>
+      <c r="AI74" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="AJ74" s="3"/>
     </row>
-    <row r="75" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" s="2">
         <v>44882.663530092592</v>
       </c>
@@ -20334,16 +20826,22 @@
       <c r="AD75" s="16" t="s">
         <v>981</v>
       </c>
-      <c r="AE75" s="5" t="s">
+      <c r="AE75" s="17" t="s">
+        <v>994</v>
+      </c>
+      <c r="AF75" s="5" t="s">
         <v>963</v>
       </c>
-      <c r="AF75" s="22"/>
-      <c r="AG75" s="3" t="s">
+      <c r="AG75" s="5" t="s">
+        <v>1001</v>
+      </c>
+      <c r="AH75" s="22"/>
+      <c r="AI75" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="AH75" s="3"/>
+      <c r="AJ75" s="3"/>
     </row>
-    <row r="76" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" s="2">
         <v>44819.523553240739</v>
       </c>
@@ -20434,16 +20932,22 @@
       <c r="AD76" s="16" t="s">
         <v>981</v>
       </c>
-      <c r="AE76" s="5" t="s">
+      <c r="AE76" s="17" t="s">
+        <v>994</v>
+      </c>
+      <c r="AF76" s="5" t="s">
         <v>963</v>
       </c>
-      <c r="AF76" s="22"/>
-      <c r="AG76" s="3" t="s">
+      <c r="AG76" s="5" t="s">
+        <v>1001</v>
+      </c>
+      <c r="AH76" s="22"/>
+      <c r="AI76" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="AH76" s="3"/>
+      <c r="AJ76" s="3"/>
     </row>
-    <row r="77" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" s="2">
         <v>44894.466134259259</v>
       </c>
@@ -20534,18 +21038,24 @@
       <c r="AD77" s="16" t="s">
         <v>981</v>
       </c>
-      <c r="AE77" s="5" t="s">
+      <c r="AE77" s="17" t="s">
+        <v>994</v>
+      </c>
+      <c r="AF77" s="5" t="s">
         <v>963</v>
       </c>
-      <c r="AF77" s="22" t="s">
+      <c r="AG77" s="5" t="s">
+        <v>1001</v>
+      </c>
+      <c r="AH77" s="22" t="s">
         <v>941</v>
       </c>
-      <c r="AG77" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="AH77" s="3"/>
+      <c r="AI77" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="AJ77" s="3"/>
     </row>
-    <row r="78" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" s="2">
         <v>44894.472974537035</v>
       </c>
@@ -20636,18 +21146,24 @@
       <c r="AD78" s="16" t="s">
         <v>981</v>
       </c>
-      <c r="AE78" s="5" t="s">
+      <c r="AE78" s="17" t="s">
+        <v>994</v>
+      </c>
+      <c r="AF78" s="5" t="s">
         <v>963</v>
       </c>
-      <c r="AF78" s="22" t="s">
+      <c r="AG78" s="5" t="s">
+        <v>1001</v>
+      </c>
+      <c r="AH78" s="22" t="s">
         <v>935</v>
       </c>
-      <c r="AG78" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="AH78" s="3"/>
+      <c r="AI78" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="AJ78" s="3"/>
     </row>
-    <row r="79" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" s="2">
         <v>44894.472974537035</v>
       </c>
@@ -20738,16 +21254,22 @@
       <c r="AD79" s="16" t="s">
         <v>981</v>
       </c>
-      <c r="AE79" s="5" t="s">
+      <c r="AE79" s="17" t="s">
+        <v>994</v>
+      </c>
+      <c r="AF79" s="5" t="s">
         <v>963</v>
       </c>
-      <c r="AF79" s="22"/>
-      <c r="AG79" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="AH79" s="3"/>
+      <c r="AG79" s="5" t="s">
+        <v>1001</v>
+      </c>
+      <c r="AH79" s="22"/>
+      <c r="AI79" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="AJ79" s="3"/>
     </row>
-    <row r="80" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" s="2">
         <v>44894.472974537035</v>
       </c>
@@ -20838,16 +21360,22 @@
       <c r="AD80" s="16" t="s">
         <v>981</v>
       </c>
-      <c r="AE80" s="5" t="s">
+      <c r="AE80" s="17" t="s">
+        <v>994</v>
+      </c>
+      <c r="AF80" s="5" t="s">
         <v>963</v>
       </c>
-      <c r="AF80" s="22"/>
-      <c r="AG80" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="AH80" s="3"/>
+      <c r="AG80" s="5" t="s">
+        <v>1001</v>
+      </c>
+      <c r="AH80" s="22"/>
+      <c r="AI80" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="AJ80" s="3"/>
     </row>
-    <row r="81" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" s="2">
         <v>44894.472974537035</v>
       </c>
@@ -20938,16 +21466,22 @@
       <c r="AD81" s="16" t="s">
         <v>981</v>
       </c>
-      <c r="AE81" s="5" t="s">
+      <c r="AE81" s="17" t="s">
+        <v>994</v>
+      </c>
+      <c r="AF81" s="5" t="s">
         <v>963</v>
       </c>
-      <c r="AF81" s="22"/>
-      <c r="AG81" s="3" t="s">
+      <c r="AG81" s="5" t="s">
+        <v>1001</v>
+      </c>
+      <c r="AH81" s="22"/>
+      <c r="AI81" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="AH81" s="3"/>
+      <c r="AJ81" s="3"/>
     </row>
-    <row r="82" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" s="2">
         <v>44894.724317129629</v>
       </c>
@@ -21038,16 +21572,22 @@
       <c r="AD82" s="16" t="s">
         <v>981</v>
       </c>
-      <c r="AE82" s="5" t="s">
+      <c r="AE82" s="17" t="s">
+        <v>994</v>
+      </c>
+      <c r="AF82" s="5" t="s">
         <v>963</v>
       </c>
-      <c r="AF82" s="22"/>
-      <c r="AG82" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="AH82" s="3"/>
+      <c r="AG82" s="5" t="s">
+        <v>1001</v>
+      </c>
+      <c r="AH82" s="22"/>
+      <c r="AI82" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="AJ82" s="3"/>
     </row>
-    <row r="83" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" s="2">
         <v>44895.758217592593</v>
       </c>
@@ -21138,16 +21678,22 @@
       <c r="AD83" s="16" t="s">
         <v>981</v>
       </c>
-      <c r="AE83" s="5" t="s">
+      <c r="AE83" s="17" t="s">
+        <v>994</v>
+      </c>
+      <c r="AF83" s="5" t="s">
         <v>963</v>
       </c>
-      <c r="AF83" s="22"/>
-      <c r="AG83" s="3" t="s">
+      <c r="AG83" s="5" t="s">
+        <v>1001</v>
+      </c>
+      <c r="AH83" s="22"/>
+      <c r="AI83" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="AH83" s="3"/>
+      <c r="AJ83" s="3"/>
     </row>
-    <row r="84" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" s="2">
         <v>44894.5312037037</v>
       </c>
@@ -21238,16 +21784,22 @@
       <c r="AD84" s="16" t="s">
         <v>974</v>
       </c>
-      <c r="AE84" s="6" t="s">
+      <c r="AE84" s="16" t="s">
+        <v>992</v>
+      </c>
+      <c r="AF84" s="6" t="s">
         <v>958</v>
       </c>
-      <c r="AF84" s="23"/>
-      <c r="AG84" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="AH84" s="3"/>
+      <c r="AG84" s="5" t="s">
+        <v>1001</v>
+      </c>
+      <c r="AH84" s="23"/>
+      <c r="AI84" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="AJ84" s="3"/>
     </row>
-    <row r="85" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" s="2">
         <v>44895.754942129628</v>
       </c>
@@ -21338,16 +21890,22 @@
       <c r="AD85" s="16" t="s">
         <v>974</v>
       </c>
-      <c r="AE85" s="6" t="s">
+      <c r="AE85" s="16" t="s">
+        <v>992</v>
+      </c>
+      <c r="AF85" s="6" t="s">
         <v>958</v>
       </c>
-      <c r="AF85" s="23"/>
-      <c r="AG85" s="3" t="s">
+      <c r="AG85" s="5" t="s">
+        <v>1001</v>
+      </c>
+      <c r="AH85" s="23"/>
+      <c r="AI85" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="AH85" s="3"/>
+      <c r="AJ85" s="3"/>
     </row>
-    <row r="86" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" s="2">
         <v>44882.757835648146</v>
       </c>
@@ -21438,16 +21996,22 @@
       <c r="AD86" s="16" t="s">
         <v>974</v>
       </c>
-      <c r="AE86" s="6" t="s">
+      <c r="AE86" s="16" t="s">
+        <v>992</v>
+      </c>
+      <c r="AF86" s="6" t="s">
         <v>958</v>
       </c>
-      <c r="AF86" s="23"/>
-      <c r="AG86" s="3" t="s">
+      <c r="AG86" s="5" t="s">
+        <v>1001</v>
+      </c>
+      <c r="AH86" s="23"/>
+      <c r="AI86" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="AH86" s="3"/>
+      <c r="AJ86" s="3"/>
     </row>
-    <row r="87" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" s="2">
         <v>44895.779317129629</v>
       </c>
@@ -21538,16 +22102,22 @@
       <c r="AD87" s="16" t="s">
         <v>974</v>
       </c>
-      <c r="AE87" s="6" t="s">
+      <c r="AE87" s="16" t="s">
+        <v>992</v>
+      </c>
+      <c r="AF87" s="6" t="s">
         <v>958</v>
       </c>
-      <c r="AF87" s="23"/>
-      <c r="AG87" s="3" t="s">
+      <c r="AG87" s="5" t="s">
+        <v>1001</v>
+      </c>
+      <c r="AH87" s="23"/>
+      <c r="AI87" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="AH87" s="3"/>
+      <c r="AJ87" s="3"/>
     </row>
-    <row r="88" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" s="2">
         <v>44895.762604166666</v>
       </c>
@@ -21638,16 +22208,22 @@
       <c r="AD88" s="16" t="s">
         <v>974</v>
       </c>
-      <c r="AE88" s="6" t="s">
+      <c r="AE88" s="16" t="s">
+        <v>992</v>
+      </c>
+      <c r="AF88" s="6" t="s">
         <v>958</v>
       </c>
-      <c r="AF88" s="23"/>
-      <c r="AG88" s="3" t="s">
+      <c r="AG88" s="5" t="s">
+        <v>1001</v>
+      </c>
+      <c r="AH88" s="23"/>
+      <c r="AI88" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="AH88" s="3"/>
+      <c r="AJ88" s="3"/>
     </row>
-    <row r="89" spans="1:34" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:36" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" s="2">
         <v>44876.480393518519</v>
       </c>
@@ -21738,16 +22314,22 @@
       <c r="AD89" s="16" t="s">
         <v>974</v>
       </c>
-      <c r="AE89" s="6" t="s">
+      <c r="AE89" s="16" t="s">
+        <v>992</v>
+      </c>
+      <c r="AF89" s="6" t="s">
         <v>958</v>
       </c>
-      <c r="AF89" s="23"/>
-      <c r="AG89" s="3" t="s">
+      <c r="AG89" s="5" t="s">
+        <v>1001</v>
+      </c>
+      <c r="AH89" s="23"/>
+      <c r="AI89" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="AH89" s="3"/>
+      <c r="AJ89" s="3"/>
     </row>
-    <row r="90" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" s="2">
         <v>44883.529039351852</v>
       </c>
@@ -21838,16 +22420,22 @@
       <c r="AD90" s="16" t="s">
         <v>974</v>
       </c>
-      <c r="AE90" s="6" t="s">
+      <c r="AE90" s="16" t="s">
+        <v>992</v>
+      </c>
+      <c r="AF90" s="6" t="s">
         <v>958</v>
       </c>
-      <c r="AF90" s="23"/>
-      <c r="AG90" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="AH90" s="3"/>
+      <c r="AG90" s="5" t="s">
+        <v>1001</v>
+      </c>
+      <c r="AH90" s="23"/>
+      <c r="AI90" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="AJ90" s="3"/>
     </row>
-    <row r="91" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" s="2">
         <v>44883.529039351852</v>
       </c>
@@ -21938,16 +22526,22 @@
       <c r="AD91" s="16" t="s">
         <v>974</v>
       </c>
-      <c r="AE91" s="6" t="s">
+      <c r="AE91" s="16" t="s">
+        <v>992</v>
+      </c>
+      <c r="AF91" s="6" t="s">
         <v>958</v>
       </c>
-      <c r="AF91" s="23"/>
-      <c r="AG91" s="3" t="s">
+      <c r="AG91" s="5" t="s">
+        <v>1001</v>
+      </c>
+      <c r="AH91" s="23"/>
+      <c r="AI91" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="AH91" s="3"/>
+      <c r="AJ91" s="3"/>
     </row>
-    <row r="92" spans="1:34" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:36" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92" s="2">
         <v>44895.51489583333</v>
       </c>
@@ -22038,16 +22632,22 @@
       <c r="AD92" s="16" t="s">
         <v>974</v>
       </c>
-      <c r="AE92" s="6" t="s">
+      <c r="AE92" s="16" t="s">
+        <v>992</v>
+      </c>
+      <c r="AF92" s="6" t="s">
         <v>958</v>
       </c>
-      <c r="AF92" s="23"/>
-      <c r="AG92" s="3" t="s">
+      <c r="AG92" s="5" t="s">
+        <v>1001</v>
+      </c>
+      <c r="AH92" s="23"/>
+      <c r="AI92" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="AH92" s="3"/>
+      <c r="AJ92" s="3"/>
     </row>
-    <row r="93" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" s="2">
         <v>44873.568668981483</v>
       </c>
@@ -22138,16 +22738,22 @@
       <c r="AD93" s="16" t="s">
         <v>974</v>
       </c>
-      <c r="AE93" s="6" t="s">
+      <c r="AE93" s="16" t="s">
+        <v>992</v>
+      </c>
+      <c r="AF93" s="6" t="s">
         <v>958</v>
       </c>
-      <c r="AF93" s="23"/>
-      <c r="AG93" s="3" t="s">
+      <c r="AG93" s="5" t="s">
+        <v>1001</v>
+      </c>
+      <c r="AH93" s="23"/>
+      <c r="AI93" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="AH93" s="3"/>
+      <c r="AJ93" s="3"/>
     </row>
-    <row r="94" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" s="2">
         <v>44894.695937500001</v>
       </c>
@@ -22238,16 +22844,22 @@
       <c r="AD94" s="16" t="s">
         <v>974</v>
       </c>
-      <c r="AE94" s="6" t="s">
+      <c r="AE94" s="16" t="s">
+        <v>992</v>
+      </c>
+      <c r="AF94" s="6" t="s">
         <v>958</v>
       </c>
-      <c r="AF94" s="23"/>
-      <c r="AG94" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="AH94" s="3"/>
+      <c r="AG94" s="5" t="s">
+        <v>1001</v>
+      </c>
+      <c r="AH94" s="23"/>
+      <c r="AI94" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="AJ94" s="3"/>
     </row>
-    <row r="95" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" s="2">
         <v>44895.769317129627</v>
       </c>
@@ -22338,16 +22950,22 @@
       <c r="AD95" s="16" t="s">
         <v>974</v>
       </c>
-      <c r="AE95" s="6" t="s">
+      <c r="AE95" s="16" t="s">
+        <v>992</v>
+      </c>
+      <c r="AF95" s="6" t="s">
         <v>958</v>
       </c>
-      <c r="AF95" s="23"/>
-      <c r="AG95" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="AH95" s="3"/>
+      <c r="AG95" s="5" t="s">
+        <v>1001</v>
+      </c>
+      <c r="AH95" s="23"/>
+      <c r="AI95" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="AJ95" s="3"/>
     </row>
-    <row r="96" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" s="2">
         <v>44882.694421296299</v>
       </c>
@@ -22438,16 +23056,22 @@
       <c r="AD96" s="16" t="s">
         <v>974</v>
       </c>
-      <c r="AE96" s="6" t="s">
+      <c r="AE96" s="16" t="s">
+        <v>992</v>
+      </c>
+      <c r="AF96" s="6" t="s">
         <v>958</v>
       </c>
-      <c r="AF96" s="23"/>
-      <c r="AG96" s="3" t="s">
+      <c r="AG96" s="5" t="s">
+        <v>1001</v>
+      </c>
+      <c r="AH96" s="23"/>
+      <c r="AI96" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="AH96" s="3"/>
+      <c r="AJ96" s="3"/>
     </row>
-    <row r="97" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97" s="2">
         <v>44894.743981481479</v>
       </c>
@@ -22538,16 +23162,22 @@
       <c r="AD97" s="16" t="s">
         <v>974</v>
       </c>
-      <c r="AE97" s="6" t="s">
+      <c r="AE97" s="16" t="s">
+        <v>992</v>
+      </c>
+      <c r="AF97" s="6" t="s">
         <v>958</v>
       </c>
-      <c r="AF97" s="23"/>
-      <c r="AG97" s="3" t="s">
+      <c r="AG97" s="5" t="s">
+        <v>1001</v>
+      </c>
+      <c r="AH97" s="23"/>
+      <c r="AI97" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="AH97" s="3"/>
+      <c r="AJ97" s="3"/>
     </row>
-    <row r="98" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" s="2">
         <v>44879.477731481478</v>
       </c>
@@ -22638,16 +23268,22 @@
       <c r="AD98" s="16" t="s">
         <v>974</v>
       </c>
-      <c r="AE98" s="6" t="s">
+      <c r="AE98" s="16" t="s">
+        <v>992</v>
+      </c>
+      <c r="AF98" s="6" t="s">
         <v>958</v>
       </c>
-      <c r="AF98" s="23"/>
-      <c r="AG98" s="3" t="s">
+      <c r="AG98" s="5" t="s">
+        <v>1001</v>
+      </c>
+      <c r="AH98" s="23"/>
+      <c r="AI98" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="AH98" s="3"/>
+      <c r="AJ98" s="3"/>
     </row>
-    <row r="99" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99" s="2">
         <v>44879.490914351853</v>
       </c>
@@ -22738,16 +23374,22 @@
       <c r="AD99" s="16" t="s">
         <v>974</v>
       </c>
-      <c r="AE99" s="6" t="s">
+      <c r="AE99" s="16" t="s">
+        <v>992</v>
+      </c>
+      <c r="AF99" s="6" t="s">
         <v>958</v>
       </c>
-      <c r="AF99" s="23"/>
-      <c r="AG99" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="AH99" s="3"/>
+      <c r="AG99" s="5" t="s">
+        <v>1001</v>
+      </c>
+      <c r="AH99" s="23"/>
+      <c r="AI99" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="AJ99" s="3"/>
     </row>
-    <row r="100" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100" s="2">
         <v>44883.559861111113</v>
       </c>
@@ -22838,16 +23480,22 @@
       <c r="AD100" s="16" t="s">
         <v>974</v>
       </c>
-      <c r="AE100" s="6" t="s">
+      <c r="AE100" s="16" t="s">
+        <v>992</v>
+      </c>
+      <c r="AF100" s="6" t="s">
         <v>958</v>
       </c>
-      <c r="AF100" s="23"/>
-      <c r="AG100" s="3" t="s">
+      <c r="AG100" s="5" t="s">
+        <v>1001</v>
+      </c>
+      <c r="AH100" s="23"/>
+      <c r="AI100" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="AH100" s="3"/>
+      <c r="AJ100" s="3"/>
     </row>
-    <row r="101" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101" s="2">
         <v>44893.474039351851</v>
       </c>
@@ -22938,16 +23586,22 @@
       <c r="AD101" s="16" t="s">
         <v>974</v>
       </c>
-      <c r="AE101" s="6" t="s">
+      <c r="AE101" s="16" t="s">
+        <v>992</v>
+      </c>
+      <c r="AF101" s="6" t="s">
         <v>958</v>
       </c>
-      <c r="AF101" s="23"/>
-      <c r="AG101" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="AH101" s="3"/>
+      <c r="AG101" s="5" t="s">
+        <v>1001</v>
+      </c>
+      <c r="AH101" s="23"/>
+      <c r="AI101" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="AJ101" s="3"/>
     </row>
-    <row r="102" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102" s="2">
         <v>44889.61928240741</v>
       </c>
@@ -23038,16 +23692,22 @@
       <c r="AD102" s="16" t="s">
         <v>974</v>
       </c>
-      <c r="AE102" s="6" t="s">
+      <c r="AE102" s="16" t="s">
+        <v>992</v>
+      </c>
+      <c r="AF102" s="6" t="s">
         <v>958</v>
       </c>
-      <c r="AF102" s="23"/>
-      <c r="AG102" s="3" t="s">
+      <c r="AG102" s="5" t="s">
+        <v>1001</v>
+      </c>
+      <c r="AH102" s="23"/>
+      <c r="AI102" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="AH102" s="3"/>
+      <c r="AJ102" s="3"/>
     </row>
-    <row r="103" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" s="2">
         <v>44873.525972222225</v>
       </c>
@@ -23138,16 +23798,22 @@
       <c r="AD103" s="16" t="s">
         <v>974</v>
       </c>
-      <c r="AE103" s="6" t="s">
+      <c r="AE103" s="16" t="s">
+        <v>992</v>
+      </c>
+      <c r="AF103" s="6" t="s">
         <v>958</v>
       </c>
-      <c r="AF103" s="23"/>
-      <c r="AG103" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="AH103" s="3"/>
+      <c r="AG103" s="5" t="s">
+        <v>1001</v>
+      </c>
+      <c r="AH103" s="23"/>
+      <c r="AI103" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="AJ103" s="3"/>
     </row>
-    <row r="104" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104" s="2">
         <v>44876.495821759258</v>
       </c>
@@ -23238,16 +23904,22 @@
       <c r="AD104" s="16" t="s">
         <v>974</v>
       </c>
-      <c r="AE104" s="6" t="s">
+      <c r="AE104" s="16" t="s">
+        <v>992</v>
+      </c>
+      <c r="AF104" s="6" t="s">
         <v>958</v>
       </c>
-      <c r="AF104" s="23"/>
-      <c r="AG104" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="AH104" s="3"/>
+      <c r="AG104" s="5" t="s">
+        <v>1001</v>
+      </c>
+      <c r="AH104" s="23"/>
+      <c r="AI104" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="AJ104" s="3"/>
     </row>
-    <row r="105" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105" s="2">
         <v>44879.561863425923</v>
       </c>
@@ -23338,16 +24010,22 @@
       <c r="AD105" s="16" t="s">
         <v>974</v>
       </c>
-      <c r="AE105" s="6" t="s">
+      <c r="AE105" s="16" t="s">
+        <v>992</v>
+      </c>
+      <c r="AF105" s="6" t="s">
         <v>958</v>
       </c>
-      <c r="AF105" s="23"/>
-      <c r="AG105" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="AH105" s="3"/>
+      <c r="AG105" s="5" t="s">
+        <v>1001</v>
+      </c>
+      <c r="AH105" s="23"/>
+      <c r="AI105" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="AJ105" s="3"/>
     </row>
-    <row r="106" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106" s="2">
         <v>44894.681527777779</v>
       </c>
@@ -23438,16 +24116,22 @@
       <c r="AD106" s="16" t="s">
         <v>974</v>
       </c>
-      <c r="AE106" s="6" t="s">
+      <c r="AE106" s="16" t="s">
+        <v>992</v>
+      </c>
+      <c r="AF106" s="6" t="s">
         <v>958</v>
       </c>
-      <c r="AF106" s="23"/>
-      <c r="AG106" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="AH106" s="3"/>
+      <c r="AG106" s="5" t="s">
+        <v>1001</v>
+      </c>
+      <c r="AH106" s="23"/>
+      <c r="AI106" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="AJ106" s="3"/>
     </row>
-    <row r="107" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107" s="2">
         <v>44882.727476851855</v>
       </c>
@@ -23538,16 +24222,22 @@
       <c r="AD107" s="16" t="s">
         <v>974</v>
       </c>
-      <c r="AE107" s="6" t="s">
+      <c r="AE107" s="16" t="s">
+        <v>992</v>
+      </c>
+      <c r="AF107" s="6" t="s">
         <v>958</v>
       </c>
-      <c r="AF107" s="23"/>
-      <c r="AG107" s="3" t="s">
+      <c r="AG107" s="5" t="s">
+        <v>1001</v>
+      </c>
+      <c r="AH107" s="23"/>
+      <c r="AI107" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="AH107" s="3"/>
+      <c r="AJ107" s="3"/>
     </row>
-    <row r="108" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108" s="2">
         <v>44872.526134259257</v>
       </c>
@@ -23638,16 +24328,22 @@
       <c r="AD108" s="16" t="s">
         <v>974</v>
       </c>
-      <c r="AE108" s="6" t="s">
+      <c r="AE108" s="16" t="s">
+        <v>992</v>
+      </c>
+      <c r="AF108" s="6" t="s">
         <v>958</v>
       </c>
-      <c r="AF108" s="23"/>
-      <c r="AG108" s="3" t="s">
+      <c r="AG108" s="5" t="s">
+        <v>1001</v>
+      </c>
+      <c r="AH108" s="23"/>
+      <c r="AI108" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="AH108" s="3"/>
+      <c r="AJ108" s="3"/>
     </row>
-    <row r="109" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109" s="2">
         <v>44890.734363425923</v>
       </c>
@@ -23738,16 +24434,22 @@
       <c r="AD109" s="16" t="s">
         <v>974</v>
       </c>
-      <c r="AE109" s="6" t="s">
+      <c r="AE109" s="16" t="s">
+        <v>992</v>
+      </c>
+      <c r="AF109" s="6" t="s">
         <v>958</v>
       </c>
-      <c r="AF109" s="23"/>
-      <c r="AG109" s="3" t="s">
+      <c r="AG109" s="5" t="s">
+        <v>1001</v>
+      </c>
+      <c r="AH109" s="23"/>
+      <c r="AI109" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="AH109" s="3"/>
+      <c r="AJ109" s="3"/>
     </row>
-    <row r="110" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110" s="2">
         <v>44895.675173611111</v>
       </c>
@@ -23838,16 +24540,22 @@
       <c r="AD110" s="16" t="s">
         <v>974</v>
       </c>
-      <c r="AE110" s="6" t="s">
+      <c r="AE110" s="16" t="s">
+        <v>992</v>
+      </c>
+      <c r="AF110" s="6" t="s">
         <v>958</v>
       </c>
-      <c r="AF110" s="23"/>
-      <c r="AG110" s="3" t="s">
+      <c r="AG110" s="5" t="s">
+        <v>1001</v>
+      </c>
+      <c r="AH110" s="23"/>
+      <c r="AI110" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="AH110" s="3"/>
+      <c r="AJ110" s="3"/>
     </row>
-    <row r="111" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111" s="2">
         <v>44895.629062499997</v>
       </c>
@@ -23938,16 +24646,22 @@
       <c r="AD111" s="16" t="s">
         <v>974</v>
       </c>
-      <c r="AE111" s="6" t="s">
+      <c r="AE111" s="16" t="s">
+        <v>992</v>
+      </c>
+      <c r="AF111" s="6" t="s">
         <v>958</v>
       </c>
-      <c r="AF111" s="23"/>
-      <c r="AG111" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="AH111" s="3"/>
+      <c r="AG111" s="5" t="s">
+        <v>1001</v>
+      </c>
+      <c r="AH111" s="23"/>
+      <c r="AI111" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="AJ111" s="3"/>
     </row>
-    <row r="112" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112" s="2">
         <v>44882.674641203703</v>
       </c>
@@ -24038,16 +24752,22 @@
       <c r="AD112" s="16" t="s">
         <v>974</v>
       </c>
-      <c r="AE112" s="6" t="s">
+      <c r="AE112" s="16" t="s">
+        <v>992</v>
+      </c>
+      <c r="AF112" s="6" t="s">
         <v>958</v>
       </c>
-      <c r="AF112" s="23"/>
-      <c r="AG112" s="3" t="s">
+      <c r="AG112" s="5" t="s">
+        <v>1001</v>
+      </c>
+      <c r="AH112" s="23"/>
+      <c r="AI112" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="AH112" s="3"/>
+      <c r="AJ112" s="3"/>
     </row>
-    <row r="113" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113" s="2">
         <v>44882.689606481479</v>
       </c>
@@ -24138,16 +24858,22 @@
       <c r="AD113" s="16" t="s">
         <v>974</v>
       </c>
-      <c r="AE113" s="6" t="s">
+      <c r="AE113" s="16" t="s">
+        <v>992</v>
+      </c>
+      <c r="AF113" s="6" t="s">
         <v>958</v>
       </c>
-      <c r="AF113" s="23"/>
-      <c r="AG113" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="AH113" s="3"/>
+      <c r="AG113" s="5" t="s">
+        <v>1001</v>
+      </c>
+      <c r="AH113" s="23"/>
+      <c r="AI113" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="AJ113" s="3"/>
     </row>
-    <row r="114" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114" s="2">
         <v>44893.482789351852</v>
       </c>
@@ -24238,16 +24964,22 @@
       <c r="AD114" s="16" t="s">
         <v>974</v>
       </c>
-      <c r="AE114" s="6" t="s">
+      <c r="AE114" s="16" t="s">
+        <v>992</v>
+      </c>
+      <c r="AF114" s="6" t="s">
         <v>958</v>
       </c>
-      <c r="AF114" s="23"/>
-      <c r="AG114" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="AH114" s="3"/>
+      <c r="AG114" s="5" t="s">
+        <v>1001</v>
+      </c>
+      <c r="AH114" s="23"/>
+      <c r="AI114" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="AJ114" s="3"/>
     </row>
-    <row r="115" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115" s="2">
         <v>44895.665185185186</v>
       </c>
@@ -24338,16 +25070,22 @@
       <c r="AD115" s="16" t="s">
         <v>974</v>
       </c>
-      <c r="AE115" s="6" t="s">
+      <c r="AE115" s="16" t="s">
+        <v>992</v>
+      </c>
+      <c r="AF115" s="6" t="s">
         <v>958</v>
       </c>
-      <c r="AF115" s="23"/>
-      <c r="AG115" s="3" t="s">
+      <c r="AG115" s="5" t="s">
+        <v>1001</v>
+      </c>
+      <c r="AH115" s="23"/>
+      <c r="AI115" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="AH115" s="3"/>
+      <c r="AJ115" s="3"/>
     </row>
-    <row r="116" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116" s="2">
         <v>44879.626574074071</v>
       </c>
@@ -24438,16 +25176,22 @@
       <c r="AD116" s="16" t="s">
         <v>974</v>
       </c>
-      <c r="AE116" s="6" t="s">
+      <c r="AE116" s="16" t="s">
+        <v>992</v>
+      </c>
+      <c r="AF116" s="6" t="s">
         <v>958</v>
       </c>
-      <c r="AF116" s="23"/>
-      <c r="AG116" s="3" t="s">
+      <c r="AG116" s="5" t="s">
+        <v>1001</v>
+      </c>
+      <c r="AH116" s="23"/>
+      <c r="AI116" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="AH116" s="3"/>
+      <c r="AJ116" s="3"/>
     </row>
-    <row r="117" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117" s="2">
         <v>44872.553807870368</v>
       </c>
@@ -24538,16 +25282,22 @@
       <c r="AD117" s="16" t="s">
         <v>974</v>
       </c>
-      <c r="AE117" s="6" t="s">
+      <c r="AE117" s="16" t="s">
+        <v>992</v>
+      </c>
+      <c r="AF117" s="6" t="s">
         <v>958</v>
       </c>
-      <c r="AF117" s="23"/>
-      <c r="AG117" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="AH117" s="3"/>
+      <c r="AG117" s="5" t="s">
+        <v>1001</v>
+      </c>
+      <c r="AH117" s="23"/>
+      <c r="AI117" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="AJ117" s="3"/>
     </row>
-    <row r="118" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118" s="2">
         <v>44872.553807870368</v>
       </c>
@@ -24638,18 +25388,24 @@
       <c r="AD118" s="16" t="s">
         <v>974</v>
       </c>
-      <c r="AE118" s="4" t="s">
+      <c r="AE118" s="16" t="s">
+        <v>992</v>
+      </c>
+      <c r="AF118" s="4" t="s">
         <v>958</v>
       </c>
-      <c r="AF118" s="20"/>
-      <c r="AG118" s="3" t="s">
+      <c r="AG118" s="5" t="s">
+        <v>1001</v>
+      </c>
+      <c r="AH118" s="20"/>
+      <c r="AI118" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="AH118" s="3" t="s">
+      <c r="AJ118" s="3" t="s">
         <v>906</v>
       </c>
     </row>
-    <row r="119" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119" s="2">
         <v>44893.493472222224</v>
       </c>
@@ -24740,16 +25496,22 @@
       <c r="AD119" s="16" t="s">
         <v>974</v>
       </c>
-      <c r="AE119" s="6" t="s">
+      <c r="AE119" s="16" t="s">
+        <v>992</v>
+      </c>
+      <c r="AF119" s="6" t="s">
         <v>958</v>
       </c>
-      <c r="AF119" s="23"/>
-      <c r="AG119" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="AH119" s="3"/>
+      <c r="AG119" s="5" t="s">
+        <v>1001</v>
+      </c>
+      <c r="AH119" s="23"/>
+      <c r="AI119" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="AJ119" s="3"/>
     </row>
-    <row r="120" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120" s="2">
         <v>44889.834004629629</v>
       </c>
@@ -24840,16 +25602,22 @@
       <c r="AD120" s="16" t="s">
         <v>974</v>
       </c>
-      <c r="AE120" s="6" t="s">
+      <c r="AE120" s="16" t="s">
+        <v>992</v>
+      </c>
+      <c r="AF120" s="6" t="s">
         <v>958</v>
       </c>
-      <c r="AF120" s="23"/>
-      <c r="AG120" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="AH120" s="3"/>
+      <c r="AG120" s="5" t="s">
+        <v>1001</v>
+      </c>
+      <c r="AH120" s="23"/>
+      <c r="AI120" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="AJ120" s="3"/>
     </row>
-    <row r="121" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121" s="2">
         <v>44893.512881944444</v>
       </c>
@@ -24940,16 +25708,22 @@
       <c r="AD121" s="16" t="s">
         <v>974</v>
       </c>
-      <c r="AE121" s="6" t="s">
+      <c r="AE121" s="16" t="s">
+        <v>992</v>
+      </c>
+      <c r="AF121" s="6" t="s">
         <v>958</v>
       </c>
-      <c r="AF121" s="23"/>
-      <c r="AG121" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="AH121" s="3"/>
+      <c r="AG121" s="5" t="s">
+        <v>1001</v>
+      </c>
+      <c r="AH121" s="23"/>
+      <c r="AI121" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="AJ121" s="3"/>
     </row>
-    <row r="122" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122" s="2">
         <v>44875.915219907409</v>
       </c>
@@ -25040,16 +25814,22 @@
       <c r="AD122" s="16" t="s">
         <v>974</v>
       </c>
-      <c r="AE122" s="6" t="s">
+      <c r="AE122" s="16" t="s">
+        <v>992</v>
+      </c>
+      <c r="AF122" s="6" t="s">
         <v>958</v>
       </c>
-      <c r="AF122" s="23"/>
-      <c r="AG122" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="AH122" s="3"/>
+      <c r="AG122" s="5" t="s">
+        <v>1001</v>
+      </c>
+      <c r="AH122" s="23"/>
+      <c r="AI122" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="AJ122" s="3"/>
     </row>
-    <row r="123" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A123" s="2">
         <v>44889.821689814817</v>
       </c>
@@ -25140,16 +25920,22 @@
       <c r="AD123" s="16" t="s">
         <v>974</v>
       </c>
-      <c r="AE123" s="6" t="s">
+      <c r="AE123" s="16" t="s">
+        <v>992</v>
+      </c>
+      <c r="AF123" s="6" t="s">
         <v>958</v>
       </c>
-      <c r="AF123" s="23"/>
-      <c r="AG123" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="AH123" s="3"/>
+      <c r="AG123" s="5" t="s">
+        <v>1001</v>
+      </c>
+      <c r="AH123" s="23"/>
+      <c r="AI123" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="AJ123" s="3"/>
     </row>
-    <row r="124" spans="1:34" ht="29" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:36" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A124" s="2">
         <v>44889.821689814817</v>
       </c>
@@ -25240,16 +26026,22 @@
       <c r="AD124" s="16" t="s">
         <v>974</v>
       </c>
-      <c r="AE124" s="6" t="s">
+      <c r="AE124" s="16" t="s">
+        <v>992</v>
+      </c>
+      <c r="AF124" s="6" t="s">
         <v>958</v>
       </c>
-      <c r="AF124" s="23"/>
-      <c r="AG124" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="AH124" s="3"/>
+      <c r="AG124" s="5" t="s">
+        <v>1001</v>
+      </c>
+      <c r="AH124" s="23"/>
+      <c r="AI124" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="AJ124" s="3"/>
     </row>
-    <row r="125" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A125" s="2">
         <v>44895.680104166669</v>
       </c>
@@ -25340,16 +26132,22 @@
       <c r="AD125" s="16" t="s">
         <v>974</v>
       </c>
-      <c r="AE125" s="6" t="s">
+      <c r="AE125" s="16" t="s">
+        <v>992</v>
+      </c>
+      <c r="AF125" s="6" t="s">
         <v>958</v>
       </c>
-      <c r="AF125" s="23"/>
-      <c r="AG125" s="3" t="s">
+      <c r="AG125" s="5" t="s">
+        <v>1001</v>
+      </c>
+      <c r="AH125" s="23"/>
+      <c r="AI125" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="AH125" s="3"/>
+      <c r="AJ125" s="3"/>
     </row>
-    <row r="126" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A126" s="2">
         <v>44888.628437500003</v>
       </c>
@@ -25440,16 +26238,22 @@
       <c r="AD126" s="16" t="s">
         <v>974</v>
       </c>
-      <c r="AE126" s="6" t="s">
+      <c r="AE126" s="16" t="s">
+        <v>992</v>
+      </c>
+      <c r="AF126" s="6" t="s">
         <v>958</v>
       </c>
-      <c r="AF126" s="23"/>
-      <c r="AG126" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="AH126" s="3"/>
+      <c r="AG126" s="5" t="s">
+        <v>1001</v>
+      </c>
+      <c r="AH126" s="23"/>
+      <c r="AI126" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="AJ126" s="3"/>
     </row>
-    <row r="127" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A127" s="2">
         <v>44811.67523148148</v>
       </c>
@@ -25540,16 +26344,22 @@
       <c r="AD127" s="16" t="s">
         <v>974</v>
       </c>
-      <c r="AE127" s="6" t="s">
+      <c r="AE127" s="16" t="s">
+        <v>992</v>
+      </c>
+      <c r="AF127" s="6" t="s">
         <v>958</v>
       </c>
-      <c r="AF127" s="23"/>
-      <c r="AG127" s="3" t="s">
+      <c r="AG127" s="5" t="s">
+        <v>1001</v>
+      </c>
+      <c r="AH127" s="23"/>
+      <c r="AI127" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="AH127" s="3"/>
+      <c r="AJ127" s="3"/>
     </row>
-    <row r="128" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A128" s="2">
         <v>44883.608020833337</v>
       </c>
@@ -25640,16 +26450,22 @@
       <c r="AD128" s="16" t="s">
         <v>974</v>
       </c>
-      <c r="AE128" s="6" t="s">
+      <c r="AE128" s="16" t="s">
+        <v>992</v>
+      </c>
+      <c r="AF128" s="6" t="s">
         <v>958</v>
       </c>
-      <c r="AF128" s="23"/>
-      <c r="AG128" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="AH128" s="3"/>
+      <c r="AG128" s="5" t="s">
+        <v>1001</v>
+      </c>
+      <c r="AH128" s="23"/>
+      <c r="AI128" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="AJ128" s="3"/>
     </row>
-    <row r="129" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A129" s="2">
         <v>44894.483946759261</v>
       </c>
@@ -25740,16 +26556,22 @@
       <c r="AD129" s="16" t="s">
         <v>974</v>
       </c>
-      <c r="AE129" s="6" t="s">
+      <c r="AE129" s="16" t="s">
+        <v>992</v>
+      </c>
+      <c r="AF129" s="6" t="s">
         <v>958</v>
       </c>
-      <c r="AF129" s="23"/>
-      <c r="AG129" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="AH129" s="3"/>
+      <c r="AG129" s="5" t="s">
+        <v>1001</v>
+      </c>
+      <c r="AH129" s="23"/>
+      <c r="AI129" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="AJ129" s="3"/>
     </row>
-    <row r="130" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A130" s="2">
         <v>44893.468819444446</v>
       </c>
@@ -25840,16 +26662,22 @@
       <c r="AD130" s="16" t="s">
         <v>974</v>
       </c>
-      <c r="AE130" s="6" t="s">
+      <c r="AE130" s="16" t="s">
+        <v>992</v>
+      </c>
+      <c r="AF130" s="6" t="s">
         <v>958</v>
       </c>
-      <c r="AF130" s="23"/>
-      <c r="AG130" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="AH130" s="3"/>
+      <c r="AG130" s="5" t="s">
+        <v>1001</v>
+      </c>
+      <c r="AH130" s="23"/>
+      <c r="AI130" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="AJ130" s="3"/>
     </row>
-    <row r="131" spans="1:34" ht="29" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:36" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A131" s="2">
         <v>44811.569085648145</v>
       </c>
@@ -25940,16 +26768,22 @@
       <c r="AD131" s="16" t="s">
         <v>974</v>
       </c>
-      <c r="AE131" s="6" t="s">
+      <c r="AE131" s="16" t="s">
+        <v>992</v>
+      </c>
+      <c r="AF131" s="6" t="s">
         <v>958</v>
       </c>
-      <c r="AF131" s="23"/>
-      <c r="AG131" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="AH131" s="3"/>
+      <c r="AG131" s="5" t="s">
+        <v>1001</v>
+      </c>
+      <c r="AH131" s="23"/>
+      <c r="AI131" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="AJ131" s="3"/>
     </row>
-    <row r="132" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A132" s="2">
         <v>44816.720543981479</v>
       </c>
@@ -26040,16 +26874,22 @@
       <c r="AD132" s="16" t="s">
         <v>974</v>
       </c>
-      <c r="AE132" s="6" t="s">
+      <c r="AE132" s="16" t="s">
+        <v>992</v>
+      </c>
+      <c r="AF132" s="6" t="s">
         <v>958</v>
       </c>
-      <c r="AF132" s="23"/>
-      <c r="AG132" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="AH132" s="3"/>
+      <c r="AG132" s="5" t="s">
+        <v>1001</v>
+      </c>
+      <c r="AH132" s="23"/>
+      <c r="AI132" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="AJ132" s="3"/>
     </row>
-    <row r="133" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A133" s="2">
         <v>44811.650509259256</v>
       </c>
@@ -26140,16 +26980,22 @@
       <c r="AD133" s="16" t="s">
         <v>974</v>
       </c>
-      <c r="AE133" s="6" t="s">
+      <c r="AE133" s="16" t="s">
+        <v>992</v>
+      </c>
+      <c r="AF133" s="6" t="s">
         <v>958</v>
       </c>
-      <c r="AF133" s="23"/>
-      <c r="AG133" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="AH133" s="3"/>
+      <c r="AG133" s="5" t="s">
+        <v>1001</v>
+      </c>
+      <c r="AH133" s="23"/>
+      <c r="AI133" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="AJ133" s="3"/>
     </row>
-    <row r="134" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A134" s="2">
         <v>44817.584282407406</v>
       </c>
@@ -26240,16 +27086,22 @@
       <c r="AD134" s="16" t="s">
         <v>974</v>
       </c>
-      <c r="AE134" s="6" t="s">
+      <c r="AE134" s="16" t="s">
+        <v>992</v>
+      </c>
+      <c r="AF134" s="6" t="s">
         <v>958</v>
       </c>
-      <c r="AF134" s="23"/>
-      <c r="AG134" s="3" t="s">
+      <c r="AG134" s="5" t="s">
+        <v>1001</v>
+      </c>
+      <c r="AH134" s="23"/>
+      <c r="AI134" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="AH134" s="3"/>
+      <c r="AJ134" s="3"/>
     </row>
-    <row r="135" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:36" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A135" s="2">
         <v>44810.554259259261</v>
       </c>
@@ -26340,16 +27192,22 @@
       <c r="AD135" s="16" t="s">
         <v>974</v>
       </c>
-      <c r="AE135" s="6" t="s">
+      <c r="AE135" s="16" t="s">
+        <v>992</v>
+      </c>
+      <c r="AF135" s="6" t="s">
         <v>958</v>
       </c>
-      <c r="AF135" s="23"/>
-      <c r="AG135" s="3" t="s">
+      <c r="AG135" s="5" t="s">
+        <v>1001</v>
+      </c>
+      <c r="AH135" s="23"/>
+      <c r="AI135" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="AH135" s="3"/>
+      <c r="AJ135" s="3"/>
     </row>
-    <row r="136" spans="1:34" ht="29" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:36" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A136" s="2">
         <v>44895.731400462966</v>
       </c>
@@ -26440,16 +27298,22 @@
       <c r="AD136" s="16" t="s">
         <v>974</v>
       </c>
-      <c r="AE136" s="6" t="s">
+      <c r="AE136" s="16" t="s">
+        <v>992</v>
+      </c>
+      <c r="AF136" s="6" t="s">
         <v>958</v>
       </c>
-      <c r="AF136" s="23"/>
-      <c r="AG136" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="AH136" s="3"/>
+      <c r="AG136" s="5" t="s">
+        <v>1001</v>
+      </c>
+      <c r="AH136" s="23"/>
+      <c r="AI136" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="AJ136" s="3"/>
     </row>
-    <row r="137" spans="1:34" ht="29" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:36" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A137" s="2">
         <v>44810.711180555554</v>
       </c>
@@ -26540,16 +27404,22 @@
       <c r="AD137" s="16" t="s">
         <v>974</v>
       </c>
-      <c r="AE137" s="6" t="s">
+      <c r="AE137" s="16" t="s">
+        <v>992</v>
+      </c>
+      <c r="AF137" s="6" t="s">
         <v>958</v>
       </c>
-      <c r="AF137" s="23"/>
-      <c r="AG137" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="AH137" s="3"/>
+      <c r="AG137" s="5" t="s">
+        <v>1001</v>
+      </c>
+      <c r="AH137" s="23"/>
+      <c r="AI137" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="AJ137" s="3"/>
     </row>
-    <row r="138" spans="1:34" ht="116" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:36" ht="135" hidden="1" x14ac:dyDescent="0.25">
       <c r="A138" s="2">
         <v>44810.711180555554</v>
       </c>
@@ -26640,16 +27510,22 @@
       <c r="AD138" s="16" t="s">
         <v>974</v>
       </c>
-      <c r="AE138" s="6" t="s">
+      <c r="AE138" s="16" t="s">
+        <v>992</v>
+      </c>
+      <c r="AF138" s="6" t="s">
         <v>958</v>
       </c>
-      <c r="AF138" s="23"/>
-      <c r="AG138" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="AH138" s="3"/>
+      <c r="AG138" s="5" t="s">
+        <v>1001</v>
+      </c>
+      <c r="AH138" s="23"/>
+      <c r="AI138" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="AJ138" s="3"/>
     </row>
-    <row r="139" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A139" s="2">
         <v>44894.671030092592</v>
       </c>
@@ -26740,16 +27616,22 @@
       <c r="AD139" s="16" t="s">
         <v>975</v>
       </c>
-      <c r="AE139" s="6" t="s">
+      <c r="AE139" s="16" t="s">
+        <v>992</v>
+      </c>
+      <c r="AF139" s="6" t="s">
         <v>958</v>
       </c>
-      <c r="AF139" s="23"/>
-      <c r="AG139" s="3" t="s">
+      <c r="AG139" s="5" t="s">
+        <v>1001</v>
+      </c>
+      <c r="AH139" s="23"/>
+      <c r="AI139" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="AH139" s="3"/>
+      <c r="AJ139" s="3"/>
     </row>
-    <row r="140" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A140" s="2">
         <v>44894.5312037037</v>
       </c>
@@ -26840,16 +27722,22 @@
       <c r="AD140" s="16" t="s">
         <v>976</v>
       </c>
-      <c r="AE140" s="7" t="s">
+      <c r="AE140" s="16" t="s">
+        <v>993</v>
+      </c>
+      <c r="AF140" s="7" t="s">
         <v>956</v>
       </c>
-      <c r="AF140" s="24"/>
-      <c r="AG140" s="3" t="s">
+      <c r="AG140" s="5" t="s">
+        <v>1001</v>
+      </c>
+      <c r="AH140" s="24"/>
+      <c r="AI140" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="AH140" s="3"/>
+      <c r="AJ140" s="3"/>
     </row>
-    <row r="141" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A141" s="2">
         <v>44879.638194444444</v>
       </c>
@@ -26940,16 +27828,22 @@
       <c r="AD141" s="16" t="s">
         <v>976</v>
       </c>
-      <c r="AE141" s="7" t="s">
+      <c r="AE141" s="16" t="s">
+        <v>993</v>
+      </c>
+      <c r="AF141" s="7" t="s">
         <v>956</v>
       </c>
-      <c r="AF141" s="24"/>
-      <c r="AG141" s="3" t="s">
+      <c r="AG141" s="5" t="s">
+        <v>1001</v>
+      </c>
+      <c r="AH141" s="24"/>
+      <c r="AI141" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="AH141" s="3"/>
+      <c r="AJ141" s="3"/>
     </row>
-    <row r="142" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A142" s="2">
         <v>44895.779317129629</v>
       </c>
@@ -27040,16 +27934,22 @@
       <c r="AD142" s="16" t="s">
         <v>976</v>
       </c>
-      <c r="AE142" s="7" t="s">
+      <c r="AE142" s="16" t="s">
+        <v>993</v>
+      </c>
+      <c r="AF142" s="7" t="s">
         <v>956</v>
       </c>
-      <c r="AF142" s="24"/>
-      <c r="AG142" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="AH142" s="3"/>
+      <c r="AG142" s="5" t="s">
+        <v>1001</v>
+      </c>
+      <c r="AH142" s="24"/>
+      <c r="AI142" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="AJ142" s="3"/>
     </row>
-    <row r="143" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A143" s="2">
         <v>44895.51489583333</v>
       </c>
@@ -27140,16 +28040,22 @@
       <c r="AD143" s="16" t="s">
         <v>976</v>
       </c>
-      <c r="AE143" s="7" t="s">
+      <c r="AE143" s="16" t="s">
+        <v>993</v>
+      </c>
+      <c r="AF143" s="7" t="s">
         <v>956</v>
       </c>
-      <c r="AF143" s="24"/>
-      <c r="AG143" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="AH143" s="3"/>
+      <c r="AG143" s="5" t="s">
+        <v>1001</v>
+      </c>
+      <c r="AH143" s="24"/>
+      <c r="AI143" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="AJ143" s="3"/>
     </row>
-    <row r="144" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A144" s="2">
         <v>44883.514733796299</v>
       </c>
@@ -27240,16 +28146,22 @@
       <c r="AD144" s="16" t="s">
         <v>976</v>
       </c>
-      <c r="AE144" s="7" t="s">
+      <c r="AE144" s="16" t="s">
+        <v>993</v>
+      </c>
+      <c r="AF144" s="7" t="s">
         <v>956</v>
       </c>
-      <c r="AF144" s="24"/>
-      <c r="AG144" s="3" t="s">
+      <c r="AG144" s="5" t="s">
+        <v>1001</v>
+      </c>
+      <c r="AH144" s="24"/>
+      <c r="AI144" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="AH144" s="3"/>
+      <c r="AJ144" s="3"/>
     </row>
-    <row r="145" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A145" s="2">
         <v>44895.769317129627</v>
       </c>
@@ -27340,16 +28252,22 @@
       <c r="AD145" s="16" t="s">
         <v>976</v>
       </c>
-      <c r="AE145" s="7" t="s">
+      <c r="AE145" s="16" t="s">
+        <v>993</v>
+      </c>
+      <c r="AF145" s="7" t="s">
         <v>956</v>
       </c>
-      <c r="AF145" s="24"/>
-      <c r="AG145" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="AH145" s="3"/>
+      <c r="AG145" s="5" t="s">
+        <v>1001</v>
+      </c>
+      <c r="AH145" s="24"/>
+      <c r="AI145" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="AJ145" s="3"/>
     </row>
-    <row r="146" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A146" s="2">
         <v>44876.495821759258</v>
       </c>
@@ -27440,16 +28358,22 @@
       <c r="AD146" s="16" t="s">
         <v>976</v>
       </c>
-      <c r="AE146" s="7" t="s">
+      <c r="AE146" s="16" t="s">
+        <v>993</v>
+      </c>
+      <c r="AF146" s="7" t="s">
         <v>956</v>
       </c>
-      <c r="AF146" s="24"/>
-      <c r="AG146" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="AH146" s="3"/>
+      <c r="AG146" s="5" t="s">
+        <v>1001</v>
+      </c>
+      <c r="AH146" s="24"/>
+      <c r="AI146" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="AJ146" s="3"/>
     </row>
-    <row r="147" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A147" s="2">
         <v>44894.671030092592</v>
       </c>
@@ -27540,16 +28464,22 @@
       <c r="AD147" s="16" t="s">
         <v>976</v>
       </c>
-      <c r="AE147" s="7" t="s">
+      <c r="AE147" s="16" t="s">
+        <v>993</v>
+      </c>
+      <c r="AF147" s="7" t="s">
         <v>956</v>
       </c>
-      <c r="AF147" s="24"/>
-      <c r="AG147" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="AH147" s="3"/>
+      <c r="AG147" s="5" t="s">
+        <v>1001</v>
+      </c>
+      <c r="AH147" s="24"/>
+      <c r="AI147" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="AJ147" s="3"/>
     </row>
-    <row r="148" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A148" s="2">
         <v>44893.493472222224</v>
       </c>
@@ -27640,16 +28570,22 @@
       <c r="AD148" s="16" t="s">
         <v>976</v>
       </c>
-      <c r="AE148" s="7" t="s">
+      <c r="AE148" s="16" t="s">
+        <v>993</v>
+      </c>
+      <c r="AF148" s="7" t="s">
         <v>956</v>
       </c>
-      <c r="AF148" s="24"/>
-      <c r="AG148" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="AH148" s="3"/>
+      <c r="AG148" s="5" t="s">
+        <v>1001</v>
+      </c>
+      <c r="AH148" s="24"/>
+      <c r="AI148" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="AJ148" s="3"/>
     </row>
-    <row r="149" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A149" s="2">
         <v>44889.834004629629</v>
       </c>
@@ -27740,16 +28676,22 @@
       <c r="AD149" s="16" t="s">
         <v>976</v>
       </c>
-      <c r="AE149" s="7" t="s">
+      <c r="AE149" s="16" t="s">
+        <v>993</v>
+      </c>
+      <c r="AF149" s="7" t="s">
         <v>956</v>
       </c>
-      <c r="AF149" s="24"/>
-      <c r="AG149" s="3" t="s">
+      <c r="AG149" s="5" t="s">
+        <v>1001</v>
+      </c>
+      <c r="AH149" s="24"/>
+      <c r="AI149" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="AH149" s="3"/>
+      <c r="AJ149" s="3"/>
     </row>
-    <row r="150" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A150" s="2">
         <v>44889.821689814817</v>
       </c>
@@ -27840,16 +28782,22 @@
       <c r="AD150" s="16" t="s">
         <v>976</v>
       </c>
-      <c r="AE150" s="7" t="s">
+      <c r="AE150" s="16" t="s">
+        <v>993</v>
+      </c>
+      <c r="AF150" s="7" t="s">
         <v>956</v>
       </c>
-      <c r="AF150" s="24"/>
-      <c r="AG150" s="3" t="s">
+      <c r="AG150" s="5" t="s">
+        <v>1001</v>
+      </c>
+      <c r="AH150" s="24"/>
+      <c r="AI150" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="AH150" s="3"/>
+      <c r="AJ150" s="3"/>
     </row>
-    <row r="151" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A151" s="2">
         <v>44816.720543981479</v>
       </c>
@@ -27940,18 +28888,24 @@
       <c r="AD151" s="16" t="s">
         <v>976</v>
       </c>
-      <c r="AE151" s="4" t="s">
+      <c r="AE151" s="16" t="s">
+        <v>993</v>
+      </c>
+      <c r="AF151" s="4" t="s">
         <v>956</v>
       </c>
-      <c r="AF151" s="20"/>
-      <c r="AG151" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="AH151" s="3" t="s">
+      <c r="AG151" s="5" t="s">
+        <v>1001</v>
+      </c>
+      <c r="AH151" s="20"/>
+      <c r="AI151" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="AJ151" s="3" t="s">
         <v>906</v>
       </c>
     </row>
-    <row r="152" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A152" s="2">
         <v>44811.650509259256</v>
       </c>
@@ -28042,16 +28996,22 @@
       <c r="AD152" s="16" t="s">
         <v>976</v>
       </c>
-      <c r="AE152" s="7" t="s">
+      <c r="AE152" s="16" t="s">
+        <v>993</v>
+      </c>
+      <c r="AF152" s="7" t="s">
         <v>956</v>
       </c>
-      <c r="AF152" s="24"/>
-      <c r="AG152" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="AH152" s="3"/>
+      <c r="AG152" s="5" t="s">
+        <v>1001</v>
+      </c>
+      <c r="AH152" s="24"/>
+      <c r="AI152" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="AJ152" s="3"/>
     </row>
-    <row r="153" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A153" s="2">
         <v>44875.956701388888</v>
       </c>
@@ -28142,20 +29102,26 @@
       <c r="AD153" s="16" t="s">
         <v>976</v>
       </c>
-      <c r="AE153" s="8" t="s">
+      <c r="AE153" s="16" t="s">
+        <v>993</v>
+      </c>
+      <c r="AF153" s="8" t="s">
         <v>956</v>
       </c>
-      <c r="AF153" s="26" t="s">
+      <c r="AG153" s="5" t="s">
+        <v>1001</v>
+      </c>
+      <c r="AH153" s="26" t="s">
         <v>944</v>
       </c>
-      <c r="AG153" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="AH153" s="3" t="s">
+      <c r="AI153" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="AJ153" s="3" t="s">
         <v>906</v>
       </c>
     </row>
-    <row r="154" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A154" s="2">
         <v>44811.472337962965</v>
       </c>
@@ -28246,18 +29212,22 @@
       <c r="AD154" s="16" t="s">
         <v>927</v>
       </c>
-      <c r="AE154" s="4" t="s">
+      <c r="AE154" s="16" t="s">
+        <v>1003</v>
+      </c>
+      <c r="AF154" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="AF154" s="20"/>
-      <c r="AG154" s="3" t="s">
+      <c r="AG154" s="4"/>
+      <c r="AH154" s="20"/>
+      <c r="AI154" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="AH154" s="3" t="s">
+      <c r="AJ154" s="3" t="s">
         <v>906</v>
       </c>
     </row>
-    <row r="155" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A155" s="2">
         <v>44875.956701388888</v>
       </c>
@@ -28348,18 +29318,24 @@
       <c r="AD155" s="16" t="s">
         <v>976</v>
       </c>
-      <c r="AE155" s="8" t="s">
+      <c r="AE155" s="16" t="s">
+        <v>993</v>
+      </c>
+      <c r="AF155" s="8" t="s">
         <v>956</v>
       </c>
-      <c r="AF155" s="26"/>
-      <c r="AG155" s="3" t="s">
+      <c r="AG155" s="5" t="s">
+        <v>1001</v>
+      </c>
+      <c r="AH155" s="26"/>
+      <c r="AI155" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="AH155" s="3" t="s">
+      <c r="AJ155" s="3" t="s">
         <v>906</v>
       </c>
     </row>
-    <row r="156" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A156" s="2">
         <v>44883.529039351852</v>
       </c>
@@ -28450,16 +29426,22 @@
       <c r="AD156" s="16" t="s">
         <v>977</v>
       </c>
-      <c r="AE156" s="7" t="s">
+      <c r="AE156" s="16" t="s">
+        <v>993</v>
+      </c>
+      <c r="AF156" s="7" t="s">
         <v>956</v>
       </c>
-      <c r="AF156" s="24"/>
-      <c r="AG156" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="AH156" s="3"/>
+      <c r="AG156" s="5" t="s">
+        <v>1001</v>
+      </c>
+      <c r="AH156" s="24"/>
+      <c r="AI156" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="AJ156" s="3"/>
     </row>
-    <row r="157" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A157" s="2">
         <v>44894.695937500001</v>
       </c>
@@ -28550,16 +29532,22 @@
       <c r="AD157" s="16" t="s">
         <v>977</v>
       </c>
-      <c r="AE157" s="7" t="s">
+      <c r="AE157" s="16" t="s">
+        <v>993</v>
+      </c>
+      <c r="AF157" s="7" t="s">
         <v>956</v>
       </c>
-      <c r="AF157" s="24"/>
-      <c r="AG157" s="3" t="s">
+      <c r="AG157" s="5" t="s">
+        <v>1001</v>
+      </c>
+      <c r="AH157" s="24"/>
+      <c r="AI157" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="AH157" s="3"/>
+      <c r="AJ157" s="3"/>
     </row>
-    <row r="158" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A158" s="2">
         <v>44894.681527777779</v>
       </c>
@@ -28650,16 +29638,22 @@
       <c r="AD158" s="16" t="s">
         <v>978</v>
       </c>
-      <c r="AE158" s="4" t="s">
+      <c r="AE158" s="16" t="s">
+        <v>993</v>
+      </c>
+      <c r="AF158" s="4" t="s">
         <v>956</v>
       </c>
-      <c r="AF158" s="20"/>
-      <c r="AG158" s="3" t="s">
+      <c r="AG158" s="5" t="s">
+        <v>1001</v>
+      </c>
+      <c r="AH158" s="20"/>
+      <c r="AI158" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="AH158" s="3"/>
+      <c r="AJ158" s="3"/>
     </row>
-    <row r="159" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A159" s="2">
         <v>44894.472974537035</v>
       </c>
@@ -28750,16 +29744,22 @@
       <c r="AD159" s="16" t="s">
         <v>978</v>
       </c>
-      <c r="AE159" s="4" t="s">
+      <c r="AE159" s="16" t="s">
+        <v>993</v>
+      </c>
+      <c r="AF159" s="4" t="s">
         <v>956</v>
       </c>
-      <c r="AF159" s="20"/>
-      <c r="AG159" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="AH159" s="3"/>
+      <c r="AG159" s="5" t="s">
+        <v>1001</v>
+      </c>
+      <c r="AH159" s="20"/>
+      <c r="AI159" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="AJ159" s="3"/>
     </row>
-    <row r="160" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A160" s="2">
         <v>44809.726388888892</v>
       </c>
@@ -28850,18 +29850,24 @@
       <c r="AD160" s="16" t="s">
         <v>919</v>
       </c>
-      <c r="AE160" s="8" t="s">
+      <c r="AE160" s="16" t="s">
+        <v>996</v>
+      </c>
+      <c r="AF160" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="AF160" s="26"/>
-      <c r="AG160" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="AH160" s="3" t="s">
+      <c r="AG160" s="4" t="s">
+        <v>1000</v>
+      </c>
+      <c r="AH160" s="26"/>
+      <c r="AI160" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="AJ160" s="3" t="s">
         <v>906</v>
       </c>
     </row>
-    <row r="161" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A161" s="2">
         <v>44895.77511574074</v>
       </c>
@@ -28952,16 +29958,22 @@
       <c r="AD161" s="16" t="s">
         <v>978</v>
       </c>
-      <c r="AE161" s="4" t="s">
+      <c r="AE161" s="16" t="s">
+        <v>993</v>
+      </c>
+      <c r="AF161" s="4" t="s">
         <v>956</v>
       </c>
-      <c r="AF161" s="20"/>
-      <c r="AG161" s="3" t="s">
+      <c r="AG161" s="5" t="s">
+        <v>1001</v>
+      </c>
+      <c r="AH161" s="20"/>
+      <c r="AI161" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="AH161" s="3"/>
+      <c r="AJ161" s="3"/>
     </row>
-    <row r="162" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A162" s="2">
         <v>44895.731400462966</v>
       </c>
@@ -29052,18 +30064,24 @@
       <c r="AD162" s="16" t="s">
         <v>978</v>
       </c>
-      <c r="AE162" s="4" t="s">
+      <c r="AE162" s="16" t="s">
+        <v>993</v>
+      </c>
+      <c r="AF162" s="4" t="s">
         <v>956</v>
       </c>
-      <c r="AF162" s="25" t="s">
+      <c r="AG162" s="5" t="s">
+        <v>1001</v>
+      </c>
+      <c r="AH162" s="25" t="s">
         <v>946</v>
       </c>
-      <c r="AG162" s="3" t="s">
+      <c r="AI162" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="AH162" s="3"/>
+      <c r="AJ162" s="3"/>
     </row>
-    <row r="163" spans="1:34" s="21" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:36" s="21" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A163" s="28">
         <v>44895.769317129627</v>
       </c>
@@ -29157,15 +30175,21 @@
       <c r="AE163" s="4" t="s">
         <v>989</v>
       </c>
-      <c r="AF163" s="26"/>
-      <c r="AG163" s="18" t="s">
+      <c r="AF163" s="4" t="s">
+        <v>989</v>
+      </c>
+      <c r="AG163" s="4" t="s">
+        <v>989</v>
+      </c>
+      <c r="AH163" s="26"/>
+      <c r="AI163" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="AH163" s="18" t="s">
+      <c r="AJ163" s="18" t="s">
         <v>906</v>
       </c>
     </row>
-    <row r="164" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A164" s="2">
         <v>44894.743981481479</v>
       </c>
@@ -29259,15 +30283,21 @@
       <c r="AE164" s="4" t="s">
         <v>989</v>
       </c>
-      <c r="AF164" s="26"/>
-      <c r="AG164" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="AH164" s="3" t="s">
+      <c r="AF164" s="4" t="s">
+        <v>989</v>
+      </c>
+      <c r="AG164" s="4" t="s">
+        <v>989</v>
+      </c>
+      <c r="AH164" s="26"/>
+      <c r="AI164" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="AJ164" s="3" t="s">
         <v>906</v>
       </c>
     </row>
-    <row r="165" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A165" s="2">
         <v>44875.915219907409</v>
       </c>
@@ -29361,15 +30391,21 @@
       <c r="AE165" s="4" t="s">
         <v>989</v>
       </c>
-      <c r="AF165" s="26"/>
-      <c r="AG165" s="3" t="s">
+      <c r="AF165" s="4" t="s">
+        <v>989</v>
+      </c>
+      <c r="AG165" s="4" t="s">
+        <v>989</v>
+      </c>
+      <c r="AH165" s="26"/>
+      <c r="AI165" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="AH165" s="3" t="s">
+      <c r="AJ165" s="3" t="s">
         <v>906</v>
       </c>
     </row>
-    <row r="166" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A166" s="2">
         <v>44883.608020833337</v>
       </c>
@@ -29463,15 +30499,21 @@
       <c r="AE166" s="4" t="s">
         <v>989</v>
       </c>
-      <c r="AF166" s="26"/>
-      <c r="AG166" s="3" t="s">
+      <c r="AF166" s="4" t="s">
+        <v>989</v>
+      </c>
+      <c r="AG166" s="4" t="s">
+        <v>989</v>
+      </c>
+      <c r="AH166" s="26"/>
+      <c r="AI166" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="AH166" s="3" t="s">
+      <c r="AJ166" s="3" t="s">
         <v>906</v>
       </c>
     </row>
-    <row r="167" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A167" s="2">
         <v>44894.483946759261</v>
       </c>
@@ -29565,15 +30607,21 @@
       <c r="AE167" s="4" t="s">
         <v>989</v>
       </c>
-      <c r="AF167" s="26"/>
-      <c r="AG167" s="3" t="s">
+      <c r="AF167" s="4" t="s">
+        <v>989</v>
+      </c>
+      <c r="AG167" s="4" t="s">
+        <v>989</v>
+      </c>
+      <c r="AH167" s="26"/>
+      <c r="AI167" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="AH167" s="3" t="s">
+      <c r="AJ167" s="3" t="s">
         <v>906</v>
       </c>
     </row>
-    <row r="168" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A168" s="2">
         <v>44819.523553240739</v>
       </c>
@@ -29664,20 +30712,26 @@
       <c r="AD168" s="16" t="s">
         <v>978</v>
       </c>
-      <c r="AE168" s="4" t="s">
+      <c r="AE168" s="16" t="s">
+        <v>993</v>
+      </c>
+      <c r="AF168" s="4" t="s">
         <v>956</v>
       </c>
-      <c r="AF168" s="26" t="s">
+      <c r="AG168" s="5" t="s">
+        <v>1001</v>
+      </c>
+      <c r="AH168" s="26" t="s">
         <v>942</v>
       </c>
-      <c r="AG168" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="AH168" s="3" t="s">
+      <c r="AI168" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="AJ168" s="3" t="s">
         <v>906</v>
       </c>
     </row>
-    <row r="169" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A169" s="2">
         <v>44895.621770833335</v>
       </c>
@@ -29771,15 +30825,21 @@
       <c r="AE169" s="4" t="s">
         <v>989</v>
       </c>
-      <c r="AF169" s="26"/>
-      <c r="AG169" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="AH169" s="3" t="s">
+      <c r="AF169" s="4" t="s">
+        <v>989</v>
+      </c>
+      <c r="AG169" s="4" t="s">
+        <v>989</v>
+      </c>
+      <c r="AH169" s="26"/>
+      <c r="AI169" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="AJ169" s="3" t="s">
         <v>906</v>
       </c>
     </row>
-    <row r="170" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A170" s="2"/>
       <c r="B170" s="3"/>
       <c r="C170" s="3" t="s">
@@ -29856,16 +30916,18 @@
       <c r="AB170" s="18"/>
       <c r="AC170" s="3"/>
       <c r="AD170" s="16"/>
-      <c r="AE170" s="8"/>
-      <c r="AF170" s="26"/>
-      <c r="AG170" s="3"/>
-      <c r="AH170" s="3"/>
+      <c r="AE170" s="16"/>
+      <c r="AF170" s="8"/>
+      <c r="AG170" s="8"/>
+      <c r="AH170" s="26"/>
+      <c r="AI170" s="3"/>
+      <c r="AJ170" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
-  <conditionalFormatting sqref="AF1:AF1048576">
-    <cfRule type="notContainsBlanks" dxfId="46" priority="1">
-      <formula>LEN(TRIM(AF1))&gt;0</formula>
+  <conditionalFormatting sqref="AH1:AH1048576">
+    <cfRule type="notContainsBlanks" dxfId="0" priority="1">
+      <formula>LEN(TRIM(AH1))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -29880,36 +30942,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6570613E-1A8B-41C2-9162-B183B1DA6424}">
   <dimension ref="A3:B83"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="B53" sqref="B53"/>
-      <pivotSelection pane="bottomRight" extendable="1" activeRow="52" activeCol="1" previousRow="52" previousCol="1" click="1" r:id="rId1">
-        <pivotArea type="data" fieldPosition="0">
-          <references count="3">
-            <reference field="26" count="1" selected="0">
-              <x v="3"/>
-            </reference>
-            <reference field="29" count="1">
-              <x v="14"/>
-            </reference>
-            <reference field="30" count="1" selected="0">
-              <x v="2"/>
-            </reference>
-          </references>
-        </pivotArea>
-      </pivotSelection>
+    <sheetView topLeftCell="A8" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="101.453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="11.81640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.26953125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="31.453125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.453125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.26953125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="101.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="31.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
         <v>893</v>
       </c>
@@ -29917,7 +30964,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
         <v>60</v>
       </c>
@@ -29925,7 +30972,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
         <v>897</v>
       </c>
@@ -29933,7 +30980,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="15" t="s">
         <v>909</v>
       </c>
@@ -29941,7 +30988,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
         <v>934</v>
       </c>
@@ -29949,7 +30996,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="15" t="s">
         <v>915</v>
       </c>
@@ -29957,7 +31004,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="15" t="s">
         <v>908</v>
       </c>
@@ -29965,7 +31012,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="15" t="s">
         <v>959</v>
       </c>
@@ -29973,7 +31020,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="14" t="s">
         <v>895</v>
       </c>
@@ -29981,7 +31028,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="27" t="s">
         <v>916</v>
       </c>
@@ -29989,7 +31036,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="27" t="s">
         <v>910</v>
       </c>
@@ -29997,7 +31044,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="27" t="s">
         <v>909</v>
       </c>
@@ -30005,7 +31052,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="27" t="s">
         <v>913</v>
       </c>
@@ -30013,7 +31060,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="27" t="s">
         <v>890</v>
       </c>
@@ -30021,7 +31068,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="27" t="s">
         <v>934</v>
       </c>
@@ -30029,7 +31076,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="15" t="s">
         <v>44</v>
       </c>
@@ -30037,7 +31084,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="27" t="s">
         <v>908</v>
       </c>
@@ -30045,7 +31092,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="15" t="s">
         <v>959</v>
       </c>
@@ -30053,7 +31100,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="14" t="s">
         <v>896</v>
       </c>
@@ -30061,7 +31108,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="27" t="s">
         <v>912</v>
       </c>
@@ -30069,7 +31116,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="27" t="s">
         <v>926</v>
       </c>
@@ -30077,7 +31124,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="27" t="s">
         <v>909</v>
       </c>
@@ -30085,7 +31132,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="27" t="s">
         <v>911</v>
       </c>
@@ -30093,7 +31140,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="15" t="s">
         <v>925</v>
       </c>
@@ -30101,7 +31148,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="15" t="s">
         <v>913</v>
       </c>
@@ -30109,7 +31156,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="15" t="s">
         <v>920</v>
       </c>
@@ -30117,7 +31164,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="15" t="s">
         <v>885</v>
       </c>
@@ -30125,7 +31172,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="15" t="s">
         <v>919</v>
       </c>
@@ -30133,7 +31180,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="15" t="s">
         <v>898</v>
       </c>
@@ -30141,7 +31188,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="15" t="s">
         <v>908</v>
       </c>
@@ -30149,7 +31196,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="15" t="s">
         <v>959</v>
       </c>
@@ -30157,7 +31204,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="13" t="s">
         <v>957</v>
       </c>
@@ -30165,7 +31212,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="14" t="s">
         <v>897</v>
       </c>
@@ -30173,7 +31220,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="15" t="s">
         <v>899</v>
       </c>
@@ -30181,7 +31228,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="14" t="s">
         <v>895</v>
       </c>
@@ -30189,7 +31236,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="15" t="s">
         <v>899</v>
       </c>
@@ -30197,7 +31244,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="15" t="s">
         <v>900</v>
       </c>
@@ -30205,7 +31252,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="15" t="s">
         <v>901</v>
       </c>
@@ -30213,7 +31260,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="15" t="s">
         <v>902</v>
       </c>
@@ -30221,7 +31268,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="15" t="s">
         <v>889</v>
       </c>
@@ -30229,7 +31276,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="15" t="s">
         <v>905</v>
       </c>
@@ -30237,7 +31284,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="14" t="s">
         <v>896</v>
       </c>
@@ -30245,7 +31292,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="15" t="s">
         <v>899</v>
       </c>
@@ -30253,7 +31300,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" s="13" t="s">
         <v>958</v>
       </c>
@@ -30261,7 +31308,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" s="14" t="s">
         <v>897</v>
       </c>
@@ -30269,7 +31316,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" s="15" t="s">
         <v>917</v>
       </c>
@@ -30277,7 +31324,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="14" t="s">
         <v>895</v>
       </c>
@@ -30285,7 +31332,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="15" t="s">
         <v>917</v>
       </c>
@@ -30293,7 +31340,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" s="15" t="s">
         <v>918</v>
       </c>
@@ -30301,7 +31348,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" s="14" t="s">
         <v>896</v>
       </c>
@@ -30309,7 +31356,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" s="15" t="s">
         <v>917</v>
       </c>
@@ -30317,7 +31364,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" s="13" t="s">
         <v>956</v>
       </c>
@@ -30325,7 +31372,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" s="14" t="s">
         <v>897</v>
       </c>
@@ -30333,7 +31380,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" s="15" t="s">
         <v>960</v>
       </c>
@@ -30341,7 +31388,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" s="15" t="s">
         <v>961</v>
       </c>
@@ -30349,7 +31396,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" s="14" t="s">
         <v>895</v>
       </c>
@@ -30357,7 +31404,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" s="15" t="s">
         <v>960</v>
       </c>
@@ -30365,7 +31412,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" s="15" t="s">
         <v>962</v>
       </c>
@@ -30373,7 +31420,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" s="14" t="s">
         <v>896</v>
       </c>
@@ -30381,7 +31428,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" s="15" t="s">
         <v>960</v>
       </c>
@@ -30389,7 +31436,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" s="13" t="s">
         <v>932</v>
       </c>
@@ -30397,7 +31444,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" s="14" t="s">
         <v>897</v>
       </c>
@@ -30405,7 +31452,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" s="15" t="s">
         <v>928</v>
       </c>
@@ -30413,7 +31460,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" s="15" t="s">
         <v>959</v>
       </c>
@@ -30421,7 +31468,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" s="14" t="s">
         <v>895</v>
       </c>
@@ -30429,7 +31476,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" s="15" t="s">
         <v>898</v>
       </c>
@@ -30437,7 +31484,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" s="15" t="s">
         <v>929</v>
       </c>
@@ -30445,7 +31492,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" s="15" t="s">
         <v>933</v>
       </c>
@@ -30453,7 +31500,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" s="15" t="s">
         <v>931</v>
       </c>
@@ -30461,7 +31508,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" s="15" t="s">
         <v>930</v>
       </c>
@@ -30469,7 +31516,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" s="15" t="s">
         <v>959</v>
       </c>
@@ -30477,7 +31524,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" s="15" t="s">
         <v>962</v>
       </c>
@@ -30485,7 +31532,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" s="13" t="s">
         <v>44</v>
       </c>
@@ -30493,7 +31540,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" s="14" t="s">
         <v>895</v>
       </c>
@@ -30501,7 +31548,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" s="15" t="s">
         <v>917</v>
       </c>
@@ -30509,7 +31556,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" s="15" t="s">
         <v>927</v>
       </c>
@@ -30517,7 +31564,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" s="15" t="s">
         <v>922</v>
       </c>
@@ -30525,7 +31572,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" s="15" t="s">
         <v>923</v>
       </c>
@@ -30533,7 +31580,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" s="14" t="s">
         <v>896</v>
       </c>
@@ -30541,7 +31588,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" s="15" t="s">
         <v>924</v>
       </c>
@@ -30549,7 +31596,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" s="13" t="s">
         <v>892</v>
       </c>

--- a/Review/3_plots/data/Qualitative_Evaluation_Validation_Steps.xlsx
+++ b/Review/3_plots/data/Qualitative_Evaluation_Validation_Steps.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\birkenls\OneDrive - GESIS – Leibniz-Institut für Sozialwissenschaften e.V\Dokumente\Coding Projekte (Git)\Review_Validity\Review\3_plots\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9581E59E-3B4C-4B93-BE5B-F28FDE2CC891}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D900027C-B9F1-4E0B-A319-7A3F9B7082DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17790" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5377" uniqueCount="1005">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5376" uniqueCount="1004">
   <si>
     <t>Zeitstempel</t>
   </si>
@@ -4362,9 +4362,6 @@
   </si>
   <si>
     <t>Visual Inspection</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cross Validation in the </t>
   </si>
   <si>
     <t>category_evidence</t>
@@ -5000,22 +4997,6 @@
   <dxfs count="49">
     <dxf>
       <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
         <patternFill patternType="solid">
           <bgColor theme="9" tint="0.59999389629810485"/>
         </patternFill>
@@ -5130,6 +5111,15 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -5230,6 +5220,13 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="27" formatCode="dd/mm/yyyy\ hh:mm"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -12192,7 +12189,7 @@
     <dataField name="Count of doi" fld="21" subtotal="count" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="14">
-    <format dxfId="15">
+    <format dxfId="13">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="3">
           <reference field="26" count="1" selected="0">
@@ -12207,7 +12204,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="14">
+    <format dxfId="12">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="3">
           <reference field="26" count="1" selected="0">
@@ -12222,7 +12219,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="13">
+    <format dxfId="11">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="3">
           <reference field="26" count="1" selected="0">
@@ -12237,7 +12234,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="12">
+    <format dxfId="10">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="3">
           <reference field="26" count="1" selected="0">
@@ -12252,7 +12249,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="11">
+    <format dxfId="9">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="3">
           <reference field="26" count="1" selected="0">
@@ -12267,7 +12264,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="10">
+    <format dxfId="8">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="3">
           <reference field="26" count="1" selected="0">
@@ -12282,7 +12279,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="9">
+    <format dxfId="7">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="3">
           <reference field="26" count="1" selected="0">
@@ -12297,7 +12294,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="8">
+    <format dxfId="6">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="3">
           <reference field="26" count="1" selected="0">
@@ -12312,7 +12309,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="7">
+    <format dxfId="5">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="3">
           <reference field="26" count="1" selected="0">
@@ -12328,7 +12325,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="6">
+    <format dxfId="4">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="3">
           <reference field="26" count="1" selected="0">
@@ -12344,7 +12341,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="5">
+    <format dxfId="3">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="3">
           <reference field="26" count="1" selected="0">
@@ -12359,7 +12356,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="4">
+    <format dxfId="2">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="3">
           <reference field="26" count="1" selected="0">
@@ -12374,7 +12371,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="3">
+    <format dxfId="1">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="3">
           <reference field="26" count="1" selected="0">
@@ -12392,7 +12389,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="2">
+    <format dxfId="0">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="3">
           <reference field="26" count="1" selected="0">
@@ -12470,51 +12467,47 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="qualitative_coding_categories" displayName="qualitative_coding_categories" ref="A1:AJ169" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:AJ169" xr:uid="{00000000-0009-0000-0100-000001000000}">
-    <filterColumn colId="30">
-      <filters blank="1"/>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:AJ169" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:AJ55">
     <sortCondition ref="AD1:AD169"/>
   </sortState>
   <tableColumns count="36">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" uniqueName="1" name="Zeitstempel" queryTableFieldId="1" dataDxfId="48"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" uniqueName="2" name="title" queryTableFieldId="2" dataDxfId="47"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" uniqueName="3" name="These are the Authors" queryTableFieldId="3" dataDxfId="46"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" uniqueName="4" name="Please scan the text. _x000d__x000a_Does the study fulfil the eligibility criteria?_x000d__x000a_- Empirical Study_x000d__x000a_- Field of Political Communication_x000d__x000a_- Using Text as Data Method to operationalise a construct of interest _x000d__x000a__x000d__x000a_You may come back to this question if you have starte" queryTableFieldId="4" dataDxfId="45"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" uniqueName="5" name="If no: Why is the study out of scope?" queryTableFieldId="5" dataDxfId="44"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" uniqueName="6" name="source" queryTableFieldId="6" dataDxfId="43"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" uniqueName="7" name="language" queryTableFieldId="7" dataDxfId="42"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" uniqueName="8" name="language_others" queryTableFieldId="8" dataDxfId="41"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" uniqueName="9" name="Please name the target construct as described by the authors)_x000d__x000a_Note: Please use the exact wording of the authors, such as &quot;affective polarization&quot;, &quot;semantic complexity&quot;._x000d__x000a_If there is more than one construct studied, please separate constructs by a comma " queryTableFieldId="9" dataDxfId="40"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" uniqueName="10" name="construct_new" queryTableFieldId="10" dataDxfId="39"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" uniqueName="11" name="method_type" queryTableFieldId="11" dataDxfId="38"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" uniqueName="12" name="method_name" queryTableFieldId="12" dataDxfId="37"/>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" uniqueName="13" name="What is the outcome of the method?" queryTableFieldId="13" dataDxfId="36"/>
-    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" uniqueName="14" name="Do you have any comments on the study design?" queryTableFieldId="14" dataDxfId="35"/>
-    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" uniqueName="15" name="If yes: What are your comments on the study design?" queryTableFieldId="15" dataDxfId="34"/>
-    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" uniqueName="16" name="Are steps of validation reported?" queryTableFieldId="16" dataDxfId="33"/>
-    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" uniqueName="17" name="Is there a link to an Appendix/additional Materials/GitHub repository?" queryTableFieldId="17" dataDxfId="32"/>
-    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" uniqueName="18" name="_x000d__x000a_Is the data for the analysis accessible?" queryTableFieldId="18" dataDxfId="31"/>
-    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0000-000013000000}" uniqueName="19" name="Is the code for the analysis accessible?" queryTableFieldId="19" dataDxfId="30"/>
-    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0000-000014000000}" uniqueName="20" name="E-Mail-Adresse" queryTableFieldId="20" dataDxfId="29"/>
-    <tableColumn id="21" xr3:uid="{00000000-0010-0000-0000-000015000000}" uniqueName="21" name="id" queryTableFieldId="21" dataDxfId="28"/>
-    <tableColumn id="22" xr3:uid="{00000000-0010-0000-0000-000016000000}" uniqueName="22" name="doi" queryTableFieldId="22" dataDxfId="27"/>
-    <tableColumn id="23" xr3:uid="{00000000-0010-0000-0000-000017000000}" uniqueName="23" name="journal" queryTableFieldId="23" dataDxfId="26"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" uniqueName="1" name="Zeitstempel" queryTableFieldId="1" dataDxfId="47"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" uniqueName="2" name="title" queryTableFieldId="2" dataDxfId="46"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" uniqueName="3" name="These are the Authors" queryTableFieldId="3" dataDxfId="45"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" uniqueName="4" name="Please scan the text. _x000d__x000a_Does the study fulfil the eligibility criteria?_x000d__x000a_- Empirical Study_x000d__x000a_- Field of Political Communication_x000d__x000a_- Using Text as Data Method to operationalise a construct of interest _x000d__x000a__x000d__x000a_You may come back to this question if you have starte" queryTableFieldId="4" dataDxfId="44"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" uniqueName="5" name="If no: Why is the study out of scope?" queryTableFieldId="5" dataDxfId="43"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" uniqueName="6" name="source" queryTableFieldId="6" dataDxfId="42"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" uniqueName="7" name="language" queryTableFieldId="7" dataDxfId="41"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" uniqueName="8" name="language_others" queryTableFieldId="8" dataDxfId="40"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" uniqueName="9" name="Please name the target construct as described by the authors)_x000d__x000a_Note: Please use the exact wording of the authors, such as &quot;affective polarization&quot;, &quot;semantic complexity&quot;._x000d__x000a_If there is more than one construct studied, please separate constructs by a comma " queryTableFieldId="9" dataDxfId="39"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" uniqueName="10" name="construct_new" queryTableFieldId="10" dataDxfId="38"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" uniqueName="11" name="method_type" queryTableFieldId="11" dataDxfId="37"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" uniqueName="12" name="method_name" queryTableFieldId="12" dataDxfId="36"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" uniqueName="13" name="What is the outcome of the method?" queryTableFieldId="13" dataDxfId="35"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" uniqueName="14" name="Do you have any comments on the study design?" queryTableFieldId="14" dataDxfId="34"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" uniqueName="15" name="If yes: What are your comments on the study design?" queryTableFieldId="15" dataDxfId="33"/>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" uniqueName="16" name="Are steps of validation reported?" queryTableFieldId="16" dataDxfId="32"/>
+    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" uniqueName="17" name="Is there a link to an Appendix/additional Materials/GitHub repository?" queryTableFieldId="17" dataDxfId="31"/>
+    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" uniqueName="18" name="_x000d__x000a_Is the data for the analysis accessible?" queryTableFieldId="18" dataDxfId="30"/>
+    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0000-000013000000}" uniqueName="19" name="Is the code for the analysis accessible?" queryTableFieldId="19" dataDxfId="29"/>
+    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0000-000014000000}" uniqueName="20" name="E-Mail-Adresse" queryTableFieldId="20" dataDxfId="28"/>
+    <tableColumn id="21" xr3:uid="{00000000-0010-0000-0000-000015000000}" uniqueName="21" name="id" queryTableFieldId="21" dataDxfId="27"/>
+    <tableColumn id="22" xr3:uid="{00000000-0010-0000-0000-000016000000}" uniqueName="22" name="doi" queryTableFieldId="22" dataDxfId="26"/>
+    <tableColumn id="23" xr3:uid="{00000000-0010-0000-0000-000017000000}" uniqueName="23" name="journal" queryTableFieldId="23" dataDxfId="25"/>
     <tableColumn id="24" xr3:uid="{00000000-0010-0000-0000-000018000000}" uniqueName="24" name="year" queryTableFieldId="24"/>
     <tableColumn id="25" xr3:uid="{00000000-0010-0000-0000-000019000000}" uniqueName="25" name="n_validation" queryTableFieldId="25"/>
-    <tableColumn id="26" xr3:uid="{00000000-0010-0000-0000-00001A000000}" uniqueName="26" name="location" queryTableFieldId="26" dataDxfId="25"/>
-    <tableColumn id="34" xr3:uid="{00000000-0010-0000-0000-000022000000}" uniqueName="34" name="method_short" queryTableFieldId="35" dataDxfId="24"/>
-    <tableColumn id="27" xr3:uid="{00000000-0010-0000-0000-00001B000000}" uniqueName="27" name="Text_Long" queryTableFieldId="27" dataDxfId="23"/>
-    <tableColumn id="28" xr3:uid="{00000000-0010-0000-0000-00001C000000}" uniqueName="28" name="Description_informal" queryTableFieldId="28" dataDxfId="22"/>
-    <tableColumn id="31" xr3:uid="{00000000-0010-0000-0000-00001F000000}" uniqueName="31" name="category_specific" queryTableFieldId="31" dataDxfId="21"/>
-    <tableColumn id="35" xr3:uid="{699DA15B-3FF8-4D69-B8F6-F2BFA63920BA}" uniqueName="35" name="category_evidence" queryTableFieldId="38" dataDxfId="20"/>
-    <tableColumn id="29" xr3:uid="{00000000-0010-0000-0000-00001D000000}" uniqueName="29" name="category_general" queryTableFieldId="29" dataDxfId="19"/>
-    <tableColumn id="36" xr3:uid="{7BF342A4-6DBB-422B-95C9-387B389149ED}" uniqueName="36" name="Phase" queryTableFieldId="39" dataDxfId="1"/>
-    <tableColumn id="33" xr3:uid="{CCB0E87B-5950-4F12-9998-B689DB3AA8A0}" uniqueName="33" name="validity_type_paper" queryTableFieldId="37" dataDxfId="18"/>
-    <tableColumn id="30" xr3:uid="{00000000-0010-0000-0000-00001E000000}" uniqueName="30" name="v4" queryTableFieldId="30" dataDxfId="17"/>
-    <tableColumn id="32" xr3:uid="{00000000-0010-0000-0000-000020000000}" uniqueName="32" name="v5" queryTableFieldId="33" dataDxfId="16"/>
+    <tableColumn id="26" xr3:uid="{00000000-0010-0000-0000-00001A000000}" uniqueName="26" name="location" queryTableFieldId="26" dataDxfId="24"/>
+    <tableColumn id="34" xr3:uid="{00000000-0010-0000-0000-000022000000}" uniqueName="34" name="method_short" queryTableFieldId="35" dataDxfId="23"/>
+    <tableColumn id="27" xr3:uid="{00000000-0010-0000-0000-00001B000000}" uniqueName="27" name="Text_Long" queryTableFieldId="27" dataDxfId="22"/>
+    <tableColumn id="28" xr3:uid="{00000000-0010-0000-0000-00001C000000}" uniqueName="28" name="Description_informal" queryTableFieldId="28" dataDxfId="21"/>
+    <tableColumn id="31" xr3:uid="{00000000-0010-0000-0000-00001F000000}" uniqueName="31" name="category_specific" queryTableFieldId="31" dataDxfId="20"/>
+    <tableColumn id="35" xr3:uid="{699DA15B-3FF8-4D69-B8F6-F2BFA63920BA}" uniqueName="35" name="category_evidence" queryTableFieldId="38" dataDxfId="19"/>
+    <tableColumn id="29" xr3:uid="{00000000-0010-0000-0000-00001D000000}" uniqueName="29" name="category_general" queryTableFieldId="29" dataDxfId="18"/>
+    <tableColumn id="36" xr3:uid="{7BF342A4-6DBB-422B-95C9-387B389149ED}" uniqueName="36" name="Phase" queryTableFieldId="39" dataDxfId="17"/>
+    <tableColumn id="33" xr3:uid="{CCB0E87B-5950-4F12-9998-B689DB3AA8A0}" uniqueName="33" name="validity_type_paper" queryTableFieldId="37" dataDxfId="16"/>
+    <tableColumn id="30" xr3:uid="{00000000-0010-0000-0000-00001E000000}" uniqueName="30" name="v4" queryTableFieldId="30" dataDxfId="15"/>
+    <tableColumn id="32" xr3:uid="{00000000-0010-0000-0000-000020000000}" uniqueName="32" name="v5" queryTableFieldId="33" dataDxfId="14"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -12822,7 +12815,7 @@
     <sheetView tabSelected="1" topLeftCell="V1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="AA1" sqref="AA1"/>
-      <selection pane="bottomLeft" activeCell="AE1" sqref="AE1"/>
+      <selection pane="bottomLeft" activeCell="AE8" sqref="AE8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12953,7 +12946,7 @@
         <v>952</v>
       </c>
       <c r="AE1" s="10" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="AF1" s="10" t="s">
         <v>953</v>
@@ -12971,7 +12964,7 @@
         <v>887</v>
       </c>
     </row>
-    <row r="2" spans="1:36" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:36" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>44809.726388888892</v>
       </c>
@@ -13077,7 +13070,7 @@
       </c>
       <c r="AJ2" s="3"/>
     </row>
-    <row r="3" spans="1:36" ht="38.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:36" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>44875.956701388888</v>
       </c>
@@ -13183,7 +13176,7 @@
       </c>
       <c r="AJ3" s="3"/>
     </row>
-    <row r="4" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>44883.608020833337</v>
       </c>
@@ -13291,7 +13284,7 @@
         <v>891</v>
       </c>
     </row>
-    <row r="5" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>44879.638194444444</v>
       </c>
@@ -13397,7 +13390,7 @@
       </c>
       <c r="AJ5" s="3"/>
     </row>
-    <row r="6" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>44894.483946759261</v>
       </c>
@@ -13505,7 +13498,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="7" spans="1:36" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:36" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>44811.569085648145</v>
       </c>
@@ -13613,7 +13606,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="8" spans="1:36" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:36" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>44810.531539351854</v>
       </c>
@@ -13719,7 +13712,7 @@
       </c>
       <c r="AJ8" s="3"/>
     </row>
-    <row r="9" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>44809.726388888892</v>
       </c>
@@ -13825,7 +13818,7 @@
       </c>
       <c r="AJ9" s="3"/>
     </row>
-    <row r="10" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>44873.525972222225</v>
       </c>
@@ -13931,7 +13924,7 @@
       </c>
       <c r="AJ10" s="3"/>
     </row>
-    <row r="11" spans="1:36" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:36" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>44876.495821759258</v>
       </c>
@@ -14141,7 +14134,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="13" spans="1:36" s="21" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:36" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="28">
         <v>44895.738333333335</v>
       </c>
@@ -14247,7 +14240,7 @@
       </c>
       <c r="AJ13" s="18"/>
     </row>
-    <row r="14" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>44894.509618055556</v>
       </c>
@@ -14351,7 +14344,7 @@
       </c>
       <c r="AJ14" s="3"/>
     </row>
-    <row r="15" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>44895.675173611111</v>
       </c>
@@ -14561,7 +14554,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="17" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>44895.629062499997</v>
       </c>
@@ -14667,7 +14660,7 @@
       </c>
       <c r="AJ17" s="3"/>
     </row>
-    <row r="18" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>44882.689606481479</v>
       </c>
@@ -14773,7 +14766,7 @@
       </c>
       <c r="AJ18" s="3"/>
     </row>
-    <row r="19" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>44895.720497685186</v>
       </c>
@@ -14879,7 +14872,7 @@
       </c>
       <c r="AJ19" s="3"/>
     </row>
-    <row r="20" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>44893.482789351852</v>
       </c>
@@ -14985,7 +14978,7 @@
       </c>
       <c r="AJ20" s="3"/>
     </row>
-    <row r="21" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>44895.621770833335</v>
       </c>
@@ -15091,7 +15084,7 @@
       </c>
       <c r="AJ21" s="3"/>
     </row>
-    <row r="22" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>44893.493472222224</v>
       </c>
@@ -15197,7 +15190,7 @@
       </c>
       <c r="AJ22" s="3"/>
     </row>
-    <row r="23" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>44893.512881944444</v>
       </c>
@@ -15303,7 +15296,7 @@
       </c>
       <c r="AJ23" s="3"/>
     </row>
-    <row r="24" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>44889.821689814817</v>
       </c>
@@ -15409,7 +15402,7 @@
       </c>
       <c r="AJ24" s="3"/>
     </row>
-    <row r="25" spans="1:36" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:36" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>44879.516747685186</v>
       </c>
@@ -15515,7 +15508,7 @@
       </c>
       <c r="AJ25" s="3"/>
     </row>
-    <row r="26" spans="1:36" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:36" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>44889.821689814817</v>
       </c>
@@ -15621,7 +15614,7 @@
       </c>
       <c r="AJ26" s="3"/>
     </row>
-    <row r="27" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>44895.66978009259</v>
       </c>
@@ -15727,7 +15720,7 @@
       </c>
       <c r="AJ27" s="3"/>
     </row>
-    <row r="28" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>44895.617997685185</v>
       </c>
@@ -15833,7 +15826,7 @@
       </c>
       <c r="AJ28" s="3"/>
     </row>
-    <row r="29" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>44895.685428240744</v>
       </c>
@@ -15939,7 +15932,7 @@
       </c>
       <c r="AJ29" s="3"/>
     </row>
-    <row r="30" spans="1:36" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:36" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>44811.569085648145</v>
       </c>
@@ -16045,7 +16038,7 @@
       </c>
       <c r="AJ30" s="3"/>
     </row>
-    <row r="31" spans="1:36" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:36" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>44883.484988425924</v>
       </c>
@@ -16153,7 +16146,7 @@
       </c>
       <c r="AJ31" s="3"/>
     </row>
-    <row r="32" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>44816.720543981479</v>
       </c>
@@ -16367,7 +16360,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="34" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>44816.741273148145</v>
       </c>
@@ -16473,7 +16466,7 @@
       </c>
       <c r="AJ34" s="3"/>
     </row>
-    <row r="35" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>44816.741273148145</v>
       </c>
@@ -16579,7 +16572,7 @@
       </c>
       <c r="AJ35" s="3"/>
     </row>
-    <row r="36" spans="1:36" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:36" ht="45" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>44816.741273148145</v>
       </c>
@@ -16685,7 +16678,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="37" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>44819.523553240739</v>
       </c>
@@ -16793,7 +16786,7 @@
       </c>
       <c r="AJ37" s="3"/>
     </row>
-    <row r="38" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>44894.472974537035</v>
       </c>
@@ -16899,7 +16892,7 @@
       </c>
       <c r="AJ38" s="3"/>
     </row>
-    <row r="39" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
         <v>44894.713263888887</v>
       </c>
@@ -17005,7 +16998,7 @@
       </c>
       <c r="AJ39" s="3"/>
     </row>
-    <row r="40" spans="1:36" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:36" ht="30" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
         <v>44894.713263888887</v>
       </c>
@@ -17111,7 +17104,7 @@
       </c>
       <c r="AJ40" s="3"/>
     </row>
-    <row r="41" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
         <v>44894.724317129629</v>
       </c>
@@ -17217,7 +17210,7 @@
       </c>
       <c r="AJ41" s="3"/>
     </row>
-    <row r="42" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
         <v>44895.742106481484</v>
       </c>
@@ -17323,7 +17316,7 @@
       </c>
       <c r="AJ42" s="3"/>
     </row>
-    <row r="43" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
         <v>44895.77511574074</v>
       </c>
@@ -17429,7 +17422,7 @@
       </c>
       <c r="AJ43" s="3"/>
     </row>
-    <row r="44" spans="1:36" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:36" ht="30" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
         <v>44811.650509259256</v>
       </c>
@@ -17535,7 +17528,7 @@
       </c>
       <c r="AJ44" s="3"/>
     </row>
-    <row r="45" spans="1:36" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:36" ht="30" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
         <v>44875.927789351852</v>
       </c>
@@ -17641,7 +17634,7 @@
       </c>
       <c r="AJ45" s="3"/>
     </row>
-    <row r="46" spans="1:36" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:36" ht="30" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
         <v>44879.561863425923</v>
       </c>
@@ -17747,7 +17740,7 @@
       </c>
       <c r="AJ46" s="3"/>
     </row>
-    <row r="47" spans="1:36" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:36" ht="30" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
         <v>44879.516747685186</v>
       </c>
@@ -17853,7 +17846,7 @@
       </c>
       <c r="AJ47" s="3"/>
     </row>
-    <row r="48" spans="1:36" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:36" ht="30" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
         <v>44893.482789351852</v>
       </c>
@@ -17959,7 +17952,7 @@
       </c>
       <c r="AJ48" s="3"/>
     </row>
-    <row r="49" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
         <v>44894.671030092592</v>
       </c>
@@ -18065,7 +18058,7 @@
       </c>
       <c r="AJ49" s="3"/>
     </row>
-    <row r="50" spans="1:36" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:36" ht="30" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
         <v>44889.821689814817</v>
       </c>
@@ -18171,7 +18164,7 @@
       </c>
       <c r="AJ50" s="3"/>
     </row>
-    <row r="51" spans="1:36" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:36" ht="30" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
         <v>44894.724317129629</v>
       </c>
@@ -18277,7 +18270,7 @@
       </c>
       <c r="AJ51" s="3"/>
     </row>
-    <row r="52" spans="1:36" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:36" ht="30" x14ac:dyDescent="0.25">
       <c r="A52" s="2">
         <v>44875.956701388888</v>
       </c>
@@ -18385,7 +18378,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="53" spans="1:36" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:36" ht="30" x14ac:dyDescent="0.25">
       <c r="A53" s="2">
         <v>44895.685428240744</v>
       </c>
@@ -18491,7 +18484,7 @@
       </c>
       <c r="AJ53" s="3"/>
     </row>
-    <row r="54" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A54" s="2">
         <v>44811.472337962965</v>
       </c>
@@ -18813,7 +18806,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="57" spans="1:36" s="21" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:36" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="28">
         <v>44883.484988425924</v>
       </c>
@@ -18923,7 +18916,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="58" spans="1:36" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:36" ht="60" x14ac:dyDescent="0.25">
       <c r="A58" s="2">
         <v>44810.795011574075</v>
       </c>
@@ -19031,7 +19024,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="59" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A59" s="2">
         <v>44810.711180555554</v>
       </c>
@@ -19137,7 +19130,7 @@
       </c>
       <c r="AJ59" s="3"/>
     </row>
-    <row r="60" spans="1:36" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:36" ht="45" x14ac:dyDescent="0.25">
       <c r="A60" s="2">
         <v>44810.711180555554</v>
       </c>
@@ -19243,7 +19236,7 @@
       </c>
       <c r="AJ60" s="3"/>
     </row>
-    <row r="61" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A61" s="2">
         <v>44875.956701388888</v>
       </c>
@@ -19349,7 +19342,7 @@
       </c>
       <c r="AJ61" s="3"/>
     </row>
-    <row r="62" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A62" s="2">
         <v>44895.738333333335</v>
       </c>
@@ -19455,7 +19448,7 @@
       </c>
       <c r="AJ62" s="3"/>
     </row>
-    <row r="63" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A63" s="2">
         <v>44882.663530092592</v>
       </c>
@@ -19561,7 +19554,7 @@
       </c>
       <c r="AJ63" s="3"/>
     </row>
-    <row r="64" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A64" s="2">
         <v>44882.689606481479</v>
       </c>
@@ -19667,7 +19660,7 @@
       </c>
       <c r="AJ64" s="3"/>
     </row>
-    <row r="65" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A65" s="2">
         <v>44894.466134259259</v>
       </c>
@@ -19773,7 +19766,7 @@
       </c>
       <c r="AJ65" s="3"/>
     </row>
-    <row r="66" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A66" s="2">
         <v>44894.713263888887</v>
       </c>
@@ -19879,7 +19872,7 @@
       </c>
       <c r="AJ66" s="3"/>
     </row>
-    <row r="67" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A67" s="2">
         <v>44894.713263888887</v>
       </c>
@@ -19985,7 +19978,7 @@
       </c>
       <c r="AJ67" s="3"/>
     </row>
-    <row r="68" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A68" s="2">
         <v>44895.621770833335</v>
       </c>
@@ -20091,7 +20084,7 @@
       </c>
       <c r="AJ68" s="3"/>
     </row>
-    <row r="69" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A69" s="2">
         <v>44883.484988425924</v>
       </c>
@@ -20199,7 +20192,7 @@
       </c>
       <c r="AJ69" s="3"/>
     </row>
-    <row r="70" spans="1:36" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:36" ht="30" x14ac:dyDescent="0.25">
       <c r="A70" s="2">
         <v>44893.474039351851</v>
       </c>
@@ -20307,7 +20300,7 @@
       </c>
       <c r="AJ70" s="3"/>
     </row>
-    <row r="71" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A71" s="2">
         <v>44873.525972222225</v>
       </c>
@@ -20413,7 +20406,7 @@
       </c>
       <c r="AJ71" s="3"/>
     </row>
-    <row r="72" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A72" s="2">
         <v>44895.685428240744</v>
       </c>
@@ -20519,7 +20512,7 @@
       </c>
       <c r="AJ72" s="3"/>
     </row>
-    <row r="73" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A73" s="2">
         <v>44895.758217592593</v>
       </c>
@@ -20627,7 +20620,7 @@
       </c>
       <c r="AJ73" s="3"/>
     </row>
-    <row r="74" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A74" s="2">
         <v>44816.741273148145</v>
       </c>
@@ -20735,7 +20728,7 @@
       </c>
       <c r="AJ74" s="3"/>
     </row>
-    <row r="75" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A75" s="2">
         <v>44882.663530092592</v>
       </c>
@@ -20841,7 +20834,7 @@
       </c>
       <c r="AJ75" s="3"/>
     </row>
-    <row r="76" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A76" s="2">
         <v>44819.523553240739</v>
       </c>
@@ -20947,7 +20940,7 @@
       </c>
       <c r="AJ76" s="3"/>
     </row>
-    <row r="77" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A77" s="2">
         <v>44894.466134259259</v>
       </c>
@@ -21055,7 +21048,7 @@
       </c>
       <c r="AJ77" s="3"/>
     </row>
-    <row r="78" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A78" s="2">
         <v>44894.472974537035</v>
       </c>
@@ -21163,7 +21156,7 @@
       </c>
       <c r="AJ78" s="3"/>
     </row>
-    <row r="79" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A79" s="2">
         <v>44894.472974537035</v>
       </c>
@@ -21269,7 +21262,7 @@
       </c>
       <c r="AJ79" s="3"/>
     </row>
-    <row r="80" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A80" s="2">
         <v>44894.472974537035</v>
       </c>
@@ -21375,7 +21368,7 @@
       </c>
       <c r="AJ80" s="3"/>
     </row>
-    <row r="81" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A81" s="2">
         <v>44894.472974537035</v>
       </c>
@@ -21481,7 +21474,7 @@
       </c>
       <c r="AJ81" s="3"/>
     </row>
-    <row r="82" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A82" s="2">
         <v>44894.724317129629</v>
       </c>
@@ -21587,7 +21580,7 @@
       </c>
       <c r="AJ82" s="3"/>
     </row>
-    <row r="83" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A83" s="2">
         <v>44895.758217592593</v>
       </c>
@@ -21693,7 +21686,7 @@
       </c>
       <c r="AJ83" s="3"/>
     </row>
-    <row r="84" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A84" s="2">
         <v>44894.5312037037</v>
       </c>
@@ -21799,7 +21792,7 @@
       </c>
       <c r="AJ84" s="3"/>
     </row>
-    <row r="85" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A85" s="2">
         <v>44895.754942129628</v>
       </c>
@@ -21905,7 +21898,7 @@
       </c>
       <c r="AJ85" s="3"/>
     </row>
-    <row r="86" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A86" s="2">
         <v>44882.757835648146</v>
       </c>
@@ -22011,7 +22004,7 @@
       </c>
       <c r="AJ86" s="3"/>
     </row>
-    <row r="87" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A87" s="2">
         <v>44895.779317129629</v>
       </c>
@@ -22117,7 +22110,7 @@
       </c>
       <c r="AJ87" s="3"/>
     </row>
-    <row r="88" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A88" s="2">
         <v>44895.762604166666</v>
       </c>
@@ -22223,7 +22216,7 @@
       </c>
       <c r="AJ88" s="3"/>
     </row>
-    <row r="89" spans="1:36" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:36" ht="45" x14ac:dyDescent="0.25">
       <c r="A89" s="2">
         <v>44876.480393518519</v>
       </c>
@@ -22329,7 +22322,7 @@
       </c>
       <c r="AJ89" s="3"/>
     </row>
-    <row r="90" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A90" s="2">
         <v>44883.529039351852</v>
       </c>
@@ -22435,7 +22428,7 @@
       </c>
       <c r="AJ90" s="3"/>
     </row>
-    <row r="91" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A91" s="2">
         <v>44883.529039351852</v>
       </c>
@@ -22541,7 +22534,7 @@
       </c>
       <c r="AJ91" s="3"/>
     </row>
-    <row r="92" spans="1:36" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:36" ht="45" x14ac:dyDescent="0.25">
       <c r="A92" s="2">
         <v>44895.51489583333</v>
       </c>
@@ -22647,7 +22640,7 @@
       </c>
       <c r="AJ92" s="3"/>
     </row>
-    <row r="93" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A93" s="2">
         <v>44873.568668981483</v>
       </c>
@@ -22753,7 +22746,7 @@
       </c>
       <c r="AJ93" s="3"/>
     </row>
-    <row r="94" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A94" s="2">
         <v>44894.695937500001</v>
       </c>
@@ -22859,7 +22852,7 @@
       </c>
       <c r="AJ94" s="3"/>
     </row>
-    <row r="95" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A95" s="2">
         <v>44895.769317129627</v>
       </c>
@@ -22965,7 +22958,7 @@
       </c>
       <c r="AJ95" s="3"/>
     </row>
-    <row r="96" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A96" s="2">
         <v>44882.694421296299</v>
       </c>
@@ -23071,7 +23064,7 @@
       </c>
       <c r="AJ96" s="3"/>
     </row>
-    <row r="97" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A97" s="2">
         <v>44894.743981481479</v>
       </c>
@@ -23177,7 +23170,7 @@
       </c>
       <c r="AJ97" s="3"/>
     </row>
-    <row r="98" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A98" s="2">
         <v>44879.477731481478</v>
       </c>
@@ -23283,7 +23276,7 @@
       </c>
       <c r="AJ98" s="3"/>
     </row>
-    <row r="99" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A99" s="2">
         <v>44879.490914351853</v>
       </c>
@@ -23389,7 +23382,7 @@
       </c>
       <c r="AJ99" s="3"/>
     </row>
-    <row r="100" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A100" s="2">
         <v>44883.559861111113</v>
       </c>
@@ -23495,7 +23488,7 @@
       </c>
       <c r="AJ100" s="3"/>
     </row>
-    <row r="101" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A101" s="2">
         <v>44893.474039351851</v>
       </c>
@@ -23601,7 +23594,7 @@
       </c>
       <c r="AJ101" s="3"/>
     </row>
-    <row r="102" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A102" s="2">
         <v>44889.61928240741</v>
       </c>
@@ -23707,7 +23700,7 @@
       </c>
       <c r="AJ102" s="3"/>
     </row>
-    <row r="103" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A103" s="2">
         <v>44873.525972222225</v>
       </c>
@@ -23813,7 +23806,7 @@
       </c>
       <c r="AJ103" s="3"/>
     </row>
-    <row r="104" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A104" s="2">
         <v>44876.495821759258</v>
       </c>
@@ -23919,7 +23912,7 @@
       </c>
       <c r="AJ104" s="3"/>
     </row>
-    <row r="105" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A105" s="2">
         <v>44879.561863425923</v>
       </c>
@@ -24025,7 +24018,7 @@
       </c>
       <c r="AJ105" s="3"/>
     </row>
-    <row r="106" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A106" s="2">
         <v>44894.681527777779</v>
       </c>
@@ -24131,7 +24124,7 @@
       </c>
       <c r="AJ106" s="3"/>
     </row>
-    <row r="107" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A107" s="2">
         <v>44882.727476851855</v>
       </c>
@@ -24237,7 +24230,7 @@
       </c>
       <c r="AJ107" s="3"/>
     </row>
-    <row r="108" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A108" s="2">
         <v>44872.526134259257</v>
       </c>
@@ -24343,7 +24336,7 @@
       </c>
       <c r="AJ108" s="3"/>
     </row>
-    <row r="109" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A109" s="2">
         <v>44890.734363425923</v>
       </c>
@@ -24449,7 +24442,7 @@
       </c>
       <c r="AJ109" s="3"/>
     </row>
-    <row r="110" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A110" s="2">
         <v>44895.675173611111</v>
       </c>
@@ -24555,7 +24548,7 @@
       </c>
       <c r="AJ110" s="3"/>
     </row>
-    <row r="111" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A111" s="2">
         <v>44895.629062499997</v>
       </c>
@@ -24661,7 +24654,7 @@
       </c>
       <c r="AJ111" s="3"/>
     </row>
-    <row r="112" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A112" s="2">
         <v>44882.674641203703</v>
       </c>
@@ -24767,7 +24760,7 @@
       </c>
       <c r="AJ112" s="3"/>
     </row>
-    <row r="113" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A113" s="2">
         <v>44882.689606481479</v>
       </c>
@@ -24873,7 +24866,7 @@
       </c>
       <c r="AJ113" s="3"/>
     </row>
-    <row r="114" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A114" s="2">
         <v>44893.482789351852</v>
       </c>
@@ -24979,7 +24972,7 @@
       </c>
       <c r="AJ114" s="3"/>
     </row>
-    <row r="115" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A115" s="2">
         <v>44895.665185185186</v>
       </c>
@@ -25085,7 +25078,7 @@
       </c>
       <c r="AJ115" s="3"/>
     </row>
-    <row r="116" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A116" s="2">
         <v>44879.626574074071</v>
       </c>
@@ -25191,7 +25184,7 @@
       </c>
       <c r="AJ116" s="3"/>
     </row>
-    <row r="117" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A117" s="2">
         <v>44872.553807870368</v>
       </c>
@@ -25297,7 +25290,7 @@
       </c>
       <c r="AJ117" s="3"/>
     </row>
-    <row r="118" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A118" s="2">
         <v>44872.553807870368</v>
       </c>
@@ -25405,7 +25398,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="119" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A119" s="2">
         <v>44893.493472222224</v>
       </c>
@@ -25511,7 +25504,7 @@
       </c>
       <c r="AJ119" s="3"/>
     </row>
-    <row r="120" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A120" s="2">
         <v>44889.834004629629</v>
       </c>
@@ -25617,7 +25610,7 @@
       </c>
       <c r="AJ120" s="3"/>
     </row>
-    <row r="121" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A121" s="2">
         <v>44893.512881944444</v>
       </c>
@@ -25723,7 +25716,7 @@
       </c>
       <c r="AJ121" s="3"/>
     </row>
-    <row r="122" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A122" s="2">
         <v>44875.915219907409</v>
       </c>
@@ -25829,7 +25822,7 @@
       </c>
       <c r="AJ122" s="3"/>
     </row>
-    <row r="123" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A123" s="2">
         <v>44889.821689814817</v>
       </c>
@@ -25935,7 +25928,7 @@
       </c>
       <c r="AJ123" s="3"/>
     </row>
-    <row r="124" spans="1:36" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:36" ht="30" x14ac:dyDescent="0.25">
       <c r="A124" s="2">
         <v>44889.821689814817</v>
       </c>
@@ -26041,7 +26034,7 @@
       </c>
       <c r="AJ124" s="3"/>
     </row>
-    <row r="125" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A125" s="2">
         <v>44895.680104166669</v>
       </c>
@@ -26147,7 +26140,7 @@
       </c>
       <c r="AJ125" s="3"/>
     </row>
-    <row r="126" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A126" s="2">
         <v>44888.628437500003</v>
       </c>
@@ -26253,7 +26246,7 @@
       </c>
       <c r="AJ126" s="3"/>
     </row>
-    <row r="127" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A127" s="2">
         <v>44811.67523148148</v>
       </c>
@@ -26359,7 +26352,7 @@
       </c>
       <c r="AJ127" s="3"/>
     </row>
-    <row r="128" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A128" s="2">
         <v>44883.608020833337</v>
       </c>
@@ -26465,7 +26458,7 @@
       </c>
       <c r="AJ128" s="3"/>
     </row>
-    <row r="129" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A129" s="2">
         <v>44894.483946759261</v>
       </c>
@@ -26571,7 +26564,7 @@
       </c>
       <c r="AJ129" s="3"/>
     </row>
-    <row r="130" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A130" s="2">
         <v>44893.468819444446</v>
       </c>
@@ -26677,7 +26670,7 @@
       </c>
       <c r="AJ130" s="3"/>
     </row>
-    <row r="131" spans="1:36" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:36" ht="30" x14ac:dyDescent="0.25">
       <c r="A131" s="2">
         <v>44811.569085648145</v>
       </c>
@@ -26783,7 +26776,7 @@
       </c>
       <c r="AJ131" s="3"/>
     </row>
-    <row r="132" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A132" s="2">
         <v>44816.720543981479</v>
       </c>
@@ -26889,7 +26882,7 @@
       </c>
       <c r="AJ132" s="3"/>
     </row>
-    <row r="133" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A133" s="2">
         <v>44811.650509259256</v>
       </c>
@@ -26995,7 +26988,7 @@
       </c>
       <c r="AJ133" s="3"/>
     </row>
-    <row r="134" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A134" s="2">
         <v>44817.584282407406</v>
       </c>
@@ -27101,7 +27094,7 @@
       </c>
       <c r="AJ134" s="3"/>
     </row>
-    <row r="135" spans="1:36" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:36" ht="30" x14ac:dyDescent="0.25">
       <c r="A135" s="2">
         <v>44810.554259259261</v>
       </c>
@@ -27207,7 +27200,7 @@
       </c>
       <c r="AJ135" s="3"/>
     </row>
-    <row r="136" spans="1:36" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:36" ht="30" x14ac:dyDescent="0.25">
       <c r="A136" s="2">
         <v>44895.731400462966</v>
       </c>
@@ -27313,7 +27306,7 @@
       </c>
       <c r="AJ136" s="3"/>
     </row>
-    <row r="137" spans="1:36" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:36" ht="30" x14ac:dyDescent="0.25">
       <c r="A137" s="2">
         <v>44810.711180555554</v>
       </c>
@@ -27419,7 +27412,7 @@
       </c>
       <c r="AJ137" s="3"/>
     </row>
-    <row r="138" spans="1:36" ht="135" hidden="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:36" ht="135" x14ac:dyDescent="0.25">
       <c r="A138" s="2">
         <v>44810.711180555554</v>
       </c>
@@ -27525,7 +27518,7 @@
       </c>
       <c r="AJ138" s="3"/>
     </row>
-    <row r="139" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A139" s="2">
         <v>44894.671030092592</v>
       </c>
@@ -27631,7 +27624,7 @@
       </c>
       <c r="AJ139" s="3"/>
     </row>
-    <row r="140" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A140" s="2">
         <v>44894.5312037037</v>
       </c>
@@ -27737,7 +27730,7 @@
       </c>
       <c r="AJ140" s="3"/>
     </row>
-    <row r="141" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A141" s="2">
         <v>44879.638194444444</v>
       </c>
@@ -27843,7 +27836,7 @@
       </c>
       <c r="AJ141" s="3"/>
     </row>
-    <row r="142" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A142" s="2">
         <v>44895.779317129629</v>
       </c>
@@ -27949,7 +27942,7 @@
       </c>
       <c r="AJ142" s="3"/>
     </row>
-    <row r="143" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A143" s="2">
         <v>44895.51489583333</v>
       </c>
@@ -28055,7 +28048,7 @@
       </c>
       <c r="AJ143" s="3"/>
     </row>
-    <row r="144" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A144" s="2">
         <v>44883.514733796299</v>
       </c>
@@ -28161,7 +28154,7 @@
       </c>
       <c r="AJ144" s="3"/>
     </row>
-    <row r="145" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A145" s="2">
         <v>44895.769317129627</v>
       </c>
@@ -28267,7 +28260,7 @@
       </c>
       <c r="AJ145" s="3"/>
     </row>
-    <row r="146" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A146" s="2">
         <v>44876.495821759258</v>
       </c>
@@ -28373,7 +28366,7 @@
       </c>
       <c r="AJ146" s="3"/>
     </row>
-    <row r="147" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A147" s="2">
         <v>44894.671030092592</v>
       </c>
@@ -28479,7 +28472,7 @@
       </c>
       <c r="AJ147" s="3"/>
     </row>
-    <row r="148" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A148" s="2">
         <v>44893.493472222224</v>
       </c>
@@ -28585,7 +28578,7 @@
       </c>
       <c r="AJ148" s="3"/>
     </row>
-    <row r="149" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A149" s="2">
         <v>44889.834004629629</v>
       </c>
@@ -28691,7 +28684,7 @@
       </c>
       <c r="AJ149" s="3"/>
     </row>
-    <row r="150" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A150" s="2">
         <v>44889.821689814817</v>
       </c>
@@ -28797,7 +28790,7 @@
       </c>
       <c r="AJ150" s="3"/>
     </row>
-    <row r="151" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A151" s="2">
         <v>44816.720543981479</v>
       </c>
@@ -28905,7 +28898,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="152" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A152" s="2">
         <v>44811.650509259256</v>
       </c>
@@ -29011,7 +29004,7 @@
       </c>
       <c r="AJ152" s="3"/>
     </row>
-    <row r="153" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A153" s="2">
         <v>44875.956701388888</v>
       </c>
@@ -29212,9 +29205,7 @@
       <c r="AD154" s="16" t="s">
         <v>927</v>
       </c>
-      <c r="AE154" s="16" t="s">
-        <v>1003</v>
-      </c>
+      <c r="AE154" s="16"/>
       <c r="AF154" s="4" t="s">
         <v>44</v>
       </c>
@@ -29227,7 +29218,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="155" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A155" s="2">
         <v>44875.956701388888</v>
       </c>
@@ -29335,7 +29326,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="156" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A156" s="2">
         <v>44883.529039351852</v>
       </c>
@@ -29441,7 +29432,7 @@
       </c>
       <c r="AJ156" s="3"/>
     </row>
-    <row r="157" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A157" s="2">
         <v>44894.695937500001</v>
       </c>
@@ -29547,7 +29538,7 @@
       </c>
       <c r="AJ157" s="3"/>
     </row>
-    <row r="158" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A158" s="2">
         <v>44894.681527777779</v>
       </c>
@@ -29653,7 +29644,7 @@
       </c>
       <c r="AJ158" s="3"/>
     </row>
-    <row r="159" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A159" s="2">
         <v>44894.472974537035</v>
       </c>
@@ -29759,7 +29750,7 @@
       </c>
       <c r="AJ159" s="3"/>
     </row>
-    <row r="160" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A160" s="2">
         <v>44809.726388888892</v>
       </c>
@@ -29867,7 +29858,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="161" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A161" s="2">
         <v>44895.77511574074</v>
       </c>
@@ -29973,7 +29964,7 @@
       </c>
       <c r="AJ161" s="3"/>
     </row>
-    <row r="162" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A162" s="2">
         <v>44895.731400462966</v>
       </c>
@@ -30081,7 +30072,7 @@
       </c>
       <c r="AJ162" s="3"/>
     </row>
-    <row r="163" spans="1:36" s="21" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:36" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A163" s="28">
         <v>44895.769317129627</v>
       </c>
@@ -30189,7 +30180,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="164" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A164" s="2">
         <v>44894.743981481479</v>
       </c>
@@ -30297,7 +30288,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="165" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A165" s="2">
         <v>44875.915219907409</v>
       </c>
@@ -30405,7 +30396,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="166" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A166" s="2">
         <v>44883.608020833337</v>
       </c>
@@ -30513,7 +30504,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="167" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A167" s="2">
         <v>44894.483946759261</v>
       </c>
@@ -30621,7 +30612,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="168" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A168" s="2">
         <v>44819.523553240739</v>
       </c>
@@ -30731,7 +30722,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="169" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A169" s="2">
         <v>44895.621770833335</v>
       </c>
@@ -30926,7 +30917,7 @@
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <conditionalFormatting sqref="AH1:AH1048576">
-    <cfRule type="notContainsBlanks" dxfId="0" priority="1">
+    <cfRule type="notContainsBlanks" dxfId="48" priority="1">
       <formula>LEN(TRIM(AH1))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
